--- a/Code/Results/Cases/Case_0_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_51/res_bus/vm_pu.xlsx
@@ -424,10 +424,10 @@
         <v>0.8839414559654851</v>
       </c>
       <c r="D2">
-        <v>0.90016947635963</v>
+        <v>0.9001694763596301</v>
       </c>
       <c r="E2">
-        <v>0.9059767713636201</v>
+        <v>0.90597677136362</v>
       </c>
       <c r="F2">
         <v>0.881129792968427</v>
@@ -445,7 +445,7 @@
         <v>0.9132202407139381</v>
       </c>
       <c r="L2">
-        <v>0.9189224808879679</v>
+        <v>0.9189224808879681</v>
       </c>
       <c r="M2">
         <v>0.8945377126306134</v>
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9071828834979752</v>
+        <v>0.9071828834979762</v>
       </c>
       <c r="D3">
-        <v>0.9212047024155258</v>
+        <v>0.9212047024155267</v>
       </c>
       <c r="E3">
-        <v>0.9256145424456388</v>
+        <v>0.9256145424456397</v>
       </c>
       <c r="F3">
-        <v>0.9055687650179599</v>
+        <v>0.9055687650179607</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.030647273977155</v>
       </c>
       <c r="J3">
-        <v>0.9305688589403113</v>
+        <v>0.9305688589403122</v>
       </c>
       <c r="K3">
-        <v>0.93295601119803</v>
+        <v>0.9329560111980306</v>
       </c>
       <c r="L3">
-        <v>0.9372968320282438</v>
+        <v>0.9372968320282447</v>
       </c>
       <c r="M3">
-        <v>0.9175717616496489</v>
+        <v>0.9175717616496496</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9206989890347609</v>
+        <v>0.9206989890347591</v>
       </c>
       <c r="D4">
-        <v>0.9334544699249038</v>
+        <v>0.9334544699249019</v>
       </c>
       <c r="E4">
-        <v>0.937058784252413</v>
+        <v>0.9370587842524116</v>
       </c>
       <c r="F4">
-        <v>0.9197964001983665</v>
+        <v>0.9197964001983644</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.03322845656402</v>
       </c>
       <c r="J4">
-        <v>0.9423744005197968</v>
+        <v>0.942374400519795</v>
       </c>
       <c r="K4">
-        <v>0.9444284343384245</v>
+        <v>0.9444284343384226</v>
       </c>
       <c r="L4">
-        <v>0.9479813004609924</v>
+        <v>0.9479813004609909</v>
       </c>
       <c r="M4">
-        <v>0.9309699722594655</v>
+        <v>0.9309699722594637</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -538,13 +538,13 @@
         <v>0.9260840221108462</v>
       </c>
       <c r="D5">
-        <v>0.9383381728051376</v>
+        <v>0.9383381728051372</v>
       </c>
       <c r="E5">
         <v>0.941622983674919</v>
       </c>
       <c r="F5">
-        <v>0.9254687042891261</v>
+        <v>0.9254687042891262</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -556,13 +556,13 @@
         <v>0.9470747364104128</v>
       </c>
       <c r="K5">
-        <v>0.9489975296518041</v>
+        <v>0.9489975296518038</v>
       </c>
       <c r="L5">
-        <v>0.9522372292231972</v>
+        <v>0.9522372292231973</v>
       </c>
       <c r="M5">
-        <v>0.9363087046783751</v>
+        <v>0.936308704678375</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9269723211230138</v>
+        <v>0.9269723211230136</v>
       </c>
       <c r="D6">
-        <v>0.9391439436173736</v>
+        <v>0.9391439436173737</v>
       </c>
       <c r="E6">
-        <v>0.9423761276878381</v>
+        <v>0.9423761276878375</v>
       </c>
       <c r="F6">
-        <v>0.9264046173738314</v>
+        <v>0.9264046173738318</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.034415824067421</v>
       </c>
       <c r="J6">
-        <v>0.947849890520797</v>
+        <v>0.9478498905207968</v>
       </c>
       <c r="K6">
         <v>0.949751121754983</v>
       </c>
       <c r="L6">
-        <v>0.9529392042326237</v>
+        <v>0.9529392042326232</v>
       </c>
       <c r="M6">
-        <v>0.9371894059653587</v>
+        <v>0.9371894059653588</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.92077203904148</v>
+        <v>0.9207720390414807</v>
       </c>
       <c r="D7">
-        <v>0.9335207072620689</v>
+        <v>0.9335207072620699</v>
       </c>
       <c r="E7">
-        <v>0.9371206819889391</v>
+        <v>0.9371206819889397</v>
       </c>
       <c r="F7">
-        <v>0.9198733317948911</v>
+        <v>0.9198733317948918</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.03324232569893</v>
       </c>
       <c r="J7">
-        <v>0.9424381756635619</v>
+        <v>0.942438175663563</v>
       </c>
       <c r="K7">
-        <v>0.9444904232300645</v>
+        <v>0.9444904232300653</v>
       </c>
       <c r="L7">
-        <v>0.9480390382097476</v>
+        <v>0.9480390382097483</v>
       </c>
       <c r="M7">
-        <v>0.9310423914734061</v>
+        <v>0.9310423914734068</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8921602697564556</v>
+        <v>0.8921602697564571</v>
       </c>
       <c r="D8">
-        <v>0.9076037844596632</v>
+        <v>0.9076037844596644</v>
       </c>
       <c r="E8">
-        <v>0.9129150846821138</v>
+        <v>0.9129150846821154</v>
       </c>
       <c r="F8">
-        <v>0.8897688764977321</v>
+        <v>0.8897688764977338</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027750418365221</v>
+        <v>1.027750418365222</v>
       </c>
       <c r="J8">
-        <v>0.9174371570391721</v>
+        <v>0.9174371570391734</v>
       </c>
       <c r="K8">
-        <v>0.9202000568786465</v>
+        <v>0.9202000568786479</v>
       </c>
       <c r="L8">
-        <v>0.9254199126381482</v>
+        <v>0.9254199126381494</v>
       </c>
       <c r="M8">
-        <v>0.9026826104995802</v>
+        <v>0.9026826104995819</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8247143964525629</v>
+        <v>0.8247143964525664</v>
       </c>
       <c r="D9">
-        <v>0.8467551987687564</v>
+        <v>0.8467551987687597</v>
       </c>
       <c r="E9">
-        <v>0.8561996964409532</v>
+        <v>0.8561996964409566</v>
       </c>
       <c r="F9">
-        <v>0.8189335615144766</v>
+        <v>0.8189335615144804</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.014633183594036</v>
+        <v>1.014633183594037</v>
       </c>
       <c r="J9">
-        <v>0.8584440768702799</v>
+        <v>0.8584440768702832</v>
       </c>
       <c r="K9">
-        <v>0.8629436400808093</v>
+        <v>0.8629436400808125</v>
       </c>
       <c r="L9">
-        <v>0.872154209427125</v>
+        <v>0.872154209427128</v>
       </c>
       <c r="M9">
-        <v>0.835853923349882</v>
+        <v>0.8358539233498856</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7466415824179066</v>
+        <v>0.7466415824179055</v>
       </c>
       <c r="D10">
-        <v>0.7768850258247549</v>
+        <v>0.7768850258247542</v>
       </c>
       <c r="E10">
-        <v>0.7913198868501649</v>
+        <v>0.7913198868501642</v>
       </c>
       <c r="F10">
-        <v>0.7369056157413839</v>
+        <v>0.7369056157413832</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0.9998561428997721</v>
+        <v>0.9998561428997723</v>
       </c>
       <c r="J10">
-        <v>0.7903695449203069</v>
+        <v>0.7903695449203059</v>
       </c>
       <c r="K10">
-        <v>0.79692344445951</v>
+        <v>0.7969234444595094</v>
       </c>
       <c r="L10">
-        <v>0.8108560149180921</v>
+        <v>0.8108560149180916</v>
       </c>
       <c r="M10">
-        <v>0.7584820904442556</v>
+        <v>0.7584820904442551</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7466415824179066</v>
+        <v>0.7466415824179055</v>
       </c>
       <c r="D11">
-        <v>0.7768850258247549</v>
+        <v>0.7768850258247542</v>
       </c>
       <c r="E11">
-        <v>0.7913198868501649</v>
+        <v>0.7913198868501642</v>
       </c>
       <c r="F11">
-        <v>0.7369056157413839</v>
+        <v>0.7369056157413832</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9998561428997721</v>
+        <v>0.9998561428997723</v>
       </c>
       <c r="J11">
-        <v>0.7903695449203069</v>
+        <v>0.7903695449203059</v>
       </c>
       <c r="K11">
-        <v>0.79692344445951</v>
+        <v>0.7969234444595094</v>
       </c>
       <c r="L11">
-        <v>0.8108560149180921</v>
+        <v>0.8108560149180916</v>
       </c>
       <c r="M11">
-        <v>0.7584820904442556</v>
+        <v>0.7584820904442551</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7466415824179066</v>
+        <v>0.7466415824179055</v>
       </c>
       <c r="D12">
-        <v>0.7768850258247549</v>
+        <v>0.7768850258247542</v>
       </c>
       <c r="E12">
-        <v>0.7913198868501649</v>
+        <v>0.7913198868501642</v>
       </c>
       <c r="F12">
-        <v>0.7369056157413839</v>
+        <v>0.7369056157413832</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9998561428997721</v>
+        <v>0.9998561428997723</v>
       </c>
       <c r="J12">
-        <v>0.7903695449203069</v>
+        <v>0.7903695449203059</v>
       </c>
       <c r="K12">
-        <v>0.79692344445951</v>
+        <v>0.7969234444595094</v>
       </c>
       <c r="L12">
-        <v>0.8108560149180921</v>
+        <v>0.8108560149180916</v>
       </c>
       <c r="M12">
-        <v>0.7584820904442556</v>
+        <v>0.7584820904442551</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7466415824179066</v>
+        <v>0.7466415824179055</v>
       </c>
       <c r="D13">
-        <v>0.7768850258247549</v>
+        <v>0.7768850258247542</v>
       </c>
       <c r="E13">
-        <v>0.7913198868501649</v>
+        <v>0.7913198868501642</v>
       </c>
       <c r="F13">
-        <v>0.7369056157413839</v>
+        <v>0.7369056157413832</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9998561428997721</v>
+        <v>0.9998561428997723</v>
       </c>
       <c r="J13">
-        <v>0.7903695449203069</v>
+        <v>0.7903695449203059</v>
       </c>
       <c r="K13">
-        <v>0.79692344445951</v>
+        <v>0.7969234444595094</v>
       </c>
       <c r="L13">
-        <v>0.8108560149180921</v>
+        <v>0.8108560149180916</v>
       </c>
       <c r="M13">
-        <v>0.7584820904442556</v>
+        <v>0.7584820904442551</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7466415824179066</v>
+        <v>0.7466415824179055</v>
       </c>
       <c r="D14">
-        <v>0.7768850258247549</v>
+        <v>0.7768850258247542</v>
       </c>
       <c r="E14">
-        <v>0.7913198868501649</v>
+        <v>0.7913198868501642</v>
       </c>
       <c r="F14">
-        <v>0.7369056157413839</v>
+        <v>0.7369056157413832</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9998561428997721</v>
+        <v>0.9998561428997723</v>
       </c>
       <c r="J14">
-        <v>0.7903695449203069</v>
+        <v>0.7903695449203059</v>
       </c>
       <c r="K14">
-        <v>0.79692344445951</v>
+        <v>0.7969234444595094</v>
       </c>
       <c r="L14">
-        <v>0.8108560149180921</v>
+        <v>0.8108560149180916</v>
       </c>
       <c r="M14">
-        <v>0.7584820904442556</v>
+        <v>0.7584820904442551</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7466415824179066</v>
+        <v>0.7466415824179055</v>
       </c>
       <c r="D15">
-        <v>0.7768850258247549</v>
+        <v>0.7768850258247542</v>
       </c>
       <c r="E15">
-        <v>0.7913198868501649</v>
+        <v>0.7913198868501642</v>
       </c>
       <c r="F15">
-        <v>0.7369056157413839</v>
+        <v>0.7369056157413832</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9998561428997721</v>
+        <v>0.9998561428997723</v>
       </c>
       <c r="J15">
-        <v>0.7903695449203069</v>
+        <v>0.7903695449203059</v>
       </c>
       <c r="K15">
-        <v>0.79692344445951</v>
+        <v>0.7969234444595094</v>
       </c>
       <c r="L15">
-        <v>0.8108560149180921</v>
+        <v>0.8108560149180916</v>
       </c>
       <c r="M15">
-        <v>0.7584820904442556</v>
+        <v>0.7584820904442551</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7466415824179066</v>
+        <v>0.7466415824179055</v>
       </c>
       <c r="D16">
-        <v>0.7768850258247549</v>
+        <v>0.7768850258247542</v>
       </c>
       <c r="E16">
-        <v>0.7913198868501649</v>
+        <v>0.7913198868501642</v>
       </c>
       <c r="F16">
-        <v>0.7369056157413839</v>
+        <v>0.7369056157413832</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0.9998561428997721</v>
+        <v>0.9998561428997723</v>
       </c>
       <c r="J16">
-        <v>0.7903695449203069</v>
+        <v>0.7903695449203059</v>
       </c>
       <c r="K16">
-        <v>0.79692344445951</v>
+        <v>0.7969234444595094</v>
       </c>
       <c r="L16">
-        <v>0.8108560149180921</v>
+        <v>0.8108560149180916</v>
       </c>
       <c r="M16">
-        <v>0.7584820904442556</v>
+        <v>0.7584820904442551</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7466415824179066</v>
+        <v>0.7466415824179055</v>
       </c>
       <c r="D17">
-        <v>0.7768850258247549</v>
+        <v>0.7768850258247542</v>
       </c>
       <c r="E17">
-        <v>0.7913198868501649</v>
+        <v>0.7913198868501642</v>
       </c>
       <c r="F17">
-        <v>0.7369056157413839</v>
+        <v>0.7369056157413832</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0.9998561428997721</v>
+        <v>0.9998561428997723</v>
       </c>
       <c r="J17">
-        <v>0.7903695449203069</v>
+        <v>0.7903695449203059</v>
       </c>
       <c r="K17">
-        <v>0.79692344445951</v>
+        <v>0.7969234444595094</v>
       </c>
       <c r="L17">
-        <v>0.8108560149180921</v>
+        <v>0.8108560149180916</v>
       </c>
       <c r="M17">
-        <v>0.7584820904442556</v>
+        <v>0.7584820904442551</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7466415824179066</v>
+        <v>0.7466415824179055</v>
       </c>
       <c r="D18">
-        <v>0.7768850258247549</v>
+        <v>0.7768850258247542</v>
       </c>
       <c r="E18">
-        <v>0.7913198868501649</v>
+        <v>0.7913198868501642</v>
       </c>
       <c r="F18">
-        <v>0.7369056157413839</v>
+        <v>0.7369056157413832</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0.9998561428997721</v>
+        <v>0.9998561428997723</v>
       </c>
       <c r="J18">
-        <v>0.7903695449203069</v>
+        <v>0.7903695449203059</v>
       </c>
       <c r="K18">
-        <v>0.79692344445951</v>
+        <v>0.7969234444595094</v>
       </c>
       <c r="L18">
-        <v>0.8108560149180921</v>
+        <v>0.8108560149180916</v>
       </c>
       <c r="M18">
-        <v>0.7584820904442556</v>
+        <v>0.7584820904442551</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7466415824179066</v>
+        <v>0.7466415824179055</v>
       </c>
       <c r="D19">
-        <v>0.7768850258247549</v>
+        <v>0.7768850258247542</v>
       </c>
       <c r="E19">
-        <v>0.7913198868501649</v>
+        <v>0.7913198868501642</v>
       </c>
       <c r="F19">
-        <v>0.7369056157413839</v>
+        <v>0.7369056157413832</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0.9998561428997721</v>
+        <v>0.9998561428997723</v>
       </c>
       <c r="J19">
-        <v>0.7903695449203069</v>
+        <v>0.7903695449203059</v>
       </c>
       <c r="K19">
-        <v>0.79692344445951</v>
+        <v>0.7969234444595094</v>
       </c>
       <c r="L19">
-        <v>0.8108560149180921</v>
+        <v>0.8108560149180916</v>
       </c>
       <c r="M19">
-        <v>0.7584820904442556</v>
+        <v>0.7584820904442551</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7466415824179066</v>
+        <v>0.7466415824179055</v>
       </c>
       <c r="D20">
-        <v>0.7768850258247549</v>
+        <v>0.7768850258247542</v>
       </c>
       <c r="E20">
-        <v>0.7913198868501649</v>
+        <v>0.7913198868501642</v>
       </c>
       <c r="F20">
-        <v>0.7369056157413839</v>
+        <v>0.7369056157413832</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0.9998561428997721</v>
+        <v>0.9998561428997723</v>
       </c>
       <c r="J20">
-        <v>0.7903695449203069</v>
+        <v>0.7903695449203059</v>
       </c>
       <c r="K20">
-        <v>0.79692344445951</v>
+        <v>0.7969234444595094</v>
       </c>
       <c r="L20">
-        <v>0.8108560149180921</v>
+        <v>0.8108560149180916</v>
       </c>
       <c r="M20">
-        <v>0.7584820904442556</v>
+        <v>0.7584820904442551</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7466415824179066</v>
+        <v>0.7466415824179055</v>
       </c>
       <c r="D21">
-        <v>0.7768850258247549</v>
+        <v>0.7768850258247542</v>
       </c>
       <c r="E21">
-        <v>0.7913198868501649</v>
+        <v>0.7913198868501642</v>
       </c>
       <c r="F21">
-        <v>0.7369056157413839</v>
+        <v>0.7369056157413832</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9998561428997721</v>
+        <v>0.9998561428997723</v>
       </c>
       <c r="J21">
-        <v>0.7903695449203069</v>
+        <v>0.7903695449203059</v>
       </c>
       <c r="K21">
-        <v>0.79692344445951</v>
+        <v>0.7969234444595094</v>
       </c>
       <c r="L21">
-        <v>0.8108560149180921</v>
+        <v>0.8108560149180916</v>
       </c>
       <c r="M21">
-        <v>0.7584820904442556</v>
+        <v>0.7584820904442551</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7466415824179066</v>
+        <v>0.7466415824179055</v>
       </c>
       <c r="D22">
-        <v>0.7768850258247549</v>
+        <v>0.7768850258247542</v>
       </c>
       <c r="E22">
-        <v>0.7913198868501649</v>
+        <v>0.7913198868501642</v>
       </c>
       <c r="F22">
-        <v>0.7369056157413839</v>
+        <v>0.7369056157413832</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9998561428997721</v>
+        <v>0.9998561428997723</v>
       </c>
       <c r="J22">
-        <v>0.7903695449203069</v>
+        <v>0.7903695449203059</v>
       </c>
       <c r="K22">
-        <v>0.79692344445951</v>
+        <v>0.7969234444595094</v>
       </c>
       <c r="L22">
-        <v>0.8108560149180921</v>
+        <v>0.8108560149180916</v>
       </c>
       <c r="M22">
-        <v>0.7584820904442556</v>
+        <v>0.7584820904442551</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7466415824179066</v>
+        <v>0.7466415824179055</v>
       </c>
       <c r="D23">
-        <v>0.7768850258247549</v>
+        <v>0.7768850258247542</v>
       </c>
       <c r="E23">
-        <v>0.7913198868501649</v>
+        <v>0.7913198868501642</v>
       </c>
       <c r="F23">
-        <v>0.7369056157413839</v>
+        <v>0.7369056157413832</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9998561428997721</v>
+        <v>0.9998561428997723</v>
       </c>
       <c r="J23">
-        <v>0.7903695449203069</v>
+        <v>0.7903695449203059</v>
       </c>
       <c r="K23">
-        <v>0.79692344445951</v>
+        <v>0.7969234444595094</v>
       </c>
       <c r="L23">
-        <v>0.8108560149180921</v>
+        <v>0.8108560149180916</v>
       </c>
       <c r="M23">
-        <v>0.7584820904442556</v>
+        <v>0.7584820904442551</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7466415824179066</v>
+        <v>0.7466415824179055</v>
       </c>
       <c r="D24">
-        <v>0.7768850258247549</v>
+        <v>0.7768850258247542</v>
       </c>
       <c r="E24">
-        <v>0.7913198868501649</v>
+        <v>0.7913198868501642</v>
       </c>
       <c r="F24">
-        <v>0.7369056157413839</v>
+        <v>0.7369056157413832</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9998561428997721</v>
+        <v>0.9998561428997723</v>
       </c>
       <c r="J24">
-        <v>0.7903695449203069</v>
+        <v>0.7903695449203059</v>
       </c>
       <c r="K24">
-        <v>0.79692344445951</v>
+        <v>0.7969234444595094</v>
       </c>
       <c r="L24">
-        <v>0.8108560149180921</v>
+        <v>0.8108560149180916</v>
       </c>
       <c r="M24">
-        <v>0.7584820904442556</v>
+        <v>0.7584820904442551</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7466415824179066</v>
+        <v>0.7466415824179055</v>
       </c>
       <c r="D25">
-        <v>0.7768850258247549</v>
+        <v>0.7768850258247542</v>
       </c>
       <c r="E25">
-        <v>0.7913198868501649</v>
+        <v>0.7913198868501642</v>
       </c>
       <c r="F25">
-        <v>0.7369056157413839</v>
+        <v>0.7369056157413832</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9998561428997721</v>
+        <v>0.9998561428997723</v>
       </c>
       <c r="J25">
-        <v>0.7903695449203069</v>
+        <v>0.7903695449203059</v>
       </c>
       <c r="K25">
-        <v>0.79692344445951</v>
+        <v>0.7969234444595094</v>
       </c>
       <c r="L25">
-        <v>0.8108560149180921</v>
+        <v>0.8108560149180916</v>
       </c>
       <c r="M25">
-        <v>0.7584820904442556</v>
+        <v>0.7584820904442551</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_51/res_bus/vm_pu.xlsx
@@ -424,10 +424,10 @@
         <v>0.8839414559654851</v>
       </c>
       <c r="D2">
-        <v>0.9001694763596301</v>
+        <v>0.90016947635963</v>
       </c>
       <c r="E2">
-        <v>0.90597677136362</v>
+        <v>0.9059767713636201</v>
       </c>
       <c r="F2">
         <v>0.881129792968427</v>
@@ -445,7 +445,7 @@
         <v>0.9132202407139381</v>
       </c>
       <c r="L2">
-        <v>0.9189224808879681</v>
+        <v>0.9189224808879679</v>
       </c>
       <c r="M2">
         <v>0.8945377126306134</v>
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9071828834979762</v>
+        <v>0.9071828834979752</v>
       </c>
       <c r="D3">
-        <v>0.9212047024155267</v>
+        <v>0.9212047024155258</v>
       </c>
       <c r="E3">
-        <v>0.9256145424456397</v>
+        <v>0.9256145424456388</v>
       </c>
       <c r="F3">
-        <v>0.9055687650179607</v>
+        <v>0.9055687650179599</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.030647273977155</v>
       </c>
       <c r="J3">
-        <v>0.9305688589403122</v>
+        <v>0.9305688589403113</v>
       </c>
       <c r="K3">
-        <v>0.9329560111980306</v>
+        <v>0.93295601119803</v>
       </c>
       <c r="L3">
-        <v>0.9372968320282447</v>
+        <v>0.9372968320282438</v>
       </c>
       <c r="M3">
-        <v>0.9175717616496496</v>
+        <v>0.9175717616496489</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9206989890347591</v>
+        <v>0.9206989890347609</v>
       </c>
       <c r="D4">
-        <v>0.9334544699249019</v>
+        <v>0.9334544699249038</v>
       </c>
       <c r="E4">
-        <v>0.9370587842524116</v>
+        <v>0.937058784252413</v>
       </c>
       <c r="F4">
-        <v>0.9197964001983644</v>
+        <v>0.9197964001983665</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.03322845656402</v>
       </c>
       <c r="J4">
-        <v>0.942374400519795</v>
+        <v>0.9423744005197968</v>
       </c>
       <c r="K4">
-        <v>0.9444284343384226</v>
+        <v>0.9444284343384245</v>
       </c>
       <c r="L4">
-        <v>0.9479813004609909</v>
+        <v>0.9479813004609924</v>
       </c>
       <c r="M4">
-        <v>0.9309699722594637</v>
+        <v>0.9309699722594655</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -538,13 +538,13 @@
         <v>0.9260840221108462</v>
       </c>
       <c r="D5">
-        <v>0.9383381728051372</v>
+        <v>0.9383381728051376</v>
       </c>
       <c r="E5">
         <v>0.941622983674919</v>
       </c>
       <c r="F5">
-        <v>0.9254687042891262</v>
+        <v>0.9254687042891261</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -556,13 +556,13 @@
         <v>0.9470747364104128</v>
       </c>
       <c r="K5">
-        <v>0.9489975296518038</v>
+        <v>0.9489975296518041</v>
       </c>
       <c r="L5">
-        <v>0.9522372292231973</v>
+        <v>0.9522372292231972</v>
       </c>
       <c r="M5">
-        <v>0.936308704678375</v>
+        <v>0.9363087046783751</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9269723211230136</v>
+        <v>0.9269723211230138</v>
       </c>
       <c r="D6">
-        <v>0.9391439436173737</v>
+        <v>0.9391439436173736</v>
       </c>
       <c r="E6">
-        <v>0.9423761276878375</v>
+        <v>0.9423761276878381</v>
       </c>
       <c r="F6">
-        <v>0.9264046173738318</v>
+        <v>0.9264046173738314</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.034415824067421</v>
       </c>
       <c r="J6">
-        <v>0.9478498905207968</v>
+        <v>0.947849890520797</v>
       </c>
       <c r="K6">
         <v>0.949751121754983</v>
       </c>
       <c r="L6">
-        <v>0.9529392042326232</v>
+        <v>0.9529392042326237</v>
       </c>
       <c r="M6">
-        <v>0.9371894059653588</v>
+        <v>0.9371894059653587</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9207720390414807</v>
+        <v>0.92077203904148</v>
       </c>
       <c r="D7">
-        <v>0.9335207072620699</v>
+        <v>0.9335207072620689</v>
       </c>
       <c r="E7">
-        <v>0.9371206819889397</v>
+        <v>0.9371206819889391</v>
       </c>
       <c r="F7">
-        <v>0.9198733317948918</v>
+        <v>0.9198733317948911</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.03324232569893</v>
       </c>
       <c r="J7">
-        <v>0.942438175663563</v>
+        <v>0.9424381756635619</v>
       </c>
       <c r="K7">
-        <v>0.9444904232300653</v>
+        <v>0.9444904232300645</v>
       </c>
       <c r="L7">
-        <v>0.9480390382097483</v>
+        <v>0.9480390382097476</v>
       </c>
       <c r="M7">
-        <v>0.9310423914734068</v>
+        <v>0.9310423914734061</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8921602697564571</v>
+        <v>0.8921602697564556</v>
       </c>
       <c r="D8">
-        <v>0.9076037844596644</v>
+        <v>0.9076037844596632</v>
       </c>
       <c r="E8">
-        <v>0.9129150846821154</v>
+        <v>0.9129150846821138</v>
       </c>
       <c r="F8">
-        <v>0.8897688764977338</v>
+        <v>0.8897688764977321</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027750418365222</v>
+        <v>1.027750418365221</v>
       </c>
       <c r="J8">
-        <v>0.9174371570391734</v>
+        <v>0.9174371570391721</v>
       </c>
       <c r="K8">
-        <v>0.9202000568786479</v>
+        <v>0.9202000568786465</v>
       </c>
       <c r="L8">
-        <v>0.9254199126381494</v>
+        <v>0.9254199126381482</v>
       </c>
       <c r="M8">
-        <v>0.9026826104995819</v>
+        <v>0.9026826104995802</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8247143964525664</v>
+        <v>0.8247143964525629</v>
       </c>
       <c r="D9">
-        <v>0.8467551987687597</v>
+        <v>0.8467551987687564</v>
       </c>
       <c r="E9">
-        <v>0.8561996964409566</v>
+        <v>0.8561996964409532</v>
       </c>
       <c r="F9">
-        <v>0.8189335615144804</v>
+        <v>0.8189335615144766</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.014633183594037</v>
+        <v>1.014633183594036</v>
       </c>
       <c r="J9">
-        <v>0.8584440768702832</v>
+        <v>0.8584440768702799</v>
       </c>
       <c r="K9">
-        <v>0.8629436400808125</v>
+        <v>0.8629436400808093</v>
       </c>
       <c r="L9">
-        <v>0.872154209427128</v>
+        <v>0.872154209427125</v>
       </c>
       <c r="M9">
-        <v>0.8358539233498856</v>
+        <v>0.835853923349882</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7466415824179055</v>
+        <v>0.7466415824179066</v>
       </c>
       <c r="D10">
-        <v>0.7768850258247542</v>
+        <v>0.7768850258247549</v>
       </c>
       <c r="E10">
-        <v>0.7913198868501642</v>
+        <v>0.7913198868501649</v>
       </c>
       <c r="F10">
-        <v>0.7369056157413832</v>
+        <v>0.7369056157413839</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0.9998561428997723</v>
+        <v>0.9998561428997721</v>
       </c>
       <c r="J10">
-        <v>0.7903695449203059</v>
+        <v>0.7903695449203069</v>
       </c>
       <c r="K10">
-        <v>0.7969234444595094</v>
+        <v>0.79692344445951</v>
       </c>
       <c r="L10">
-        <v>0.8108560149180916</v>
+        <v>0.8108560149180921</v>
       </c>
       <c r="M10">
-        <v>0.7584820904442551</v>
+        <v>0.7584820904442556</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7466415824179055</v>
+        <v>0.7466415824179066</v>
       </c>
       <c r="D11">
-        <v>0.7768850258247542</v>
+        <v>0.7768850258247549</v>
       </c>
       <c r="E11">
-        <v>0.7913198868501642</v>
+        <v>0.7913198868501649</v>
       </c>
       <c r="F11">
-        <v>0.7369056157413832</v>
+        <v>0.7369056157413839</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9998561428997723</v>
+        <v>0.9998561428997721</v>
       </c>
       <c r="J11">
-        <v>0.7903695449203059</v>
+        <v>0.7903695449203069</v>
       </c>
       <c r="K11">
-        <v>0.7969234444595094</v>
+        <v>0.79692344445951</v>
       </c>
       <c r="L11">
-        <v>0.8108560149180916</v>
+        <v>0.8108560149180921</v>
       </c>
       <c r="M11">
-        <v>0.7584820904442551</v>
+        <v>0.7584820904442556</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7466415824179055</v>
+        <v>0.7466415824179066</v>
       </c>
       <c r="D12">
-        <v>0.7768850258247542</v>
+        <v>0.7768850258247549</v>
       </c>
       <c r="E12">
-        <v>0.7913198868501642</v>
+        <v>0.7913198868501649</v>
       </c>
       <c r="F12">
-        <v>0.7369056157413832</v>
+        <v>0.7369056157413839</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9998561428997723</v>
+        <v>0.9998561428997721</v>
       </c>
       <c r="J12">
-        <v>0.7903695449203059</v>
+        <v>0.7903695449203069</v>
       </c>
       <c r="K12">
-        <v>0.7969234444595094</v>
+        <v>0.79692344445951</v>
       </c>
       <c r="L12">
-        <v>0.8108560149180916</v>
+        <v>0.8108560149180921</v>
       </c>
       <c r="M12">
-        <v>0.7584820904442551</v>
+        <v>0.7584820904442556</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7466415824179055</v>
+        <v>0.7466415824179066</v>
       </c>
       <c r="D13">
-        <v>0.7768850258247542</v>
+        <v>0.7768850258247549</v>
       </c>
       <c r="E13">
-        <v>0.7913198868501642</v>
+        <v>0.7913198868501649</v>
       </c>
       <c r="F13">
-        <v>0.7369056157413832</v>
+        <v>0.7369056157413839</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9998561428997723</v>
+        <v>0.9998561428997721</v>
       </c>
       <c r="J13">
-        <v>0.7903695449203059</v>
+        <v>0.7903695449203069</v>
       </c>
       <c r="K13">
-        <v>0.7969234444595094</v>
+        <v>0.79692344445951</v>
       </c>
       <c r="L13">
-        <v>0.8108560149180916</v>
+        <v>0.8108560149180921</v>
       </c>
       <c r="M13">
-        <v>0.7584820904442551</v>
+        <v>0.7584820904442556</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7466415824179055</v>
+        <v>0.7466415824179066</v>
       </c>
       <c r="D14">
-        <v>0.7768850258247542</v>
+        <v>0.7768850258247549</v>
       </c>
       <c r="E14">
-        <v>0.7913198868501642</v>
+        <v>0.7913198868501649</v>
       </c>
       <c r="F14">
-        <v>0.7369056157413832</v>
+        <v>0.7369056157413839</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9998561428997723</v>
+        <v>0.9998561428997721</v>
       </c>
       <c r="J14">
-        <v>0.7903695449203059</v>
+        <v>0.7903695449203069</v>
       </c>
       <c r="K14">
-        <v>0.7969234444595094</v>
+        <v>0.79692344445951</v>
       </c>
       <c r="L14">
-        <v>0.8108560149180916</v>
+        <v>0.8108560149180921</v>
       </c>
       <c r="M14">
-        <v>0.7584820904442551</v>
+        <v>0.7584820904442556</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7466415824179055</v>
+        <v>0.7466415824179066</v>
       </c>
       <c r="D15">
-        <v>0.7768850258247542</v>
+        <v>0.7768850258247549</v>
       </c>
       <c r="E15">
-        <v>0.7913198868501642</v>
+        <v>0.7913198868501649</v>
       </c>
       <c r="F15">
-        <v>0.7369056157413832</v>
+        <v>0.7369056157413839</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9998561428997723</v>
+        <v>0.9998561428997721</v>
       </c>
       <c r="J15">
-        <v>0.7903695449203059</v>
+        <v>0.7903695449203069</v>
       </c>
       <c r="K15">
-        <v>0.7969234444595094</v>
+        <v>0.79692344445951</v>
       </c>
       <c r="L15">
-        <v>0.8108560149180916</v>
+        <v>0.8108560149180921</v>
       </c>
       <c r="M15">
-        <v>0.7584820904442551</v>
+        <v>0.7584820904442556</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7466415824179055</v>
+        <v>0.7466415824179066</v>
       </c>
       <c r="D16">
-        <v>0.7768850258247542</v>
+        <v>0.7768850258247549</v>
       </c>
       <c r="E16">
-        <v>0.7913198868501642</v>
+        <v>0.7913198868501649</v>
       </c>
       <c r="F16">
-        <v>0.7369056157413832</v>
+        <v>0.7369056157413839</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0.9998561428997723</v>
+        <v>0.9998561428997721</v>
       </c>
       <c r="J16">
-        <v>0.7903695449203059</v>
+        <v>0.7903695449203069</v>
       </c>
       <c r="K16">
-        <v>0.7969234444595094</v>
+        <v>0.79692344445951</v>
       </c>
       <c r="L16">
-        <v>0.8108560149180916</v>
+        <v>0.8108560149180921</v>
       </c>
       <c r="M16">
-        <v>0.7584820904442551</v>
+        <v>0.7584820904442556</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7466415824179055</v>
+        <v>0.7466415824179066</v>
       </c>
       <c r="D17">
-        <v>0.7768850258247542</v>
+        <v>0.7768850258247549</v>
       </c>
       <c r="E17">
-        <v>0.7913198868501642</v>
+        <v>0.7913198868501649</v>
       </c>
       <c r="F17">
-        <v>0.7369056157413832</v>
+        <v>0.7369056157413839</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0.9998561428997723</v>
+        <v>0.9998561428997721</v>
       </c>
       <c r="J17">
-        <v>0.7903695449203059</v>
+        <v>0.7903695449203069</v>
       </c>
       <c r="K17">
-        <v>0.7969234444595094</v>
+        <v>0.79692344445951</v>
       </c>
       <c r="L17">
-        <v>0.8108560149180916</v>
+        <v>0.8108560149180921</v>
       </c>
       <c r="M17">
-        <v>0.7584820904442551</v>
+        <v>0.7584820904442556</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7466415824179055</v>
+        <v>0.7466415824179066</v>
       </c>
       <c r="D18">
-        <v>0.7768850258247542</v>
+        <v>0.7768850258247549</v>
       </c>
       <c r="E18">
-        <v>0.7913198868501642</v>
+        <v>0.7913198868501649</v>
       </c>
       <c r="F18">
-        <v>0.7369056157413832</v>
+        <v>0.7369056157413839</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0.9998561428997723</v>
+        <v>0.9998561428997721</v>
       </c>
       <c r="J18">
-        <v>0.7903695449203059</v>
+        <v>0.7903695449203069</v>
       </c>
       <c r="K18">
-        <v>0.7969234444595094</v>
+        <v>0.79692344445951</v>
       </c>
       <c r="L18">
-        <v>0.8108560149180916</v>
+        <v>0.8108560149180921</v>
       </c>
       <c r="M18">
-        <v>0.7584820904442551</v>
+        <v>0.7584820904442556</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7466415824179055</v>
+        <v>0.7466415824179066</v>
       </c>
       <c r="D19">
-        <v>0.7768850258247542</v>
+        <v>0.7768850258247549</v>
       </c>
       <c r="E19">
-        <v>0.7913198868501642</v>
+        <v>0.7913198868501649</v>
       </c>
       <c r="F19">
-        <v>0.7369056157413832</v>
+        <v>0.7369056157413839</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0.9998561428997723</v>
+        <v>0.9998561428997721</v>
       </c>
       <c r="J19">
-        <v>0.7903695449203059</v>
+        <v>0.7903695449203069</v>
       </c>
       <c r="K19">
-        <v>0.7969234444595094</v>
+        <v>0.79692344445951</v>
       </c>
       <c r="L19">
-        <v>0.8108560149180916</v>
+        <v>0.8108560149180921</v>
       </c>
       <c r="M19">
-        <v>0.7584820904442551</v>
+        <v>0.7584820904442556</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7466415824179055</v>
+        <v>0.7466415824179066</v>
       </c>
       <c r="D20">
-        <v>0.7768850258247542</v>
+        <v>0.7768850258247549</v>
       </c>
       <c r="E20">
-        <v>0.7913198868501642</v>
+        <v>0.7913198868501649</v>
       </c>
       <c r="F20">
-        <v>0.7369056157413832</v>
+        <v>0.7369056157413839</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0.9998561428997723</v>
+        <v>0.9998561428997721</v>
       </c>
       <c r="J20">
-        <v>0.7903695449203059</v>
+        <v>0.7903695449203069</v>
       </c>
       <c r="K20">
-        <v>0.7969234444595094</v>
+        <v>0.79692344445951</v>
       </c>
       <c r="L20">
-        <v>0.8108560149180916</v>
+        <v>0.8108560149180921</v>
       </c>
       <c r="M20">
-        <v>0.7584820904442551</v>
+        <v>0.7584820904442556</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7466415824179055</v>
+        <v>0.7466415824179066</v>
       </c>
       <c r="D21">
-        <v>0.7768850258247542</v>
+        <v>0.7768850258247549</v>
       </c>
       <c r="E21">
-        <v>0.7913198868501642</v>
+        <v>0.7913198868501649</v>
       </c>
       <c r="F21">
-        <v>0.7369056157413832</v>
+        <v>0.7369056157413839</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9998561428997723</v>
+        <v>0.9998561428997721</v>
       </c>
       <c r="J21">
-        <v>0.7903695449203059</v>
+        <v>0.7903695449203069</v>
       </c>
       <c r="K21">
-        <v>0.7969234444595094</v>
+        <v>0.79692344445951</v>
       </c>
       <c r="L21">
-        <v>0.8108560149180916</v>
+        <v>0.8108560149180921</v>
       </c>
       <c r="M21">
-        <v>0.7584820904442551</v>
+        <v>0.7584820904442556</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7466415824179055</v>
+        <v>0.7466415824179066</v>
       </c>
       <c r="D22">
-        <v>0.7768850258247542</v>
+        <v>0.7768850258247549</v>
       </c>
       <c r="E22">
-        <v>0.7913198868501642</v>
+        <v>0.7913198868501649</v>
       </c>
       <c r="F22">
-        <v>0.7369056157413832</v>
+        <v>0.7369056157413839</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9998561428997723</v>
+        <v>0.9998561428997721</v>
       </c>
       <c r="J22">
-        <v>0.7903695449203059</v>
+        <v>0.7903695449203069</v>
       </c>
       <c r="K22">
-        <v>0.7969234444595094</v>
+        <v>0.79692344445951</v>
       </c>
       <c r="L22">
-        <v>0.8108560149180916</v>
+        <v>0.8108560149180921</v>
       </c>
       <c r="M22">
-        <v>0.7584820904442551</v>
+        <v>0.7584820904442556</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7466415824179055</v>
+        <v>0.7466415824179066</v>
       </c>
       <c r="D23">
-        <v>0.7768850258247542</v>
+        <v>0.7768850258247549</v>
       </c>
       <c r="E23">
-        <v>0.7913198868501642</v>
+        <v>0.7913198868501649</v>
       </c>
       <c r="F23">
-        <v>0.7369056157413832</v>
+        <v>0.7369056157413839</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9998561428997723</v>
+        <v>0.9998561428997721</v>
       </c>
       <c r="J23">
-        <v>0.7903695449203059</v>
+        <v>0.7903695449203069</v>
       </c>
       <c r="K23">
-        <v>0.7969234444595094</v>
+        <v>0.79692344445951</v>
       </c>
       <c r="L23">
-        <v>0.8108560149180916</v>
+        <v>0.8108560149180921</v>
       </c>
       <c r="M23">
-        <v>0.7584820904442551</v>
+        <v>0.7584820904442556</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7466415824179055</v>
+        <v>0.7466415824179066</v>
       </c>
       <c r="D24">
-        <v>0.7768850258247542</v>
+        <v>0.7768850258247549</v>
       </c>
       <c r="E24">
-        <v>0.7913198868501642</v>
+        <v>0.7913198868501649</v>
       </c>
       <c r="F24">
-        <v>0.7369056157413832</v>
+        <v>0.7369056157413839</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9998561428997723</v>
+        <v>0.9998561428997721</v>
       </c>
       <c r="J24">
-        <v>0.7903695449203059</v>
+        <v>0.7903695449203069</v>
       </c>
       <c r="K24">
-        <v>0.7969234444595094</v>
+        <v>0.79692344445951</v>
       </c>
       <c r="L24">
-        <v>0.8108560149180916</v>
+        <v>0.8108560149180921</v>
       </c>
       <c r="M24">
-        <v>0.7584820904442551</v>
+        <v>0.7584820904442556</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7466415824179055</v>
+        <v>0.7466415824179066</v>
       </c>
       <c r="D25">
-        <v>0.7768850258247542</v>
+        <v>0.7768850258247549</v>
       </c>
       <c r="E25">
-        <v>0.7913198868501642</v>
+        <v>0.7913198868501649</v>
       </c>
       <c r="F25">
-        <v>0.7369056157413832</v>
+        <v>0.7369056157413839</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9998561428997723</v>
+        <v>0.9998561428997721</v>
       </c>
       <c r="J25">
-        <v>0.7903695449203059</v>
+        <v>0.7903695449203069</v>
       </c>
       <c r="K25">
-        <v>0.7969234444595094</v>
+        <v>0.79692344445951</v>
       </c>
       <c r="L25">
-        <v>0.8108560149180916</v>
+        <v>0.8108560149180921</v>
       </c>
       <c r="M25">
-        <v>0.7584820904442551</v>
+        <v>0.7584820904442556</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_51/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8839414559654851</v>
+        <v>0.8878942895421108</v>
       </c>
       <c r="D2">
-        <v>0.90016947635963</v>
+        <v>0.9038140934875531</v>
       </c>
       <c r="E2">
-        <v>0.9059767713636201</v>
+        <v>0.9093617196034427</v>
       </c>
       <c r="F2">
-        <v>0.881129792968427</v>
+        <v>0.8850890713653053</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026156825839216</v>
+        <v>1.026743298797363</v>
       </c>
       <c r="J2">
-        <v>0.9102496389172774</v>
+        <v>0.9140365164366225</v>
       </c>
       <c r="K2">
-        <v>0.9132202407139381</v>
+        <v>0.9167987210771902</v>
       </c>
       <c r="L2">
-        <v>0.9189224808879679</v>
+        <v>0.9222469981465555</v>
       </c>
       <c r="M2">
-        <v>0.8945377126306134</v>
+        <v>0.8984210655392706</v>
+      </c>
+      <c r="N2">
+        <v>0.9153345531314151</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9071828834979752</v>
+        <v>0.910964161707269</v>
       </c>
       <c r="D3">
-        <v>0.9212047024155258</v>
+        <v>0.9247003497016381</v>
       </c>
       <c r="E3">
-        <v>0.9256145424456388</v>
+        <v>0.9288622395325561</v>
       </c>
       <c r="F3">
-        <v>0.9055687650179599</v>
+        <v>0.9093439189754348</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030647273977155</v>
+        <v>1.03120315247173</v>
       </c>
       <c r="J3">
-        <v>0.9305688589403113</v>
+        <v>0.934216005426614</v>
       </c>
       <c r="K3">
-        <v>0.93295601119803</v>
+        <v>0.9363968783315119</v>
       </c>
       <c r="L3">
-        <v>0.9372968320282438</v>
+        <v>0.9404942338515213</v>
       </c>
       <c r="M3">
-        <v>0.9175717616496489</v>
+        <v>0.9212851296470865</v>
+      </c>
+      <c r="N3">
+        <v>0.9355426993103931</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9206989890347609</v>
+        <v>0.9243978849551202</v>
       </c>
       <c r="D4">
-        <v>0.9334544699249038</v>
+        <v>0.9368787679218026</v>
       </c>
       <c r="E4">
-        <v>0.937058784252413</v>
+        <v>0.9402407469159494</v>
       </c>
       <c r="F4">
-        <v>0.9197964001983665</v>
+        <v>0.923482756057316</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03322845656402</v>
+        <v>1.033769512476623</v>
       </c>
       <c r="J4">
-        <v>0.9423744005197968</v>
+        <v>0.9459553172219167</v>
       </c>
       <c r="K4">
-        <v>0.9444284343384245</v>
+        <v>0.9478038418152862</v>
       </c>
       <c r="L4">
-        <v>0.9479813004609924</v>
+        <v>0.9511182578352371</v>
       </c>
       <c r="M4">
-        <v>0.9309699722594655</v>
+        <v>0.9346017145439054</v>
+      </c>
+      <c r="N4">
+        <v>0.9472986822749633</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9260840221108462</v>
+        <v>0.929753148776936</v>
       </c>
       <c r="D5">
-        <v>0.9383381728051376</v>
+        <v>0.9417367311701749</v>
       </c>
       <c r="E5">
-        <v>0.941622983674919</v>
+        <v>0.944781234113465</v>
       </c>
       <c r="F5">
-        <v>0.9254687042891261</v>
+        <v>0.9291228852326664</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034248162779787</v>
+        <v>1.034783843752925</v>
       </c>
       <c r="J5">
-        <v>0.9470747364104128</v>
+        <v>0.9506319128104963</v>
       </c>
       <c r="K5">
-        <v>0.9489975296518041</v>
+        <v>0.9523494216887212</v>
       </c>
       <c r="L5">
-        <v>0.9522372292231972</v>
+        <v>0.9553524786052962</v>
       </c>
       <c r="M5">
-        <v>0.9363087046783751</v>
+        <v>0.9399109502968921</v>
+      </c>
+      <c r="N5">
+        <v>0.9519819191656919</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9269723211230138</v>
+        <v>0.9306366933929491</v>
       </c>
       <c r="D6">
-        <v>0.9391439436173736</v>
+        <v>0.9425383936441349</v>
       </c>
       <c r="E6">
-        <v>0.9423761276878381</v>
+        <v>0.9455305935245231</v>
       </c>
       <c r="F6">
-        <v>0.9264046173738314</v>
+        <v>0.930053654618305</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034415824067421</v>
+        <v>1.034950645825174</v>
       </c>
       <c r="J6">
-        <v>0.947849890520797</v>
+        <v>0.9514032864396255</v>
       </c>
       <c r="K6">
-        <v>0.949751121754983</v>
+        <v>0.9530992661814796</v>
       </c>
       <c r="L6">
-        <v>0.9529392042326237</v>
+        <v>0.9560509944150112</v>
       </c>
       <c r="M6">
-        <v>0.9371894059653587</v>
+        <v>0.9407869406438298</v>
+      </c>
+      <c r="N6">
+        <v>0.9527543882338517</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.92077203904148</v>
+        <v>0.9244705200255043</v>
       </c>
       <c r="D7">
-        <v>0.9335207072620689</v>
+        <v>0.9369446463137423</v>
       </c>
       <c r="E7">
-        <v>0.9371206819889391</v>
+        <v>0.9403023139708534</v>
       </c>
       <c r="F7">
-        <v>0.9198733317948911</v>
+        <v>0.9235592395448325</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03324232569893</v>
+        <v>1.033783306755844</v>
       </c>
       <c r="J7">
-        <v>0.9424381756635619</v>
+        <v>0.9460187606832187</v>
       </c>
       <c r="K7">
-        <v>0.9444904232300645</v>
+        <v>0.9478655023742302</v>
       </c>
       <c r="L7">
-        <v>0.9480390382097476</v>
+        <v>0.9511756924627046</v>
       </c>
       <c r="M7">
-        <v>0.9310423914734061</v>
+        <v>0.9346737226258073</v>
+      </c>
+      <c r="N7">
+        <v>0.9473622158332575</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8921602697564556</v>
+        <v>0.8960476358955159</v>
       </c>
       <c r="D8">
-        <v>0.9076037844596632</v>
+        <v>0.9111915040208527</v>
       </c>
       <c r="E8">
-        <v>0.9129150846821138</v>
+        <v>0.9162476117888564</v>
       </c>
       <c r="F8">
-        <v>0.8897688764977321</v>
+        <v>0.8936579901110532</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027750418365221</v>
+        <v>1.028325259968159</v>
       </c>
       <c r="J8">
-        <v>0.9174371570391721</v>
+        <v>0.9211704775346026</v>
       </c>
       <c r="K8">
-        <v>0.9202000568786465</v>
+        <v>0.9237258557722025</v>
       </c>
       <c r="L8">
-        <v>0.9254199126381482</v>
+        <v>0.9286957622786602</v>
       </c>
       <c r="M8">
-        <v>0.9026826104995802</v>
+        <v>0.9065010933457446</v>
+      </c>
+      <c r="N8">
+        <v>0.9224786452724323</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8247143964525629</v>
+        <v>0.8293646958330636</v>
       </c>
       <c r="D9">
-        <v>0.8467551987687564</v>
+        <v>0.8510077847199552</v>
       </c>
       <c r="E9">
-        <v>0.8561996964409532</v>
+        <v>0.8601446152124993</v>
       </c>
       <c r="F9">
-        <v>0.8189335615144766</v>
+        <v>0.823636740861255</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.014633183594036</v>
+        <v>1.01534087520948</v>
       </c>
       <c r="J9">
-        <v>0.8584440768702799</v>
+        <v>0.8628110426439592</v>
       </c>
       <c r="K9">
-        <v>0.8629436400808093</v>
+        <v>0.8670900287911198</v>
       </c>
       <c r="L9">
-        <v>0.872154209427125</v>
+        <v>0.8760034601491302</v>
       </c>
       <c r="M9">
-        <v>0.835853923349882</v>
+        <v>0.8404286451089433</v>
+      </c>
+      <c r="N9">
+        <v>0.8640363332903235</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7466415824179066</v>
+        <v>0.7536981641053394</v>
       </c>
       <c r="D10">
-        <v>0.7768850258247549</v>
+        <v>0.7832402744815515</v>
       </c>
       <c r="E10">
-        <v>0.7913198868501649</v>
+        <v>0.7971996286490763</v>
       </c>
       <c r="F10">
-        <v>0.7369056157413839</v>
+        <v>0.7441656858277991</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0.9998561428997721</v>
+        <v>1.000965031563838</v>
       </c>
       <c r="J10">
-        <v>0.7903695449203069</v>
+        <v>0.7967751672848697</v>
       </c>
       <c r="K10">
-        <v>0.79692344445951</v>
+        <v>0.803054360266454</v>
       </c>
       <c r="L10">
-        <v>0.8108560149180921</v>
+        <v>0.8165384013444293</v>
       </c>
       <c r="M10">
-        <v>0.7584820904442556</v>
+        <v>0.7654454169055566</v>
+      </c>
+      <c r="N10">
+        <v>0.7979066794138033</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7466415824179066</v>
+        <v>0.7536981641053394</v>
       </c>
       <c r="D11">
-        <v>0.7768850258247549</v>
+        <v>0.7832402744815515</v>
       </c>
       <c r="E11">
-        <v>0.7913198868501649</v>
+        <v>0.7971996286490763</v>
       </c>
       <c r="F11">
-        <v>0.7369056157413839</v>
+        <v>0.7441656858277991</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9998561428997721</v>
+        <v>1.000965031563838</v>
       </c>
       <c r="J11">
-        <v>0.7903695449203069</v>
+        <v>0.7967751672848697</v>
       </c>
       <c r="K11">
-        <v>0.79692344445951</v>
+        <v>0.803054360266454</v>
       </c>
       <c r="L11">
-        <v>0.8108560149180921</v>
+        <v>0.8165384013444293</v>
       </c>
       <c r="M11">
-        <v>0.7584820904442556</v>
+        <v>0.7654454169055566</v>
+      </c>
+      <c r="N11">
+        <v>0.7979066794138033</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7466415824179066</v>
+        <v>0.7536981641053394</v>
       </c>
       <c r="D12">
-        <v>0.7768850258247549</v>
+        <v>0.7832402744815515</v>
       </c>
       <c r="E12">
-        <v>0.7913198868501649</v>
+        <v>0.7971996286490763</v>
       </c>
       <c r="F12">
-        <v>0.7369056157413839</v>
+        <v>0.7441656858277991</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9998561428997721</v>
+        <v>1.000965031563838</v>
       </c>
       <c r="J12">
-        <v>0.7903695449203069</v>
+        <v>0.7967751672848697</v>
       </c>
       <c r="K12">
-        <v>0.79692344445951</v>
+        <v>0.803054360266454</v>
       </c>
       <c r="L12">
-        <v>0.8108560149180921</v>
+        <v>0.8165384013444293</v>
       </c>
       <c r="M12">
-        <v>0.7584820904442556</v>
+        <v>0.7654454169055566</v>
+      </c>
+      <c r="N12">
+        <v>0.7979066794138033</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7466415824179066</v>
+        <v>0.7536981641053394</v>
       </c>
       <c r="D13">
-        <v>0.7768850258247549</v>
+        <v>0.7832402744815515</v>
       </c>
       <c r="E13">
-        <v>0.7913198868501649</v>
+        <v>0.7971996286490763</v>
       </c>
       <c r="F13">
-        <v>0.7369056157413839</v>
+        <v>0.7441656858277991</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9998561428997721</v>
+        <v>1.000965031563838</v>
       </c>
       <c r="J13">
-        <v>0.7903695449203069</v>
+        <v>0.7967751672848697</v>
       </c>
       <c r="K13">
-        <v>0.79692344445951</v>
+        <v>0.803054360266454</v>
       </c>
       <c r="L13">
-        <v>0.8108560149180921</v>
+        <v>0.8165384013444293</v>
       </c>
       <c r="M13">
-        <v>0.7584820904442556</v>
+        <v>0.7654454169055566</v>
+      </c>
+      <c r="N13">
+        <v>0.7979066794138033</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7466415824179066</v>
+        <v>0.7536981641053394</v>
       </c>
       <c r="D14">
-        <v>0.7768850258247549</v>
+        <v>0.7832402744815515</v>
       </c>
       <c r="E14">
-        <v>0.7913198868501649</v>
+        <v>0.7971996286490763</v>
       </c>
       <c r="F14">
-        <v>0.7369056157413839</v>
+        <v>0.7441656858277991</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9998561428997721</v>
+        <v>1.000965031563838</v>
       </c>
       <c r="J14">
-        <v>0.7903695449203069</v>
+        <v>0.7967751672848697</v>
       </c>
       <c r="K14">
-        <v>0.79692344445951</v>
+        <v>0.803054360266454</v>
       </c>
       <c r="L14">
-        <v>0.8108560149180921</v>
+        <v>0.8165384013444293</v>
       </c>
       <c r="M14">
-        <v>0.7584820904442556</v>
+        <v>0.7654454169055566</v>
+      </c>
+      <c r="N14">
+        <v>0.7979066794138033</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7466415824179066</v>
+        <v>0.7536981641053394</v>
       </c>
       <c r="D15">
-        <v>0.7768850258247549</v>
+        <v>0.7832402744815515</v>
       </c>
       <c r="E15">
-        <v>0.7913198868501649</v>
+        <v>0.7971996286490763</v>
       </c>
       <c r="F15">
-        <v>0.7369056157413839</v>
+        <v>0.7441656858277991</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9998561428997721</v>
+        <v>1.000965031563838</v>
       </c>
       <c r="J15">
-        <v>0.7903695449203069</v>
+        <v>0.7967751672848697</v>
       </c>
       <c r="K15">
-        <v>0.79692344445951</v>
+        <v>0.803054360266454</v>
       </c>
       <c r="L15">
-        <v>0.8108560149180921</v>
+        <v>0.8165384013444293</v>
       </c>
       <c r="M15">
-        <v>0.7584820904442556</v>
+        <v>0.7654454169055566</v>
+      </c>
+      <c r="N15">
+        <v>0.7979066794138033</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7466415824179066</v>
+        <v>0.7536981641053394</v>
       </c>
       <c r="D16">
-        <v>0.7768850258247549</v>
+        <v>0.7832402744815515</v>
       </c>
       <c r="E16">
-        <v>0.7913198868501649</v>
+        <v>0.7971996286490763</v>
       </c>
       <c r="F16">
-        <v>0.7369056157413839</v>
+        <v>0.7441656858277991</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0.9998561428997721</v>
+        <v>1.000965031563838</v>
       </c>
       <c r="J16">
-        <v>0.7903695449203069</v>
+        <v>0.7967751672848697</v>
       </c>
       <c r="K16">
-        <v>0.79692344445951</v>
+        <v>0.803054360266454</v>
       </c>
       <c r="L16">
-        <v>0.8108560149180921</v>
+        <v>0.8165384013444293</v>
       </c>
       <c r="M16">
-        <v>0.7584820904442556</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7654454169055566</v>
+      </c>
+      <c r="N16">
+        <v>0.7979066794138033</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7466415824179066</v>
+        <v>0.7536981641053394</v>
       </c>
       <c r="D17">
-        <v>0.7768850258247549</v>
+        <v>0.7832402744815515</v>
       </c>
       <c r="E17">
-        <v>0.7913198868501649</v>
+        <v>0.7971996286490763</v>
       </c>
       <c r="F17">
-        <v>0.7369056157413839</v>
+        <v>0.7441656858277991</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0.9998561428997721</v>
+        <v>1.000965031563838</v>
       </c>
       <c r="J17">
-        <v>0.7903695449203069</v>
+        <v>0.7967751672848697</v>
       </c>
       <c r="K17">
-        <v>0.79692344445951</v>
+        <v>0.803054360266454</v>
       </c>
       <c r="L17">
-        <v>0.8108560149180921</v>
+        <v>0.8165384013444293</v>
       </c>
       <c r="M17">
-        <v>0.7584820904442556</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7654454169055566</v>
+      </c>
+      <c r="N17">
+        <v>0.7979066794138033</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7466415824179066</v>
+        <v>0.7536981641053394</v>
       </c>
       <c r="D18">
-        <v>0.7768850258247549</v>
+        <v>0.7832402744815515</v>
       </c>
       <c r="E18">
-        <v>0.7913198868501649</v>
+        <v>0.7971996286490763</v>
       </c>
       <c r="F18">
-        <v>0.7369056157413839</v>
+        <v>0.7441656858277991</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0.9998561428997721</v>
+        <v>1.000965031563838</v>
       </c>
       <c r="J18">
-        <v>0.7903695449203069</v>
+        <v>0.7967751672848697</v>
       </c>
       <c r="K18">
-        <v>0.79692344445951</v>
+        <v>0.803054360266454</v>
       </c>
       <c r="L18">
-        <v>0.8108560149180921</v>
+        <v>0.8165384013444293</v>
       </c>
       <c r="M18">
-        <v>0.7584820904442556</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.7654454169055566</v>
+      </c>
+      <c r="N18">
+        <v>0.7979066794138033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7466415824179066</v>
+        <v>0.7536981641053394</v>
       </c>
       <c r="D19">
-        <v>0.7768850258247549</v>
+        <v>0.7832402744815515</v>
       </c>
       <c r="E19">
-        <v>0.7913198868501649</v>
+        <v>0.7971996286490763</v>
       </c>
       <c r="F19">
-        <v>0.7369056157413839</v>
+        <v>0.7441656858277991</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0.9998561428997721</v>
+        <v>1.000965031563838</v>
       </c>
       <c r="J19">
-        <v>0.7903695449203069</v>
+        <v>0.7967751672848697</v>
       </c>
       <c r="K19">
-        <v>0.79692344445951</v>
+        <v>0.803054360266454</v>
       </c>
       <c r="L19">
-        <v>0.8108560149180921</v>
+        <v>0.8165384013444293</v>
       </c>
       <c r="M19">
-        <v>0.7584820904442556</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7654454169055566</v>
+      </c>
+      <c r="N19">
+        <v>0.7979066794138033</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7466415824179066</v>
+        <v>0.7536981641053394</v>
       </c>
       <c r="D20">
-        <v>0.7768850258247549</v>
+        <v>0.7832402744815515</v>
       </c>
       <c r="E20">
-        <v>0.7913198868501649</v>
+        <v>0.7971996286490763</v>
       </c>
       <c r="F20">
-        <v>0.7369056157413839</v>
+        <v>0.7441656858277991</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0.9998561428997721</v>
+        <v>1.000965031563838</v>
       </c>
       <c r="J20">
-        <v>0.7903695449203069</v>
+        <v>0.7967751672848697</v>
       </c>
       <c r="K20">
-        <v>0.79692344445951</v>
+        <v>0.803054360266454</v>
       </c>
       <c r="L20">
-        <v>0.8108560149180921</v>
+        <v>0.8165384013444293</v>
       </c>
       <c r="M20">
-        <v>0.7584820904442556</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7654454169055566</v>
+      </c>
+      <c r="N20">
+        <v>0.7979066794138033</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7466415824179066</v>
+        <v>0.7536981641053394</v>
       </c>
       <c r="D21">
-        <v>0.7768850258247549</v>
+        <v>0.7832402744815515</v>
       </c>
       <c r="E21">
-        <v>0.7913198868501649</v>
+        <v>0.7971996286490763</v>
       </c>
       <c r="F21">
-        <v>0.7369056157413839</v>
+        <v>0.7441656858277991</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9998561428997721</v>
+        <v>1.000965031563838</v>
       </c>
       <c r="J21">
-        <v>0.7903695449203069</v>
+        <v>0.7967751672848697</v>
       </c>
       <c r="K21">
-        <v>0.79692344445951</v>
+        <v>0.803054360266454</v>
       </c>
       <c r="L21">
-        <v>0.8108560149180921</v>
+        <v>0.8165384013444293</v>
       </c>
       <c r="M21">
-        <v>0.7584820904442556</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7654454169055566</v>
+      </c>
+      <c r="N21">
+        <v>0.7979066794138033</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7466415824179066</v>
+        <v>0.7536981641053394</v>
       </c>
       <c r="D22">
-        <v>0.7768850258247549</v>
+        <v>0.7832402744815515</v>
       </c>
       <c r="E22">
-        <v>0.7913198868501649</v>
+        <v>0.7971996286490763</v>
       </c>
       <c r="F22">
-        <v>0.7369056157413839</v>
+        <v>0.7441656858277991</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9998561428997721</v>
+        <v>1.000965031563838</v>
       </c>
       <c r="J22">
-        <v>0.7903695449203069</v>
+        <v>0.7967751672848697</v>
       </c>
       <c r="K22">
-        <v>0.79692344445951</v>
+        <v>0.803054360266454</v>
       </c>
       <c r="L22">
-        <v>0.8108560149180921</v>
+        <v>0.8165384013444293</v>
       </c>
       <c r="M22">
-        <v>0.7584820904442556</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7654454169055566</v>
+      </c>
+      <c r="N22">
+        <v>0.7979066794138033</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7466415824179066</v>
+        <v>0.7536981641053394</v>
       </c>
       <c r="D23">
-        <v>0.7768850258247549</v>
+        <v>0.7832402744815515</v>
       </c>
       <c r="E23">
-        <v>0.7913198868501649</v>
+        <v>0.7971996286490763</v>
       </c>
       <c r="F23">
-        <v>0.7369056157413839</v>
+        <v>0.7441656858277991</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9998561428997721</v>
+        <v>1.000965031563838</v>
       </c>
       <c r="J23">
-        <v>0.7903695449203069</v>
+        <v>0.7967751672848697</v>
       </c>
       <c r="K23">
-        <v>0.79692344445951</v>
+        <v>0.803054360266454</v>
       </c>
       <c r="L23">
-        <v>0.8108560149180921</v>
+        <v>0.8165384013444293</v>
       </c>
       <c r="M23">
-        <v>0.7584820904442556</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7654454169055566</v>
+      </c>
+      <c r="N23">
+        <v>0.7979066794138033</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7466415824179066</v>
+        <v>0.7536981641053394</v>
       </c>
       <c r="D24">
-        <v>0.7768850258247549</v>
+        <v>0.7832402744815515</v>
       </c>
       <c r="E24">
-        <v>0.7913198868501649</v>
+        <v>0.7971996286490763</v>
       </c>
       <c r="F24">
-        <v>0.7369056157413839</v>
+        <v>0.7441656858277991</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9998561428997721</v>
+        <v>1.000965031563838</v>
       </c>
       <c r="J24">
-        <v>0.7903695449203069</v>
+        <v>0.7967751672848697</v>
       </c>
       <c r="K24">
-        <v>0.79692344445951</v>
+        <v>0.803054360266454</v>
       </c>
       <c r="L24">
-        <v>0.8108560149180921</v>
+        <v>0.8165384013444293</v>
       </c>
       <c r="M24">
-        <v>0.7584820904442556</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7654454169055566</v>
+      </c>
+      <c r="N24">
+        <v>0.7979066794138033</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7466415824179066</v>
+        <v>0.7536981641053394</v>
       </c>
       <c r="D25">
-        <v>0.7768850258247549</v>
+        <v>0.7832402744815515</v>
       </c>
       <c r="E25">
-        <v>0.7913198868501649</v>
+        <v>0.7971996286490763</v>
       </c>
       <c r="F25">
-        <v>0.7369056157413839</v>
+        <v>0.7441656858277991</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9998561428997721</v>
+        <v>1.000965031563838</v>
       </c>
       <c r="J25">
-        <v>0.7903695449203069</v>
+        <v>0.7967751672848697</v>
       </c>
       <c r="K25">
-        <v>0.79692344445951</v>
+        <v>0.803054360266454</v>
       </c>
       <c r="L25">
-        <v>0.8108560149180921</v>
+        <v>0.8165384013444293</v>
       </c>
       <c r="M25">
-        <v>0.7584820904442556</v>
+        <v>0.7654454169055566</v>
+      </c>
+      <c r="N25">
+        <v>0.7979066794138033</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_51/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8878942895421108</v>
+        <v>0.8921867222748012</v>
       </c>
       <c r="D2">
-        <v>0.9038140934875531</v>
+        <v>0.9019324848431562</v>
       </c>
       <c r="E2">
-        <v>0.9093617196034427</v>
+        <v>0.9103896223988294</v>
       </c>
       <c r="F2">
-        <v>0.8850890713653053</v>
+        <v>0.9193416231726532</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026743298797363</v>
+        <v>1.026838354872099</v>
       </c>
       <c r="J2">
-        <v>0.9140365164366225</v>
+        <v>0.9181511001775535</v>
       </c>
       <c r="K2">
-        <v>0.9167987210771902</v>
+        <v>0.9149511700778655</v>
       </c>
       <c r="L2">
-        <v>0.9222469981465555</v>
+        <v>0.9232566653358619</v>
       </c>
       <c r="M2">
-        <v>0.8984210655392706</v>
+        <v>0.9320520822757663</v>
       </c>
       <c r="N2">
-        <v>0.9153345531314151</v>
+        <v>0.9194549800532079</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.910964161707269</v>
+        <v>0.9151046695170794</v>
       </c>
       <c r="D3">
-        <v>0.9247003497016381</v>
+        <v>0.9237885303916603</v>
       </c>
       <c r="E3">
-        <v>0.9288622395325561</v>
+        <v>0.9302011700906038</v>
       </c>
       <c r="F3">
-        <v>0.9093439189754348</v>
+        <v>0.9394165884234105</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03120315247173</v>
+        <v>1.030361711827828</v>
       </c>
       <c r="J3">
-        <v>0.934216005426614</v>
+        <v>0.9382114146638997</v>
       </c>
       <c r="K3">
-        <v>0.9363968783315119</v>
+        <v>0.9354992969987392</v>
       </c>
       <c r="L3">
-        <v>0.9404942338515213</v>
+        <v>0.9418125596237267</v>
       </c>
       <c r="M3">
-        <v>0.9212851296470865</v>
+        <v>0.9508881897149178</v>
       </c>
       <c r="N3">
-        <v>0.9355426993103931</v>
+        <v>0.9395437824870758</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9243978849551202</v>
+        <v>0.9285632445703246</v>
       </c>
       <c r="D4">
-        <v>0.9368787679218026</v>
+        <v>0.9366396633742184</v>
       </c>
       <c r="E4">
-        <v>0.9402407469159494</v>
+        <v>0.9418522561175572</v>
       </c>
       <c r="F4">
-        <v>0.923482756057316</v>
+        <v>0.9512409248838323</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033769512476623</v>
+        <v>1.03241304216834</v>
       </c>
       <c r="J4">
-        <v>0.9459553172219167</v>
+        <v>0.9499893740379663</v>
       </c>
       <c r="K4">
-        <v>0.9478038418152862</v>
+        <v>0.9475681364051032</v>
       </c>
       <c r="L4">
-        <v>0.9511182578352371</v>
+        <v>0.9527071205557683</v>
       </c>
       <c r="M4">
-        <v>0.9346017145439054</v>
+        <v>0.9619657724118131</v>
       </c>
       <c r="N4">
-        <v>0.9472986822749633</v>
+        <v>0.9513384679144042</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.929753148776936</v>
+        <v>0.9339504598997747</v>
       </c>
       <c r="D5">
-        <v>0.9417367311701749</v>
+        <v>0.9417868688854448</v>
       </c>
       <c r="E5">
-        <v>0.944781234113465</v>
+        <v>0.9465189499729173</v>
       </c>
       <c r="F5">
-        <v>0.9291228852326664</v>
+        <v>0.955980409623029</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034783843752925</v>
+        <v>1.033229275810362</v>
       </c>
       <c r="J5">
-        <v>0.9506319128104963</v>
+        <v>0.9547026414338432</v>
       </c>
       <c r="K5">
-        <v>0.9523494216887212</v>
+        <v>0.9523988741268858</v>
       </c>
       <c r="L5">
-        <v>0.9553524786052962</v>
+        <v>0.9570666885417999</v>
       </c>
       <c r="M5">
-        <v>0.9399109502968921</v>
+        <v>0.966402044149546</v>
       </c>
       <c r="N5">
-        <v>0.9519819191656919</v>
+        <v>0.9560584286906028</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9306366933929491</v>
+        <v>0.9348404641436345</v>
       </c>
       <c r="D6">
-        <v>0.9425383936441349</v>
+        <v>0.9426373892232732</v>
       </c>
       <c r="E6">
-        <v>0.9455305935245231</v>
+        <v>0.9472900704692974</v>
       </c>
       <c r="F6">
-        <v>0.930053654618305</v>
+        <v>0.9567637342131707</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034950645825174</v>
+        <v>1.033363820526445</v>
       </c>
       <c r="J6">
-        <v>0.9514032864396255</v>
+        <v>0.955481217483007</v>
       </c>
       <c r="K6">
-        <v>0.9530992661814796</v>
+        <v>0.9531969176037193</v>
       </c>
       <c r="L6">
-        <v>0.9560509944150112</v>
+        <v>0.9577868231702891</v>
       </c>
       <c r="M6">
-        <v>0.9407869406438298</v>
+        <v>0.9671350298820719</v>
       </c>
       <c r="N6">
-        <v>0.9527543882338517</v>
+        <v>0.95683811040706</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9244705200255043</v>
+        <v>0.9286362299578647</v>
       </c>
       <c r="D7">
-        <v>0.9369446463137423</v>
+        <v>0.9367093854035824</v>
       </c>
       <c r="E7">
-        <v>0.9403023139708534</v>
+        <v>0.9419154691783299</v>
       </c>
       <c r="F7">
-        <v>0.9235592395448325</v>
+        <v>0.9513051114721538</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033783306755844</v>
+        <v>1.032424120642553</v>
       </c>
       <c r="J7">
-        <v>0.9460187606832187</v>
+        <v>0.950053234484231</v>
       </c>
       <c r="K7">
-        <v>0.9478655023742302</v>
+        <v>0.9476335842022956</v>
       </c>
       <c r="L7">
-        <v>0.9511756924627046</v>
+        <v>0.9527661896073555</v>
       </c>
       <c r="M7">
-        <v>0.9346737226258073</v>
+        <v>0.9620258679723133</v>
       </c>
       <c r="N7">
-        <v>0.9473622158332575</v>
+        <v>0.9514024190498278</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8960476358955159</v>
+        <v>0.9002569827372487</v>
       </c>
       <c r="D8">
-        <v>0.9111915040208527</v>
+        <v>0.9096246787367162</v>
       </c>
       <c r="E8">
-        <v>0.9162476117888564</v>
+        <v>0.9173615148707378</v>
       </c>
       <c r="F8">
-        <v>0.8936579901110532</v>
+        <v>0.9264014125160115</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028325259968159</v>
+        <v>1.028082526011143</v>
       </c>
       <c r="J8">
-        <v>0.9211704775346026</v>
+        <v>0.9252151380076195</v>
       </c>
       <c r="K8">
-        <v>0.9237258557722025</v>
+        <v>0.9221859947223247</v>
       </c>
       <c r="L8">
-        <v>0.9286957622786602</v>
+        <v>0.9297908392730913</v>
       </c>
       <c r="M8">
-        <v>0.9065010933457446</v>
+        <v>0.9386801076150872</v>
       </c>
       <c r="N8">
-        <v>0.9224786452724323</v>
+        <v>0.9265290496272499</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8293646958330636</v>
+        <v>0.8354149615673528</v>
       </c>
       <c r="D9">
-        <v>0.8510077847199552</v>
+        <v>0.8479641498283144</v>
       </c>
       <c r="E9">
-        <v>0.8601446152124993</v>
+        <v>0.8615169791940054</v>
       </c>
       <c r="F9">
-        <v>0.823636740861255</v>
+        <v>0.8700274107219792</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.01534087520948</v>
+        <v>1.018042487585941</v>
       </c>
       <c r="J9">
-        <v>0.8628110426439592</v>
+        <v>0.8684995953535323</v>
       </c>
       <c r="K9">
-        <v>0.8670900287911198</v>
+        <v>0.8641222545427463</v>
       </c>
       <c r="L9">
-        <v>0.8760034601491302</v>
+        <v>0.8773428187697069</v>
       </c>
       <c r="M9">
-        <v>0.8404286451089433</v>
+        <v>0.8856516860387009</v>
       </c>
       <c r="N9">
-        <v>0.8640363332903235</v>
+        <v>0.8697329643972304</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7536981641053394</v>
+        <v>0.7675100084154747</v>
       </c>
       <c r="D10">
-        <v>0.7832402744815515</v>
+        <v>0.78382180143657</v>
       </c>
       <c r="E10">
-        <v>0.7971996286490763</v>
+        <v>0.8036018272671537</v>
       </c>
       <c r="F10">
-        <v>0.7441656858277991</v>
+        <v>0.8121013253623576</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.000965031563838</v>
+        <v>1.007608859299277</v>
       </c>
       <c r="J10">
-        <v>0.7967751672848697</v>
+        <v>0.8093648137702191</v>
       </c>
       <c r="K10">
-        <v>0.803054360266454</v>
+        <v>0.803615613785411</v>
       </c>
       <c r="L10">
-        <v>0.8165384013444293</v>
+        <v>0.8227302616517868</v>
       </c>
       <c r="M10">
-        <v>0.7654454169055566</v>
+        <v>0.830957597996183</v>
       </c>
       <c r="N10">
-        <v>0.7979066794138033</v>
+        <v>0.8105142046412145</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7536981641053394</v>
+        <v>0.7146435138719033</v>
       </c>
       <c r="D11">
-        <v>0.7832402744815515</v>
+        <v>0.734297462914001</v>
       </c>
       <c r="E11">
-        <v>0.7971996286490763</v>
+        <v>0.7590962514903933</v>
       </c>
       <c r="F11">
-        <v>0.7441656858277991</v>
+        <v>0.7681072060467696</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.000965031563838</v>
+        <v>0.999697427342004</v>
       </c>
       <c r="J11">
-        <v>0.7967751672848697</v>
+        <v>0.7636816076135752</v>
       </c>
       <c r="K11">
-        <v>0.803054360266454</v>
+        <v>0.7568778542553367</v>
       </c>
       <c r="L11">
-        <v>0.8165384013444293</v>
+        <v>0.7806379848758619</v>
       </c>
       <c r="M11">
-        <v>0.7654454169055566</v>
+        <v>0.7892949276194243</v>
       </c>
       <c r="N11">
-        <v>0.7979066794138033</v>
+        <v>0.7647661230918912</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7536981641053394</v>
+        <v>0.6692464092752891</v>
       </c>
       <c r="D12">
-        <v>0.7832402744815515</v>
+        <v>0.692155647932298</v>
       </c>
       <c r="E12">
-        <v>0.7971996286490763</v>
+        <v>0.7214361559829775</v>
       </c>
       <c r="F12">
-        <v>0.7441656858277991</v>
+        <v>0.7313591590863512</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.000965031563838</v>
+        <v>0.9931275141751443</v>
       </c>
       <c r="J12">
-        <v>0.7967751672848697</v>
+        <v>0.7248260064059737</v>
       </c>
       <c r="K12">
-        <v>0.803054360266454</v>
+        <v>0.7171199982781359</v>
       </c>
       <c r="L12">
-        <v>0.8165384013444293</v>
+        <v>0.7449392598712207</v>
       </c>
       <c r="M12">
-        <v>0.7654454169055566</v>
+        <v>0.7544049546236623</v>
       </c>
       <c r="N12">
-        <v>0.7979066794138033</v>
+        <v>0.7258553424737751</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7536981641053394</v>
+        <v>0.6847687593351937</v>
       </c>
       <c r="D13">
-        <v>0.7832402744815515</v>
+        <v>0.7065184487875042</v>
       </c>
       <c r="E13">
-        <v>0.7971996286490763</v>
+        <v>0.7342456308518271</v>
       </c>
       <c r="F13">
-        <v>0.7441656858277991</v>
+        <v>0.7438007328665465</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.000965031563838</v>
+        <v>0.9953470947856055</v>
       </c>
       <c r="J13">
-        <v>0.7967751672848697</v>
+        <v>0.7380653688561656</v>
       </c>
       <c r="K13">
-        <v>0.803054360266454</v>
+        <v>0.730667732781863</v>
       </c>
       <c r="L13">
-        <v>0.8165384013444293</v>
+        <v>0.7570901629627768</v>
       </c>
       <c r="M13">
-        <v>0.7654454169055566</v>
+        <v>0.7662276712649008</v>
       </c>
       <c r="N13">
-        <v>0.7979066794138033</v>
+        <v>0.7391135063372225</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7536981641053394</v>
+        <v>0.7122197073370681</v>
       </c>
       <c r="D14">
-        <v>0.7832402744815515</v>
+        <v>0.7320375448859763</v>
       </c>
       <c r="E14">
-        <v>0.7971996286490763</v>
+        <v>0.7570711543508881</v>
       </c>
       <c r="F14">
-        <v>0.7441656858277991</v>
+        <v>0.7661187685814652</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.000965031563838</v>
+        <v>0.9993408860086604</v>
       </c>
       <c r="J14">
-        <v>0.7967751672848697</v>
+        <v>0.7615972576040482</v>
       </c>
       <c r="K14">
-        <v>0.803054360266454</v>
+        <v>0.7547452897411666</v>
       </c>
       <c r="L14">
-        <v>0.8165384013444293</v>
+        <v>0.7787202637919513</v>
       </c>
       <c r="M14">
-        <v>0.7654454169055566</v>
+        <v>0.7874092592534238</v>
       </c>
       <c r="N14">
-        <v>0.7979066794138033</v>
+        <v>0.7626788130662724</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7536981641053394</v>
+        <v>0.7239733218986554</v>
       </c>
       <c r="D15">
-        <v>0.7832402744815515</v>
+        <v>0.7430058346843821</v>
       </c>
       <c r="E15">
-        <v>0.7971996286490763</v>
+        <v>0.76690496115731</v>
       </c>
       <c r="F15">
-        <v>0.7441656858277991</v>
+        <v>0.7757863759776252</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.000965031563838</v>
+        <v>1.001075356774447</v>
       </c>
       <c r="J15">
-        <v>0.7967751672848697</v>
+        <v>0.771713895232774</v>
       </c>
       <c r="K15">
-        <v>0.803054360266454</v>
+        <v>0.7650958068955124</v>
       </c>
       <c r="L15">
-        <v>0.8165384013444293</v>
+        <v>0.7880306737046036</v>
       </c>
       <c r="M15">
-        <v>0.7654454169055566</v>
+        <v>0.7965750084036115</v>
       </c>
       <c r="N15">
-        <v>0.7979066794138033</v>
+        <v>0.7728098174808257</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7536981641053394</v>
+        <v>0.7701144697460137</v>
       </c>
       <c r="D16">
-        <v>0.7832402744815515</v>
+        <v>0.7862719862908023</v>
       </c>
       <c r="E16">
-        <v>0.7971996286490763</v>
+        <v>0.8058092517932033</v>
       </c>
       <c r="F16">
-        <v>0.7441656858277991</v>
+        <v>0.8142965381376696</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.000965031563838</v>
+        <v>1.008004445281088</v>
       </c>
       <c r="J16">
-        <v>0.7967751672848697</v>
+        <v>0.8116248807320252</v>
       </c>
       <c r="K16">
-        <v>0.803054360266454</v>
+        <v>0.8059278441560626</v>
       </c>
       <c r="L16">
-        <v>0.8165384013444293</v>
+        <v>0.8248152934301699</v>
       </c>
       <c r="M16">
-        <v>0.7654454169055566</v>
+        <v>0.8330336942232187</v>
       </c>
       <c r="N16">
-        <v>0.7979066794138033</v>
+        <v>0.8127774811573396</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7536981641053394</v>
+        <v>0.790785437502463</v>
       </c>
       <c r="D17">
-        <v>0.7832402744815515</v>
+        <v>0.805748760531898</v>
       </c>
       <c r="E17">
-        <v>0.7971996286490763</v>
+        <v>0.8233717454209806</v>
       </c>
       <c r="F17">
-        <v>0.7441656858277991</v>
+        <v>0.8318003777714763</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.000965031563838</v>
+        <v>1.011159659137859</v>
       </c>
       <c r="J17">
-        <v>0.7967751672848697</v>
+        <v>0.8295882833262418</v>
       </c>
       <c r="K17">
-        <v>0.803054360266454</v>
+        <v>0.8243062953208625</v>
       </c>
       <c r="L17">
-        <v>0.8165384013444293</v>
+        <v>0.8413945817818662</v>
       </c>
       <c r="M17">
-        <v>0.7654454169055566</v>
+        <v>0.8495784345223635</v>
       </c>
       <c r="N17">
-        <v>0.7979066794138033</v>
+        <v>0.830766393843671</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7536981641053394</v>
+        <v>0.8013418477283484</v>
       </c>
       <c r="D18">
-        <v>0.7832402744815515</v>
+        <v>0.8157149115183664</v>
       </c>
       <c r="E18">
-        <v>0.7971996286490763</v>
+        <v>0.8323681062074387</v>
       </c>
       <c r="F18">
-        <v>0.7441656858277991</v>
+        <v>0.8407916407949423</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.000965031563838</v>
+        <v>1.012780362684813</v>
       </c>
       <c r="J18">
-        <v>0.7967751672848697</v>
+        <v>0.838778004496147</v>
       </c>
       <c r="K18">
-        <v>0.803054360266454</v>
+        <v>0.8337088087224791</v>
       </c>
       <c r="L18">
-        <v>0.8165384013444293</v>
+        <v>0.8498806225694987</v>
       </c>
       <c r="M18">
-        <v>0.7654454169055566</v>
+        <v>0.8580705483046377</v>
       </c>
       <c r="N18">
-        <v>0.7979066794138033</v>
+        <v>0.8399691654717134</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7536981641053394</v>
+        <v>0.8047464272182024</v>
       </c>
       <c r="D19">
-        <v>0.7832402744815515</v>
+        <v>0.818931793099642</v>
       </c>
       <c r="E19">
-        <v>0.7971996286490763</v>
+        <v>0.835273239874408</v>
       </c>
       <c r="F19">
-        <v>0.7441656858277991</v>
+        <v>0.8436985211079235</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.000965031563838</v>
+        <v>1.013304216106169</v>
       </c>
       <c r="J19">
-        <v>0.7967751672848697</v>
+        <v>0.8417438820789247</v>
       </c>
       <c r="K19">
-        <v>0.803054360266454</v>
+        <v>0.8367434531944966</v>
       </c>
       <c r="L19">
-        <v>0.8165384013444293</v>
+        <v>0.852619964846335</v>
       </c>
       <c r="M19">
-        <v>0.7654454169055566</v>
+        <v>0.8608150974849795</v>
       </c>
       <c r="N19">
-        <v>0.7979066794138033</v>
+        <v>0.8429392549408495</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7536981641053394</v>
+        <v>0.7887393256605187</v>
       </c>
       <c r="D20">
-        <v>0.7832402744815515</v>
+        <v>0.8038185426134163</v>
       </c>
       <c r="E20">
-        <v>0.7971996286490763</v>
+        <v>0.8216300787977965</v>
       </c>
       <c r="F20">
-        <v>0.7441656858277991</v>
+        <v>0.8300615862195917</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.000965031563838</v>
+        <v>1.010846200951322</v>
       </c>
       <c r="J20">
-        <v>0.7967751672848697</v>
+        <v>0.827808255855754</v>
       </c>
       <c r="K20">
-        <v>0.803054360266454</v>
+        <v>0.8224850934705038</v>
       </c>
       <c r="L20">
-        <v>0.8165384013444293</v>
+        <v>0.8397511804954982</v>
       </c>
       <c r="M20">
-        <v>0.7654454169055566</v>
+        <v>0.8479356605445278</v>
       </c>
       <c r="N20">
-        <v>0.7979066794138033</v>
+        <v>0.8289838385300032</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7536981641053394</v>
+        <v>0.7056495478883107</v>
       </c>
       <c r="D21">
-        <v>0.7832402744815515</v>
+        <v>0.7259168784763941</v>
       </c>
       <c r="E21">
-        <v>0.7971996286490763</v>
+        <v>0.7515893697603824</v>
       </c>
       <c r="F21">
-        <v>0.7441656858277991</v>
+        <v>0.7607427804165965</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.000965031563838</v>
+        <v>0.9983774911858614</v>
       </c>
       <c r="J21">
-        <v>0.7967751672848697</v>
+        <v>0.7559523801547716</v>
       </c>
       <c r="K21">
-        <v>0.803054360266454</v>
+        <v>0.7489697526886498</v>
       </c>
       <c r="L21">
-        <v>0.8165384013444293</v>
+        <v>0.7735280707835313</v>
       </c>
       <c r="M21">
-        <v>0.7654454169055566</v>
+        <v>0.7823099167146708</v>
       </c>
       <c r="N21">
-        <v>0.7979066794138033</v>
+        <v>0.7570259192435415</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7536981641053394</v>
+        <v>0.7056495478883107</v>
       </c>
       <c r="D22">
-        <v>0.7832402744815515</v>
+        <v>0.7259168784763941</v>
       </c>
       <c r="E22">
-        <v>0.7971996286490763</v>
+        <v>0.7515893697603824</v>
       </c>
       <c r="F22">
-        <v>0.7441656858277991</v>
+        <v>0.7607427804165965</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.000965031563838</v>
+        <v>0.9983774911858614</v>
       </c>
       <c r="J22">
-        <v>0.7967751672848697</v>
+        <v>0.7559523801547716</v>
       </c>
       <c r="K22">
-        <v>0.803054360266454</v>
+        <v>0.7489697526886498</v>
       </c>
       <c r="L22">
-        <v>0.8165384013444293</v>
+        <v>0.7735280707835313</v>
       </c>
       <c r="M22">
-        <v>0.7654454169055566</v>
+        <v>0.7823099167146708</v>
       </c>
       <c r="N22">
-        <v>0.7979066794138033</v>
+        <v>0.7570259192435415</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7536981641053394</v>
+        <v>0.7056495478883107</v>
       </c>
       <c r="D23">
-        <v>0.7832402744815515</v>
+        <v>0.7259168784763941</v>
       </c>
       <c r="E23">
-        <v>0.7971996286490763</v>
+        <v>0.7515893697603824</v>
       </c>
       <c r="F23">
-        <v>0.7441656858277991</v>
+        <v>0.7607427804165965</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.000965031563838</v>
+        <v>0.9983774911858614</v>
       </c>
       <c r="J23">
-        <v>0.7967751672848697</v>
+        <v>0.7559523801547716</v>
       </c>
       <c r="K23">
-        <v>0.803054360266454</v>
+        <v>0.7489697526886498</v>
       </c>
       <c r="L23">
-        <v>0.8165384013444293</v>
+        <v>0.7735280707835313</v>
       </c>
       <c r="M23">
-        <v>0.7654454169055566</v>
+        <v>0.7823099167146708</v>
       </c>
       <c r="N23">
-        <v>0.7979066794138033</v>
+        <v>0.7570259192435415</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7536981641053394</v>
+        <v>0.4916794566859393</v>
       </c>
       <c r="D24">
-        <v>0.7832402744815515</v>
+        <v>0.5335937607388089</v>
       </c>
       <c r="E24">
-        <v>0.7971996286490763</v>
+        <v>0.5828911640586797</v>
       </c>
       <c r="F24">
-        <v>0.7441656858277991</v>
+        <v>0.6032397863316026</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.000965031563838</v>
+        <v>0.9704448947683794</v>
       </c>
       <c r="J24">
-        <v>0.7967751672848697</v>
+        <v>0.579060145771623</v>
       </c>
       <c r="K24">
-        <v>0.803054360266454</v>
+        <v>0.5678646252776413</v>
       </c>
       <c r="L24">
-        <v>0.8165384013444293</v>
+        <v>0.6126656397235142</v>
       </c>
       <c r="M24">
-        <v>0.7654454169055566</v>
+        <v>0.6314723581212351</v>
       </c>
       <c r="N24">
-        <v>0.7979066794138033</v>
+        <v>0.5798824775977458</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7536981641053394</v>
+        <v>0.4008654848227193</v>
       </c>
       <c r="D25">
-        <v>0.7832402744815515</v>
+        <v>0.4610198884259828</v>
       </c>
       <c r="E25">
-        <v>0.7971996286490763</v>
+        <v>0.5225966819505751</v>
       </c>
       <c r="F25">
-        <v>0.7441656858277991</v>
+        <v>0.5553157129846086</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.000965031563838</v>
+        <v>0.9616073894085315</v>
       </c>
       <c r="J25">
-        <v>0.7967751672848697</v>
+        <v>0.5121811387568366</v>
       </c>
       <c r="K25">
-        <v>0.803054360266454</v>
+        <v>0.4994576170806009</v>
       </c>
       <c r="L25">
-        <v>0.8165384013444293</v>
+        <v>0.553867584515393</v>
       </c>
       <c r="M25">
-        <v>0.7654454169055566</v>
+        <v>0.5837213350090528</v>
       </c>
       <c r="N25">
-        <v>0.7979066794138033</v>
+        <v>0.5129084947218689</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_51/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8921867222748012</v>
+        <v>0.9975636255780479</v>
       </c>
       <c r="D2">
-        <v>0.9019324848431562</v>
+        <v>1.009951565980049</v>
       </c>
       <c r="E2">
-        <v>0.9103896223988294</v>
+        <v>1.004180272716922</v>
       </c>
       <c r="F2">
-        <v>0.9193416231726532</v>
+        <v>1.011700569562426</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026838354872099</v>
+        <v>1.042216449164942</v>
       </c>
       <c r="J2">
-        <v>0.9181511001775535</v>
+        <v>1.01981745318571</v>
       </c>
       <c r="K2">
-        <v>0.9149511700778655</v>
+        <v>1.021273979040136</v>
       </c>
       <c r="L2">
-        <v>0.9232566653358619</v>
+        <v>1.01558167529905</v>
       </c>
       <c r="M2">
-        <v>0.9320520822757663</v>
+        <v>1.022999268485484</v>
       </c>
       <c r="N2">
-        <v>0.9194549800532079</v>
+        <v>1.010099363736855</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9151046695170794</v>
+        <v>1.003296433551134</v>
       </c>
       <c r="D3">
-        <v>0.9237885303916603</v>
+        <v>1.014997077232424</v>
       </c>
       <c r="E3">
-        <v>0.9302011700906038</v>
+        <v>1.008850382518432</v>
       </c>
       <c r="F3">
-        <v>0.9394165884234105</v>
+        <v>1.017417400926734</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030361711827828</v>
+        <v>1.04341070123286</v>
       </c>
       <c r="J3">
-        <v>0.9382114146638997</v>
+        <v>1.023697636076404</v>
       </c>
       <c r="K3">
-        <v>0.9354992969987392</v>
+        <v>1.025441597417895</v>
       </c>
       <c r="L3">
-        <v>0.9418125596237267</v>
+        <v>1.019371259770582</v>
       </c>
       <c r="M3">
-        <v>0.9508881897149178</v>
+        <v>1.027832169639064</v>
       </c>
       <c r="N3">
-        <v>0.9395437824870758</v>
+        <v>1.011434226112742</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9285632445703246</v>
+        <v>1.006915039856232</v>
       </c>
       <c r="D4">
-        <v>0.9366396633742184</v>
+        <v>1.018187601368898</v>
       </c>
       <c r="E4">
-        <v>0.9418522561175572</v>
+        <v>1.011804502834448</v>
       </c>
       <c r="F4">
-        <v>0.9512409248838323</v>
+        <v>1.021033761053196</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03241304216834</v>
+        <v>1.044151664677883</v>
       </c>
       <c r="J4">
-        <v>0.9499893740379663</v>
+        <v>1.026143497140638</v>
       </c>
       <c r="K4">
-        <v>0.9475681364051032</v>
+        <v>1.028071363969261</v>
       </c>
       <c r="L4">
-        <v>0.9527071205557683</v>
+        <v>1.021762515378362</v>
       </c>
       <c r="M4">
-        <v>0.9619657724118131</v>
+        <v>1.030884785791496</v>
       </c>
       <c r="N4">
-        <v>0.9513384679144042</v>
+        <v>1.012275014815891</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9339504598997747</v>
+        <v>1.008415499240476</v>
       </c>
       <c r="D5">
-        <v>0.9417868688854448</v>
+        <v>1.019511881475726</v>
       </c>
       <c r="E5">
-        <v>0.9465189499729173</v>
+        <v>1.013030879380669</v>
       </c>
       <c r="F5">
-        <v>0.955980409623029</v>
+        <v>1.022535134061084</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033229275810362</v>
+        <v>1.044455766635604</v>
       </c>
       <c r="J5">
-        <v>0.9547026414338432</v>
+        <v>1.027156822460975</v>
       </c>
       <c r="K5">
-        <v>0.9523988741268858</v>
+        <v>1.02916154025382</v>
       </c>
       <c r="L5">
-        <v>0.9570666885417999</v>
+        <v>1.022753814887371</v>
       </c>
       <c r="M5">
-        <v>0.966402044149546</v>
+        <v>1.032151001733031</v>
       </c>
       <c r="N5">
-        <v>0.9560584286906028</v>
+        <v>1.012623193569848</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9348404641436345</v>
+        <v>1.008666239857864</v>
       </c>
       <c r="D6">
-        <v>0.9426373892232732</v>
+        <v>1.019733257351574</v>
       </c>
       <c r="E6">
-        <v>0.9472900704692974</v>
+        <v>1.013235901498487</v>
       </c>
       <c r="F6">
-        <v>0.9567637342131707</v>
+        <v>1.022786134841545</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033363820526445</v>
+        <v>1.044506398752598</v>
       </c>
       <c r="J6">
-        <v>0.955481217483007</v>
+        <v>1.027326106851998</v>
       </c>
       <c r="K6">
-        <v>0.9531969176037193</v>
+        <v>1.029343702126285</v>
       </c>
       <c r="L6">
-        <v>0.9577868231702891</v>
+        <v>1.022919454726716</v>
       </c>
       <c r="M6">
-        <v>0.9671350298820719</v>
+        <v>1.03236262302637</v>
       </c>
       <c r="N6">
-        <v>0.95683811040706</v>
+        <v>1.012681349951869</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9286362299578647</v>
+        <v>1.00693516958365</v>
       </c>
       <c r="D7">
-        <v>0.9367093854035824</v>
+        <v>1.018205362353773</v>
       </c>
       <c r="E7">
-        <v>0.9419154691783299</v>
+        <v>1.011820949907388</v>
       </c>
       <c r="F7">
-        <v>0.9513051114721538</v>
+        <v>1.021053895788257</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032424120642553</v>
+        <v>1.044155756903834</v>
       </c>
       <c r="J7">
-        <v>0.950053234484231</v>
+        <v>1.026157095059614</v>
       </c>
       <c r="K7">
-        <v>0.9476335842022956</v>
+        <v>1.028085990547263</v>
       </c>
       <c r="L7">
-        <v>0.9527661896073555</v>
+        <v>1.021775815371942</v>
       </c>
       <c r="M7">
-        <v>0.9620258679723133</v>
+        <v>1.030901771274313</v>
       </c>
       <c r="N7">
-        <v>0.9514024190498278</v>
+        <v>1.012279687714403</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9002569827372487</v>
+        <v>0.9995204750382655</v>
       </c>
       <c r="D8">
-        <v>0.9096246787367162</v>
+        <v>1.011672569909657</v>
       </c>
       <c r="E8">
-        <v>0.9173615148707378</v>
+        <v>1.005773012867735</v>
       </c>
       <c r="F8">
-        <v>0.9264014125160115</v>
+        <v>1.013650294423791</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028082526011143</v>
+        <v>1.042626769046659</v>
       </c>
       <c r="J8">
-        <v>0.9252151380076195</v>
+        <v>1.021142596444849</v>
       </c>
       <c r="K8">
-        <v>0.9221859947223247</v>
+        <v>1.022696716517692</v>
       </c>
       <c r="L8">
-        <v>0.9297908392730913</v>
+        <v>1.016875348773376</v>
       </c>
       <c r="M8">
-        <v>0.9386801076150872</v>
+        <v>1.024648484683574</v>
       </c>
       <c r="N8">
-        <v>0.9265290496272499</v>
+        <v>1.010555368926491</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8354149615673528</v>
+        <v>0.9857120386972941</v>
       </c>
       <c r="D9">
-        <v>0.8479641498283144</v>
+        <v>0.9995553470518675</v>
       </c>
       <c r="E9">
-        <v>0.8615169791940054</v>
+        <v>0.9945637401660224</v>
       </c>
       <c r="F9">
-        <v>0.8700274107219792</v>
+        <v>0.9999273038326685</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.018042487585941</v>
+        <v>1.039678609441457</v>
       </c>
       <c r="J9">
-        <v>0.8684995953535323</v>
+        <v>1.011779630474905</v>
       </c>
       <c r="K9">
-        <v>0.8641222545427463</v>
+        <v>1.012655642561659</v>
       </c>
       <c r="L9">
-        <v>0.8773428187697069</v>
+        <v>1.007745636980244</v>
       </c>
       <c r="M9">
-        <v>0.8856516860387009</v>
+        <v>1.013021560591409</v>
       </c>
       <c r="N9">
-        <v>0.8697329643972304</v>
+        <v>1.007331045420753</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7675100084154747</v>
+        <v>0.9759359289274988</v>
       </c>
       <c r="D10">
-        <v>0.78382180143657</v>
+        <v>0.9910139194327883</v>
       </c>
       <c r="E10">
-        <v>0.8036018272671537</v>
+        <v>0.986669363912218</v>
       </c>
       <c r="F10">
-        <v>0.8121013253623576</v>
+        <v>0.9902585892198157</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.007608859299277</v>
+        <v>1.037526673175638</v>
       </c>
       <c r="J10">
-        <v>0.8093648137702191</v>
+        <v>1.005137938682875</v>
       </c>
       <c r="K10">
-        <v>0.803615613785411</v>
+        <v>1.005547338186856</v>
       </c>
       <c r="L10">
-        <v>0.8227302616517868</v>
+        <v>1.001283551955647</v>
       </c>
       <c r="M10">
-        <v>0.830957597996183</v>
+        <v>1.004805983895527</v>
       </c>
       <c r="N10">
-        <v>0.8105142046412145</v>
+        <v>1.005041257377009</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7146435138719033</v>
+        <v>0.9715496241803214</v>
       </c>
       <c r="D11">
-        <v>0.734297462914001</v>
+        <v>0.9871914811611548</v>
       </c>
       <c r="E11">
-        <v>0.7590962514903933</v>
+        <v>0.9831384533014053</v>
       </c>
       <c r="F11">
-        <v>0.7681072060467696</v>
+        <v>0.9859323317728442</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.999697427342004</v>
+        <v>1.036546668998929</v>
       </c>
       <c r="J11">
-        <v>0.7636816076135752</v>
+        <v>1.002155811235936</v>
       </c>
       <c r="K11">
-        <v>0.7568778542553367</v>
+        <v>1.002359058434655</v>
       </c>
       <c r="L11">
-        <v>0.7806379848758619</v>
+        <v>0.9983855165912785</v>
       </c>
       <c r="M11">
-        <v>0.7892949276194243</v>
+        <v>1.001124511056722</v>
       </c>
       <c r="N11">
-        <v>0.7647661230918912</v>
+        <v>1.004012667780365</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.6692464092752891</v>
+        <v>0.9698956485721961</v>
       </c>
       <c r="D12">
-        <v>0.692155647932298</v>
+        <v>0.9857517093396135</v>
       </c>
       <c r="E12">
-        <v>0.7214361559829775</v>
+        <v>0.9818088106800437</v>
       </c>
       <c r="F12">
-        <v>0.7313591590863512</v>
+        <v>0.9843028490778819</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9931275141751443</v>
+        <v>1.036175034974997</v>
       </c>
       <c r="J12">
-        <v>0.7248260064059737</v>
+        <v>1.001031077112218</v>
       </c>
       <c r="K12">
-        <v>0.7171199982781359</v>
+        <v>1.001157071580033</v>
       </c>
       <c r="L12">
-        <v>0.7449392598712207</v>
+        <v>0.9972930254741293</v>
       </c>
       <c r="M12">
-        <v>0.7544049546236623</v>
+        <v>0.9997370899771427</v>
       </c>
       <c r="N12">
-        <v>0.7258553424737751</v>
+        <v>1.003624668469276</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.6847687593351937</v>
+        <v>0.9702515789723886</v>
       </c>
       <c r="D13">
-        <v>0.7065184487875042</v>
+        <v>0.9860614706610495</v>
       </c>
       <c r="E13">
-        <v>0.7342456308518271</v>
+        <v>0.9820948631596974</v>
       </c>
       <c r="F13">
-        <v>0.7438007328665465</v>
+        <v>0.9846534239569809</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9953470947856055</v>
+        <v>1.036255102827076</v>
       </c>
       <c r="J13">
-        <v>0.7380653688561656</v>
+        <v>1.00127312591815</v>
       </c>
       <c r="K13">
-        <v>0.730667732781863</v>
+        <v>1.0014157231195</v>
       </c>
       <c r="L13">
-        <v>0.7570901629627768</v>
+        <v>0.9975281114619683</v>
       </c>
       <c r="M13">
-        <v>0.7662276712649008</v>
+        <v>1.000035622189401</v>
       </c>
       <c r="N13">
-        <v>0.7391135063372225</v>
+        <v>1.003708170416266</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7122197073370681</v>
+        <v>0.9714134204229398</v>
       </c>
       <c r="D14">
-        <v>0.7320375448859763</v>
+        <v>0.9870728842269009</v>
       </c>
       <c r="E14">
-        <v>0.7570711543508881</v>
+        <v>0.983028921242639</v>
       </c>
       <c r="F14">
-        <v>0.7661187685814652</v>
+        <v>0.9857981070058776</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9993408860086604</v>
+        <v>1.036516107291356</v>
       </c>
       <c r="J14">
-        <v>0.7615972576040482</v>
+        <v>1.002063194562969</v>
       </c>
       <c r="K14">
-        <v>0.7547452897411666</v>
+        <v>1.002260070246743</v>
       </c>
       <c r="L14">
-        <v>0.7787202637919513</v>
+        <v>0.9982955442278035</v>
       </c>
       <c r="M14">
-        <v>0.7874092592534238</v>
+        <v>1.001010241601705</v>
       </c>
       <c r="N14">
-        <v>0.7626788130662724</v>
+        <v>1.003980718931066</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7239733218986554</v>
+        <v>0.9721259419910665</v>
       </c>
       <c r="D15">
-        <v>0.7430058346843821</v>
+        <v>0.9876933643783486</v>
       </c>
       <c r="E15">
-        <v>0.76690496115731</v>
+        <v>0.9836019886739488</v>
       </c>
       <c r="F15">
-        <v>0.7757863759776252</v>
+        <v>0.9865003516406646</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.001075356774447</v>
+        <v>1.036675899628334</v>
       </c>
       <c r="J15">
-        <v>0.771713895232774</v>
+        <v>1.002547690049305</v>
       </c>
       <c r="K15">
-        <v>0.7650958068955124</v>
+        <v>1.002777916636702</v>
       </c>
       <c r="L15">
-        <v>0.7880306737046036</v>
+        <v>0.9987662283309529</v>
       </c>
       <c r="M15">
-        <v>0.7965750084036115</v>
+        <v>1.001608050609252</v>
       </c>
       <c r="N15">
-        <v>0.7728098174808257</v>
+        <v>1.004147847165228</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7701144697460137</v>
+        <v>0.9762236653278071</v>
       </c>
       <c r="D16">
-        <v>0.7862719862908023</v>
+        <v>0.9912648802720779</v>
       </c>
       <c r="E16">
-        <v>0.8058092517932033</v>
+        <v>0.9869012275918841</v>
       </c>
       <c r="F16">
-        <v>0.8142965381376696</v>
+        <v>0.9905426385691242</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.008004445281088</v>
+        <v>1.037590666054459</v>
       </c>
       <c r="J16">
-        <v>0.8116248807320252</v>
+        <v>1.005333524678559</v>
       </c>
       <c r="K16">
-        <v>0.8059278441560626</v>
+        <v>1.005756514183287</v>
       </c>
       <c r="L16">
-        <v>0.8248152934301699</v>
+        <v>1.001473695013517</v>
       </c>
       <c r="M16">
-        <v>0.8330336942232187</v>
+        <v>1.005047587383637</v>
       </c>
       <c r="N16">
-        <v>0.8127774811573396</v>
+        <v>1.005108709772396</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.790785437502463</v>
+        <v>0.9787519024360961</v>
       </c>
       <c r="D17">
-        <v>0.805748760531898</v>
+        <v>0.9934711161408751</v>
       </c>
       <c r="E17">
-        <v>0.8233717454209806</v>
+        <v>0.98893980299718</v>
       </c>
       <c r="F17">
-        <v>0.8318003777714763</v>
+        <v>0.9930398312250555</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.011159659137859</v>
+        <v>1.03815131600388</v>
       </c>
       <c r="J17">
-        <v>0.8295882833262418</v>
+        <v>1.007051833544431</v>
       </c>
       <c r="K17">
-        <v>0.8243062953208625</v>
+        <v>1.00759459700932</v>
       </c>
       <c r="L17">
-        <v>0.8413945817818662</v>
+        <v>1.003144577047681</v>
       </c>
       <c r="M17">
-        <v>0.8495784345223635</v>
+        <v>1.0071710080018</v>
       </c>
       <c r="N17">
-        <v>0.830766393843671</v>
+        <v>1.005701256675603</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8013418477283484</v>
+        <v>0.9802119229008266</v>
       </c>
       <c r="D18">
-        <v>0.8157149115183664</v>
+        <v>0.9947461133956123</v>
       </c>
       <c r="E18">
-        <v>0.8323681062074387</v>
+        <v>0.9901180918711666</v>
       </c>
       <c r="F18">
-        <v>0.8407916407949423</v>
+        <v>0.9944830395424751</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.012780362684813</v>
+        <v>1.038473710023134</v>
       </c>
       <c r="J18">
-        <v>0.838778004496147</v>
+        <v>1.008043922366283</v>
       </c>
       <c r="K18">
-        <v>0.8337088087224791</v>
+        <v>1.008656156241803</v>
       </c>
       <c r="L18">
-        <v>0.8498806225694987</v>
+        <v>1.004109608294746</v>
       </c>
       <c r="M18">
-        <v>0.8580705483046377</v>
+        <v>1.008397687313644</v>
       </c>
       <c r="N18">
-        <v>0.8399691654717134</v>
+        <v>1.006043326200693</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8047464272182024</v>
+        <v>0.9807073147574811</v>
       </c>
       <c r="D19">
-        <v>0.818931793099642</v>
+        <v>0.9951788806644193</v>
       </c>
       <c r="E19">
-        <v>0.835273239874408</v>
+        <v>0.9905180641798498</v>
       </c>
       <c r="F19">
-        <v>0.8436985211079235</v>
+        <v>0.994972914255716</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.013304216106169</v>
+        <v>1.038582864629414</v>
       </c>
       <c r="J19">
-        <v>0.8417438820789247</v>
+        <v>1.008380504857842</v>
       </c>
       <c r="K19">
-        <v>0.8367434531944966</v>
+        <v>1.009016361690323</v>
       </c>
       <c r="L19">
-        <v>0.852619964846335</v>
+        <v>1.00443706593003</v>
       </c>
       <c r="M19">
-        <v>0.8608150974849795</v>
+        <v>1.008813976888405</v>
       </c>
       <c r="N19">
-        <v>0.8429392549408495</v>
+        <v>1.006159370854212</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7887393256605187</v>
+        <v>0.9784821743232924</v>
       </c>
       <c r="D20">
-        <v>0.8038185426134163</v>
+        <v>0.9932356441301027</v>
       </c>
       <c r="E20">
-        <v>0.8216300787977965</v>
+        <v>0.9887222061764041</v>
       </c>
       <c r="F20">
-        <v>0.8300615862195917</v>
+        <v>0.9927732988280769</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.010846200951322</v>
+        <v>1.038091644410594</v>
       </c>
       <c r="J20">
-        <v>0.827808255855754</v>
+        <v>1.006868534843475</v>
       </c>
       <c r="K20">
-        <v>0.8224850934705038</v>
+        <v>1.00739848864087</v>
       </c>
       <c r="L20">
-        <v>0.8397511804954982</v>
+        <v>1.00296630374861</v>
       </c>
       <c r="M20">
-        <v>0.8479356605445278</v>
+        <v>1.00694442258214</v>
       </c>
       <c r="N20">
-        <v>0.8289838385300032</v>
+        <v>1.005638052018258</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7056495478883107</v>
+        <v>0.9710719835216595</v>
       </c>
       <c r="D21">
-        <v>0.7259168784763941</v>
+        <v>0.9867756100930374</v>
       </c>
       <c r="E21">
-        <v>0.7515893697603824</v>
+        <v>0.9827543743240049</v>
       </c>
       <c r="F21">
-        <v>0.7607427804165965</v>
+        <v>0.9854616610829438</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9983774911858614</v>
+        <v>1.036439461435655</v>
       </c>
       <c r="J21">
-        <v>0.7559523801547716</v>
+        <v>1.001831018588841</v>
       </c>
       <c r="K21">
-        <v>0.7489697526886498</v>
+        <v>1.002011929868751</v>
       </c>
       <c r="L21">
-        <v>0.7735280707835313</v>
+        <v>0.9980700056506129</v>
       </c>
       <c r="M21">
-        <v>0.7823099167146708</v>
+        <v>1.000723802630695</v>
       </c>
       <c r="N21">
-        <v>0.7570259192435415</v>
+        <v>1.003900627111465</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7056495478883107</v>
+        <v>0.9662689940949948</v>
       </c>
       <c r="D22">
-        <v>0.7259168784763941</v>
+        <v>0.9825977649021043</v>
       </c>
       <c r="E22">
-        <v>0.7515893697603824</v>
+        <v>0.9788967369689714</v>
       </c>
       <c r="F22">
-        <v>0.7607427804165965</v>
+        <v>0.9807333886719449</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9983774911858614</v>
+        <v>1.03535638708204</v>
       </c>
       <c r="J22">
-        <v>0.7559523801547716</v>
+        <v>0.9985645363976436</v>
       </c>
       <c r="K22">
-        <v>0.7489697526886498</v>
+        <v>0.9985220298669706</v>
       </c>
       <c r="L22">
-        <v>0.7735280707835313</v>
+        <v>0.9948981749691709</v>
       </c>
       <c r="M22">
-        <v>0.7823099167146708</v>
+        <v>0.996696432987856</v>
       </c>
       <c r="N22">
-        <v>0.7570259192435415</v>
+        <v>1.002773693802692</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7056495478883107</v>
+        <v>0.9688294000238558</v>
       </c>
       <c r="D23">
-        <v>0.7259168784763941</v>
+        <v>0.9848240076999722</v>
       </c>
       <c r="E23">
-        <v>0.7515893697603824</v>
+        <v>0.9809521637478955</v>
       </c>
       <c r="F23">
-        <v>0.7607427804165965</v>
+        <v>0.9832529206794813</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9983774911858614</v>
+        <v>1.035934877477738</v>
       </c>
       <c r="J23">
-        <v>0.7559523801547716</v>
+        <v>1.00030595104191</v>
       </c>
       <c r="K23">
-        <v>0.7489697526886498</v>
+        <v>1.000382280098035</v>
       </c>
       <c r="L23">
-        <v>0.7735280707835313</v>
+        <v>0.9965888364853573</v>
       </c>
       <c r="M23">
-        <v>0.7823099167146708</v>
+        <v>0.9988429077206942</v>
       </c>
       <c r="N23">
-        <v>0.7570259192435415</v>
+        <v>1.00337450710919</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.4916794566859393</v>
+        <v>0.9786040980180115</v>
       </c>
       <c r="D24">
-        <v>0.5335937607388089</v>
+        <v>0.9933420803577788</v>
       </c>
       <c r="E24">
-        <v>0.5828911640586797</v>
+        <v>0.9888205620319871</v>
       </c>
       <c r="F24">
-        <v>0.6032397863316026</v>
+        <v>0.9928937745243217</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9704448947683794</v>
+        <v>1.038118621695634</v>
       </c>
       <c r="J24">
-        <v>0.579060145771623</v>
+        <v>1.006951390990262</v>
       </c>
       <c r="K24">
-        <v>0.5678646252776413</v>
+        <v>1.007487134131001</v>
       </c>
       <c r="L24">
-        <v>0.6126656397235142</v>
+        <v>1.003046887265149</v>
       </c>
       <c r="M24">
-        <v>0.6314723581212351</v>
+        <v>1.007046843383238</v>
       </c>
       <c r="N24">
-        <v>0.5798824775977458</v>
+        <v>1.005666622435603</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.4008654848227193</v>
+        <v>0.9893768161469441</v>
       </c>
       <c r="D25">
-        <v>0.4610198884259828</v>
+        <v>1.002765194005413</v>
       </c>
       <c r="E25">
-        <v>0.5225966819505751</v>
+        <v>0.9975319528352928</v>
       </c>
       <c r="F25">
-        <v>0.5553157129846086</v>
+        <v>1.003561591170562</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9616073894085315</v>
+        <v>1.04047240974609</v>
       </c>
       <c r="J25">
-        <v>0.5121811387568366</v>
+        <v>1.01426705911866</v>
       </c>
       <c r="K25">
-        <v>0.4994576170806009</v>
+        <v>1.015320735025091</v>
       </c>
       <c r="L25">
-        <v>0.553867584515393</v>
+        <v>1.010168703259581</v>
       </c>
       <c r="M25">
-        <v>0.5837213350090528</v>
+        <v>1.016104868481901</v>
       </c>
       <c r="N25">
-        <v>0.5129084947218689</v>
+        <v>1.008188128835646</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_51/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9975636255780479</v>
+        <v>1.037825649916365</v>
       </c>
       <c r="D2">
-        <v>1.009951565980049</v>
+        <v>1.044782224089829</v>
       </c>
       <c r="E2">
-        <v>1.004180272716922</v>
+        <v>1.036548577346475</v>
       </c>
       <c r="F2">
-        <v>1.011700569562426</v>
+        <v>1.052173965504242</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042216449164942</v>
+        <v>1.033188014343969</v>
       </c>
       <c r="J2">
-        <v>1.01981745318571</v>
+        <v>1.04292641433427</v>
       </c>
       <c r="K2">
-        <v>1.021273979040136</v>
+        <v>1.047552306555255</v>
       </c>
       <c r="L2">
-        <v>1.01558167529905</v>
+        <v>1.039342003069077</v>
       </c>
       <c r="M2">
-        <v>1.022999268485484</v>
+        <v>1.054923429018759</v>
       </c>
       <c r="N2">
-        <v>1.010099363736855</v>
+        <v>1.018169716802007</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.003296433551134</v>
+        <v>1.039011970126322</v>
       </c>
       <c r="D3">
-        <v>1.014997077232424</v>
+        <v>1.04587962936566</v>
       </c>
       <c r="E3">
-        <v>1.008850382518432</v>
+        <v>1.037563782887696</v>
       </c>
       <c r="F3">
-        <v>1.017417400926734</v>
+        <v>1.053434890126086</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04341070123286</v>
+        <v>1.033356328596605</v>
       </c>
       <c r="J3">
-        <v>1.023697636076404</v>
+        <v>1.043756085295388</v>
       </c>
       <c r="K3">
-        <v>1.025441597417895</v>
+        <v>1.048460273666902</v>
       </c>
       <c r="L3">
-        <v>1.019371259770582</v>
+        <v>1.040166287665935</v>
       </c>
       <c r="M3">
-        <v>1.027832169639064</v>
+        <v>1.055995996225231</v>
       </c>
       <c r="N3">
-        <v>1.011434226112742</v>
+        <v>1.018450693363166</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.006915039856232</v>
+        <v>1.039779289200543</v>
       </c>
       <c r="D4">
-        <v>1.018187601368898</v>
+        <v>1.046589759672108</v>
       </c>
       <c r="E4">
-        <v>1.011804502834448</v>
+        <v>1.038220752955098</v>
       </c>
       <c r="F4">
-        <v>1.021033761053196</v>
+        <v>1.054251126428484</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044151664677883</v>
+        <v>1.033463563108984</v>
       </c>
       <c r="J4">
-        <v>1.026143497140638</v>
+        <v>1.044292116754568</v>
       </c>
       <c r="K4">
-        <v>1.028071363969261</v>
+        <v>1.049047235671842</v>
       </c>
       <c r="L4">
-        <v>1.021762515378362</v>
+        <v>1.040699114538661</v>
       </c>
       <c r="M4">
-        <v>1.030884785791496</v>
+        <v>1.056689795518457</v>
       </c>
       <c r="N4">
-        <v>1.012275014815891</v>
+        <v>1.018632078910901</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.008415499240476</v>
+        <v>1.040101797786183</v>
       </c>
       <c r="D5">
-        <v>1.019511881475726</v>
+        <v>1.046888308035674</v>
       </c>
       <c r="E5">
-        <v>1.013030879380669</v>
+        <v>1.038496959280671</v>
       </c>
       <c r="F5">
-        <v>1.022535134061084</v>
+        <v>1.054594353520268</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044455766635604</v>
+        <v>1.033508243297921</v>
       </c>
       <c r="J5">
-        <v>1.027156822460975</v>
+        <v>1.044517268656852</v>
       </c>
       <c r="K5">
-        <v>1.02916154025382</v>
+        <v>1.04929386294869</v>
       </c>
       <c r="L5">
-        <v>1.022753814887371</v>
+        <v>1.040922986324999</v>
       </c>
       <c r="M5">
-        <v>1.032151001733031</v>
+        <v>1.0569814164592</v>
       </c>
       <c r="N5">
-        <v>1.012623193569848</v>
+        <v>1.01870823182726</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.008666239857864</v>
+        <v>1.040155944204103</v>
       </c>
       <c r="D6">
-        <v>1.019733257351574</v>
+        <v>1.046938436211519</v>
       </c>
       <c r="E6">
-        <v>1.013235901498487</v>
+        <v>1.038543336504213</v>
       </c>
       <c r="F6">
-        <v>1.022786134841545</v>
+        <v>1.054651987671746</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044506398752598</v>
+        <v>1.033515721773185</v>
       </c>
       <c r="J6">
-        <v>1.027326106851998</v>
+        <v>1.044555061199525</v>
       </c>
       <c r="K6">
-        <v>1.029343702126285</v>
+        <v>1.049335265066869</v>
       </c>
       <c r="L6">
-        <v>1.022919454726716</v>
+        <v>1.040960567861395</v>
       </c>
       <c r="M6">
-        <v>1.03236262302637</v>
+        <v>1.057030377867418</v>
       </c>
       <c r="N6">
-        <v>1.012681349951869</v>
+        <v>1.018721012286682</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.00693516958365</v>
+        <v>1.039783598858197</v>
       </c>
       <c r="D7">
-        <v>1.018205362353773</v>
+        <v>1.046593748851016</v>
       </c>
       <c r="E7">
-        <v>1.011820949907388</v>
+        <v>1.038224443573325</v>
       </c>
       <c r="F7">
-        <v>1.021053895788257</v>
+        <v>1.054255712324226</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044155756903834</v>
+        <v>1.033464161704236</v>
       </c>
       <c r="J7">
-        <v>1.026157095059614</v>
+        <v>1.044295126013305</v>
       </c>
       <c r="K7">
-        <v>1.028085990547263</v>
+        <v>1.049050531633321</v>
       </c>
       <c r="L7">
-        <v>1.021775815371942</v>
+        <v>1.040702106428949</v>
       </c>
       <c r="M7">
-        <v>1.030901771274313</v>
+        <v>1.056693692375678</v>
       </c>
       <c r="N7">
-        <v>1.012279687714403</v>
+        <v>1.018633096868748</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9995204750382655</v>
+        <v>1.038226637493707</v>
       </c>
       <c r="D8">
-        <v>1.011672569909657</v>
+        <v>1.045153090569665</v>
       </c>
       <c r="E8">
-        <v>1.005773012867735</v>
+        <v>1.036891657966809</v>
       </c>
       <c r="F8">
-        <v>1.013650294423791</v>
+        <v>1.052600032649875</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042626769046659</v>
+        <v>1.033245244006553</v>
       </c>
       <c r="J8">
-        <v>1.021142596444849</v>
+        <v>1.043206976057993</v>
       </c>
       <c r="K8">
-        <v>1.022696716517692</v>
+        <v>1.047859273451469</v>
       </c>
       <c r="L8">
-        <v>1.016875348773376</v>
+        <v>1.039620686241992</v>
       </c>
       <c r="M8">
-        <v>1.024648484683574</v>
+        <v>1.055285955111277</v>
       </c>
       <c r="N8">
-        <v>1.010555368926491</v>
+        <v>1.018264762279821</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9857120386972941</v>
+        <v>1.035480625196141</v>
       </c>
       <c r="D9">
-        <v>0.9995553470518675</v>
+        <v>1.042614693307997</v>
       </c>
       <c r="E9">
-        <v>0.9945637401660224</v>
+        <v>1.034543577365336</v>
       </c>
       <c r="F9">
-        <v>0.9999273038326685</v>
+        <v>1.049685004413007</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039678609441457</v>
+        <v>1.032846643681279</v>
       </c>
       <c r="J9">
-        <v>1.011779630474905</v>
+        <v>1.041283189020881</v>
       </c>
       <c r="K9">
-        <v>1.012655642561659</v>
+        <v>1.045755843023374</v>
       </c>
       <c r="L9">
-        <v>1.007745636980244</v>
+        <v>1.037710913512063</v>
       </c>
       <c r="M9">
-        <v>1.013021560591409</v>
+        <v>1.052803576818345</v>
       </c>
       <c r="N9">
-        <v>1.007331045420753</v>
+        <v>1.017612445066407</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9759359289274988</v>
+        <v>1.033648193795389</v>
       </c>
       <c r="D10">
-        <v>0.9910139194327883</v>
+        <v>1.040922512613412</v>
       </c>
       <c r="E10">
-        <v>0.986669363912218</v>
+        <v>1.032978448120655</v>
       </c>
       <c r="F10">
-        <v>0.9902585892198157</v>
+        <v>1.047743232950656</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037526673175638</v>
+        <v>1.032572272491704</v>
       </c>
       <c r="J10">
-        <v>1.005137938682875</v>
+        <v>1.039996352997747</v>
       </c>
       <c r="K10">
-        <v>1.005547338186856</v>
+        <v>1.044350615334529</v>
       </c>
       <c r="L10">
-        <v>1.001283551955647</v>
+        <v>1.03643487719462</v>
       </c>
       <c r="M10">
-        <v>1.004805983895527</v>
+        <v>1.051147392428334</v>
       </c>
       <c r="N10">
-        <v>1.005041257377009</v>
+        <v>1.01717535830186</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9715496241803214</v>
+        <v>1.032854288646367</v>
       </c>
       <c r="D11">
-        <v>0.9871914811611548</v>
+        <v>1.040189783576391</v>
       </c>
       <c r="E11">
-        <v>0.9831384533014053</v>
+        <v>1.032300778999502</v>
       </c>
       <c r="F11">
-        <v>0.9859323317728442</v>
+        <v>1.04690277760435</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036546668998929</v>
+        <v>1.032451416412094</v>
       </c>
       <c r="J11">
-        <v>1.002155811235936</v>
+        <v>1.039438102759774</v>
       </c>
       <c r="K11">
-        <v>1.002359058434655</v>
+        <v>1.043741424085633</v>
       </c>
       <c r="L11">
-        <v>0.9983855165912785</v>
+        <v>1.035881650575288</v>
       </c>
       <c r="M11">
-        <v>1.001124511056722</v>
+        <v>1.05042992781926</v>
       </c>
       <c r="N11">
-        <v>1.004012667780365</v>
+        <v>1.016985567675315</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9698956485721961</v>
+        <v>1.032559326979584</v>
       </c>
       <c r="D12">
-        <v>0.9857517093396135</v>
+        <v>1.039917613353741</v>
       </c>
       <c r="E12">
-        <v>0.9818088106800437</v>
+        <v>1.032049067711786</v>
       </c>
       <c r="F12">
-        <v>0.9843028490778819</v>
+        <v>1.046590644847504</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036175034974997</v>
+        <v>1.032406216658153</v>
       </c>
       <c r="J12">
-        <v>1.001031077112218</v>
+        <v>1.03923058599604</v>
       </c>
       <c r="K12">
-        <v>1.001157071580033</v>
+        <v>1.043515034041115</v>
       </c>
       <c r="L12">
-        <v>0.9972930254741293</v>
+        <v>1.035676052131309</v>
       </c>
       <c r="M12">
-        <v>0.9997370899771427</v>
+        <v>1.050163378884506</v>
       </c>
       <c r="N12">
-        <v>1.003624668469276</v>
+        <v>1.016914991151489</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9702515789723886</v>
+        <v>1.032622600460565</v>
       </c>
       <c r="D13">
-        <v>0.9860614706610495</v>
+        <v>1.039975994906394</v>
       </c>
       <c r="E13">
-        <v>0.9820948631596974</v>
+        <v>1.032103060420629</v>
       </c>
       <c r="F13">
-        <v>0.9846534239569809</v>
+        <v>1.046657596162598</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036255102827076</v>
+        <v>1.032415926118978</v>
       </c>
       <c r="J13">
-        <v>1.00127312591815</v>
+        <v>1.039275106205954</v>
       </c>
       <c r="K13">
-        <v>1.0014157231195</v>
+        <v>1.043563600441703</v>
       </c>
       <c r="L13">
-        <v>0.9975281114619683</v>
+        <v>1.035720158484938</v>
       </c>
       <c r="M13">
-        <v>1.000035622189401</v>
+        <v>1.050220556854165</v>
       </c>
       <c r="N13">
-        <v>1.003708170416266</v>
+        <v>1.016930133673482</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9714134204229398</v>
+        <v>1.032829908463172</v>
       </c>
       <c r="D14">
-        <v>0.9870728842269009</v>
+        <v>1.040167285950998</v>
       </c>
       <c r="E14">
-        <v>0.983028921242639</v>
+        <v>1.032279972366528</v>
       </c>
       <c r="F14">
-        <v>0.9857981070058776</v>
+        <v>1.046876975609269</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036516107291356</v>
+        <v>1.032447686479293</v>
       </c>
       <c r="J14">
-        <v>1.002063194562969</v>
+        <v>1.039420952585094</v>
       </c>
       <c r="K14">
-        <v>1.002260070246743</v>
+        <v>1.043722712851315</v>
       </c>
       <c r="L14">
-        <v>0.9982955442278035</v>
+        <v>1.035864657901253</v>
       </c>
       <c r="M14">
-        <v>1.001010241601705</v>
+        <v>1.050407895843818</v>
       </c>
       <c r="N14">
-        <v>1.003980718931066</v>
+        <v>1.016979735428375</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9721259419910665</v>
+        <v>1.032957628428225</v>
       </c>
       <c r="D15">
-        <v>0.9876933643783486</v>
+        <v>1.04028514636289</v>
       </c>
       <c r="E15">
-        <v>0.9836019886739488</v>
+        <v>1.032388974309726</v>
       </c>
       <c r="F15">
-        <v>0.9865003516406646</v>
+        <v>1.047012149063842</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036675899628334</v>
+        <v>1.032467214210091</v>
       </c>
       <c r="J15">
-        <v>1.002547690049305</v>
+        <v>1.039510792409122</v>
       </c>
       <c r="K15">
-        <v>1.002777916636702</v>
+        <v>1.043820732735397</v>
       </c>
       <c r="L15">
-        <v>0.9987662283309529</v>
+        <v>1.03595367475497</v>
       </c>
       <c r="M15">
-        <v>1.001608050609252</v>
+        <v>1.050523314818477</v>
       </c>
       <c r="N15">
-        <v>1.004147847165228</v>
+        <v>1.017010286117769</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9762236653278071</v>
+        <v>1.033700872982883</v>
       </c>
       <c r="D16">
-        <v>0.9912648802720779</v>
+        <v>1.040971141223062</v>
       </c>
       <c r="E16">
-        <v>0.9869012275918841</v>
+        <v>1.033023423579829</v>
       </c>
       <c r="F16">
-        <v>0.9905426385691242</v>
+        <v>1.047799018293702</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037590666054459</v>
+        <v>1.032580250070684</v>
       </c>
       <c r="J16">
-        <v>1.005333524678559</v>
+        <v>1.040033380171775</v>
       </c>
       <c r="K16">
-        <v>1.005756514183287</v>
+        <v>1.044391030099782</v>
       </c>
       <c r="L16">
-        <v>1.001473695013517</v>
+        <v>1.036471578297108</v>
       </c>
       <c r="M16">
-        <v>1.005047587383637</v>
+        <v>1.051195001183192</v>
       </c>
       <c r="N16">
-        <v>1.005108709772396</v>
+        <v>1.017187942903301</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9787519024360961</v>
+        <v>1.034166968486347</v>
       </c>
       <c r="D17">
-        <v>0.9934711161408751</v>
+        <v>1.041401445654125</v>
       </c>
       <c r="E17">
-        <v>0.98893980299718</v>
+        <v>1.033421407332932</v>
       </c>
       <c r="F17">
-        <v>0.9930398312250555</v>
+        <v>1.048292691412365</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03815131600388</v>
+        <v>1.032650605079952</v>
       </c>
       <c r="J17">
-        <v>1.007051833544431</v>
+        <v>1.04036090587608</v>
       </c>
       <c r="K17">
-        <v>1.00759459700932</v>
+        <v>1.044748569277395</v>
       </c>
       <c r="L17">
-        <v>1.003144577047681</v>
+        <v>1.036796258794864</v>
       </c>
       <c r="M17">
-        <v>1.0071710080018</v>
+        <v>1.051616243872769</v>
       </c>
       <c r="N17">
-        <v>1.005701256675603</v>
+        <v>1.017299240402533</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9802119229008266</v>
+        <v>1.034438790821059</v>
       </c>
       <c r="D18">
-        <v>0.9947461133956123</v>
+        <v>1.041652434700495</v>
       </c>
       <c r="E18">
-        <v>0.9901180918711666</v>
+        <v>1.033653548670026</v>
       </c>
       <c r="F18">
-        <v>0.9944830395424751</v>
+        <v>1.048580675965756</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038473710023134</v>
+        <v>1.032691444036654</v>
       </c>
       <c r="J18">
-        <v>1.008043922366283</v>
+        <v>1.040551845650865</v>
       </c>
       <c r="K18">
-        <v>1.008656156241803</v>
+        <v>1.044957046610052</v>
       </c>
       <c r="L18">
-        <v>1.004109608294746</v>
+        <v>1.036985572505644</v>
       </c>
       <c r="M18">
-        <v>1.008397687313644</v>
+        <v>1.051861916282988</v>
       </c>
       <c r="N18">
-        <v>1.006043326200693</v>
+        <v>1.017364107316294</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9807073147574811</v>
+        <v>1.03453146793947</v>
       </c>
       <c r="D19">
-        <v>0.9951788806644193</v>
+        <v>1.041738015481522</v>
       </c>
       <c r="E19">
-        <v>0.9905180641798498</v>
+        <v>1.033732703604221</v>
       </c>
       <c r="F19">
-        <v>0.994972914255716</v>
+        <v>1.048678876976599</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038582864629414</v>
+        <v>1.032705335499113</v>
       </c>
       <c r="J19">
-        <v>1.008380504857842</v>
+        <v>1.040616934183108</v>
       </c>
       <c r="K19">
-        <v>1.009016361690323</v>
+        <v>1.045028120292598</v>
       </c>
       <c r="L19">
-        <v>1.00443706593003</v>
+        <v>1.037050112269196</v>
       </c>
       <c r="M19">
-        <v>1.008813976888405</v>
+        <v>1.051945678963343</v>
       </c>
       <c r="N19">
-        <v>1.006159370854212</v>
+        <v>1.017386216611091</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9784821743232924</v>
+        <v>1.034116965345062</v>
       </c>
       <c r="D20">
-        <v>0.9932356441301027</v>
+        <v>1.041355278098465</v>
       </c>
       <c r="E20">
-        <v>0.9887222061764041</v>
+        <v>1.033378707022878</v>
       </c>
       <c r="F20">
-        <v>0.9927732988280769</v>
+        <v>1.048239721522081</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038091644410594</v>
+        <v>1.032643077127878</v>
       </c>
       <c r="J20">
-        <v>1.006868534843475</v>
+        <v>1.040325775865292</v>
       </c>
       <c r="K20">
-        <v>1.00739848864087</v>
+        <v>1.044710215877902</v>
       </c>
       <c r="L20">
-        <v>1.00296630374861</v>
+        <v>1.036761430581951</v>
       </c>
       <c r="M20">
-        <v>1.00694442258214</v>
+        <v>1.051571051771921</v>
       </c>
       <c r="N20">
-        <v>1.005638052018258</v>
+        <v>1.01728730451561</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9710719835216595</v>
+        <v>1.032768863372763</v>
       </c>
       <c r="D21">
-        <v>0.9867756100930374</v>
+        <v>1.040110955574286</v>
       </c>
       <c r="E21">
-        <v>0.9827543743240049</v>
+        <v>1.032227876073586</v>
       </c>
       <c r="F21">
-        <v>0.9854616610829438</v>
+        <v>1.046812372471862</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036439461435655</v>
+        <v>1.032438342360469</v>
       </c>
       <c r="J21">
-        <v>1.001831018588841</v>
+        <v>1.0393780088269</v>
       </c>
       <c r="K21">
-        <v>1.002011929868751</v>
+        <v>1.043675861240366</v>
       </c>
       <c r="L21">
-        <v>0.9980700056506129</v>
+        <v>1.035822109344433</v>
       </c>
       <c r="M21">
-        <v>1.000723802630695</v>
+        <v>1.050352730591931</v>
       </c>
       <c r="N21">
-        <v>1.003900627111465</v>
+        <v>1.016965131154362</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9662689940949948</v>
+        <v>1.031920852329009</v>
       </c>
       <c r="D22">
-        <v>0.9825977649021043</v>
+        <v>1.03932858810936</v>
       </c>
       <c r="E22">
-        <v>0.9788967369689714</v>
+        <v>1.031504332479761</v>
       </c>
       <c r="F22">
-        <v>0.9807333886719449</v>
+        <v>1.045915228500459</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03535638708204</v>
+        <v>1.032307832932651</v>
       </c>
       <c r="J22">
-        <v>0.9985645363976436</v>
+        <v>1.038781196641598</v>
       </c>
       <c r="K22">
-        <v>0.9985220298669706</v>
+        <v>1.043024888427553</v>
       </c>
       <c r="L22">
-        <v>0.9948981749691709</v>
+        <v>1.035230910174847</v>
       </c>
       <c r="M22">
-        <v>0.996696432987856</v>
+        <v>1.049586429923147</v>
       </c>
       <c r="N22">
-        <v>1.002773693802692</v>
+        <v>1.016762105909664</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9688294000238558</v>
+        <v>1.032370438265658</v>
       </c>
       <c r="D23">
-        <v>0.9848240076999722</v>
+        <v>1.039743337589767</v>
       </c>
       <c r="E23">
-        <v>0.9809521637478955</v>
+        <v>1.031887894214524</v>
       </c>
       <c r="F23">
-        <v>0.9832529206794813</v>
+        <v>1.046390794949938</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035934877477738</v>
+        <v>1.032377187673392</v>
       </c>
       <c r="J23">
-        <v>1.00030595104191</v>
+        <v>1.03909766507774</v>
       </c>
       <c r="K23">
-        <v>1.000382280098035</v>
+        <v>1.043370041889576</v>
       </c>
       <c r="L23">
-        <v>0.9965888364853573</v>
+        <v>1.035544374292578</v>
       </c>
       <c r="M23">
-        <v>0.9988429077206942</v>
+        <v>1.049992688817081</v>
       </c>
       <c r="N23">
-        <v>1.00337450710919</v>
+        <v>1.016869777343463</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9786040980180115</v>
+        <v>1.034139559746031</v>
       </c>
       <c r="D24">
-        <v>0.9933420803577788</v>
+        <v>1.041376139230476</v>
       </c>
       <c r="E24">
-        <v>0.9888205620319871</v>
+        <v>1.033398001442285</v>
       </c>
       <c r="F24">
-        <v>0.9928937745243217</v>
+        <v>1.048263656232391</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038118621695634</v>
+        <v>1.032646479297007</v>
       </c>
       <c r="J24">
-        <v>1.006951390990262</v>
+        <v>1.040341649915391</v>
       </c>
       <c r="K24">
-        <v>1.007487134131001</v>
+        <v>1.044727546342188</v>
       </c>
       <c r="L24">
-        <v>1.003046887265149</v>
+        <v>1.036777168159093</v>
       </c>
       <c r="M24">
-        <v>1.007046843383238</v>
+        <v>1.051591472233883</v>
       </c>
       <c r="N24">
-        <v>1.005666622435603</v>
+        <v>1.017292697986865</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9893768161469441</v>
+        <v>1.03619083664287</v>
       </c>
       <c r="D25">
-        <v>1.002765194005413</v>
+        <v>1.043270909988038</v>
       </c>
       <c r="E25">
-        <v>0.9975319528352928</v>
+        <v>1.035150563348635</v>
       </c>
       <c r="F25">
-        <v>1.003561591170562</v>
+        <v>1.050438323565232</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04047240974609</v>
+        <v>1.032951213473557</v>
       </c>
       <c r="J25">
-        <v>1.01426705911866</v>
+        <v>1.041781289794736</v>
       </c>
       <c r="K25">
-        <v>1.015320735025091</v>
+        <v>1.046300143952108</v>
       </c>
       <c r="L25">
-        <v>1.010168703259581</v>
+        <v>1.03820513502674</v>
       </c>
       <c r="M25">
-        <v>1.016104868481901</v>
+        <v>1.053445548387657</v>
       </c>
       <c r="N25">
-        <v>1.008188128835646</v>
+        <v>1.017781472973839</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_51/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037825649916365</v>
+        <v>0.9975636255780491</v>
       </c>
       <c r="D2">
-        <v>1.044782224089829</v>
+        <v>1.00995156598005</v>
       </c>
       <c r="E2">
-        <v>1.036548577346475</v>
+        <v>1.004180272716923</v>
       </c>
       <c r="F2">
-        <v>1.052173965504242</v>
+        <v>1.011700569562427</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033188014343969</v>
+        <v>1.042216449164942</v>
       </c>
       <c r="J2">
-        <v>1.04292641433427</v>
+        <v>1.01981745318571</v>
       </c>
       <c r="K2">
-        <v>1.047552306555255</v>
+        <v>1.021273979040137</v>
       </c>
       <c r="L2">
-        <v>1.039342003069077</v>
+        <v>1.015581675299051</v>
       </c>
       <c r="M2">
-        <v>1.054923429018759</v>
+        <v>1.022999268485485</v>
       </c>
       <c r="N2">
-        <v>1.018169716802007</v>
+        <v>1.010099363736855</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039011970126322</v>
+        <v>1.003296433551135</v>
       </c>
       <c r="D3">
-        <v>1.04587962936566</v>
+        <v>1.014997077232425</v>
       </c>
       <c r="E3">
-        <v>1.037563782887696</v>
+        <v>1.008850382518433</v>
       </c>
       <c r="F3">
-        <v>1.053434890126086</v>
+        <v>1.017417400926736</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033356328596605</v>
+        <v>1.04341070123286</v>
       </c>
       <c r="J3">
-        <v>1.043756085295388</v>
+        <v>1.023697636076405</v>
       </c>
       <c r="K3">
-        <v>1.048460273666902</v>
+        <v>1.025441597417897</v>
       </c>
       <c r="L3">
-        <v>1.040166287665935</v>
+        <v>1.019371259770583</v>
       </c>
       <c r="M3">
-        <v>1.055995996225231</v>
+        <v>1.027832169639065</v>
       </c>
       <c r="N3">
-        <v>1.018450693363166</v>
+        <v>1.011434226112742</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039779289200543</v>
+        <v>1.006915039856231</v>
       </c>
       <c r="D4">
-        <v>1.046589759672108</v>
+        <v>1.018187601368898</v>
       </c>
       <c r="E4">
-        <v>1.038220752955098</v>
+        <v>1.011804502834448</v>
       </c>
       <c r="F4">
-        <v>1.054251126428484</v>
+        <v>1.021033761053195</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033463563108984</v>
+        <v>1.044151664677883</v>
       </c>
       <c r="J4">
-        <v>1.044292116754568</v>
+        <v>1.026143497140637</v>
       </c>
       <c r="K4">
-        <v>1.049047235671842</v>
+        <v>1.02807136396926</v>
       </c>
       <c r="L4">
-        <v>1.040699114538661</v>
+        <v>1.021762515378362</v>
       </c>
       <c r="M4">
-        <v>1.056689795518457</v>
+        <v>1.030884785791496</v>
       </c>
       <c r="N4">
-        <v>1.018632078910901</v>
+        <v>1.012275014815891</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040101797786183</v>
+        <v>1.008415499240477</v>
       </c>
       <c r="D5">
-        <v>1.046888308035674</v>
+        <v>1.019511881475726</v>
       </c>
       <c r="E5">
-        <v>1.038496959280671</v>
+        <v>1.013030879380669</v>
       </c>
       <c r="F5">
-        <v>1.054594353520268</v>
+        <v>1.022535134061084</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033508243297921</v>
+        <v>1.044455766635605</v>
       </c>
       <c r="J5">
-        <v>1.044517268656852</v>
+        <v>1.027156822460975</v>
       </c>
       <c r="K5">
-        <v>1.04929386294869</v>
+        <v>1.02916154025382</v>
       </c>
       <c r="L5">
-        <v>1.040922986324999</v>
+        <v>1.022753814887371</v>
       </c>
       <c r="M5">
-        <v>1.0569814164592</v>
+        <v>1.032151001733031</v>
       </c>
       <c r="N5">
-        <v>1.01870823182726</v>
+        <v>1.012623193569848</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040155944204103</v>
+        <v>1.008666239857863</v>
       </c>
       <c r="D6">
-        <v>1.046938436211519</v>
+        <v>1.019733257351574</v>
       </c>
       <c r="E6">
-        <v>1.038543336504213</v>
+        <v>1.013235901498487</v>
       </c>
       <c r="F6">
-        <v>1.054651987671746</v>
+        <v>1.022786134841545</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033515721773185</v>
+        <v>1.044506398752598</v>
       </c>
       <c r="J6">
-        <v>1.044555061199525</v>
+        <v>1.027326106851998</v>
       </c>
       <c r="K6">
-        <v>1.049335265066869</v>
+        <v>1.029343702126284</v>
       </c>
       <c r="L6">
-        <v>1.040960567861395</v>
+        <v>1.022919454726716</v>
       </c>
       <c r="M6">
-        <v>1.057030377867418</v>
+        <v>1.03236262302637</v>
       </c>
       <c r="N6">
-        <v>1.018721012286682</v>
+        <v>1.012681349951868</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039783598858197</v>
+        <v>1.00693516958365</v>
       </c>
       <c r="D7">
-        <v>1.046593748851016</v>
+        <v>1.018205362353773</v>
       </c>
       <c r="E7">
-        <v>1.038224443573325</v>
+        <v>1.011820949907387</v>
       </c>
       <c r="F7">
-        <v>1.054255712324226</v>
+        <v>1.021053895788256</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033464161704236</v>
+        <v>1.044155756903834</v>
       </c>
       <c r="J7">
-        <v>1.044295126013305</v>
+        <v>1.026157095059613</v>
       </c>
       <c r="K7">
-        <v>1.049050531633321</v>
+        <v>1.028085990547263</v>
       </c>
       <c r="L7">
-        <v>1.040702106428949</v>
+        <v>1.021775815371941</v>
       </c>
       <c r="M7">
-        <v>1.056693692375678</v>
+        <v>1.030901771274312</v>
       </c>
       <c r="N7">
-        <v>1.018633096868748</v>
+        <v>1.012279687714403</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038226637493707</v>
+        <v>0.9995204750382642</v>
       </c>
       <c r="D8">
-        <v>1.045153090569665</v>
+        <v>1.011672569909655</v>
       </c>
       <c r="E8">
-        <v>1.036891657966809</v>
+        <v>1.005773012867734</v>
       </c>
       <c r="F8">
-        <v>1.052600032649875</v>
+        <v>1.01365029442379</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033245244006553</v>
+        <v>1.042626769046658</v>
       </c>
       <c r="J8">
-        <v>1.043206976057993</v>
+        <v>1.021142596444848</v>
       </c>
       <c r="K8">
-        <v>1.047859273451469</v>
+        <v>1.02269671651769</v>
       </c>
       <c r="L8">
-        <v>1.039620686241992</v>
+        <v>1.016875348773374</v>
       </c>
       <c r="M8">
-        <v>1.055285955111277</v>
+        <v>1.024648484683573</v>
       </c>
       <c r="N8">
-        <v>1.018264762279821</v>
+        <v>1.010555368926491</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035480625196141</v>
+        <v>0.9857120386972936</v>
       </c>
       <c r="D9">
-        <v>1.042614693307997</v>
+        <v>0.999555347051867</v>
       </c>
       <c r="E9">
-        <v>1.034543577365336</v>
+        <v>0.9945637401660222</v>
       </c>
       <c r="F9">
-        <v>1.049685004413007</v>
+        <v>0.9999273038326676</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032846643681279</v>
+        <v>1.039678609441456</v>
       </c>
       <c r="J9">
-        <v>1.041283189020881</v>
+        <v>1.011779630474904</v>
       </c>
       <c r="K9">
-        <v>1.045755843023374</v>
+        <v>1.012655642561658</v>
       </c>
       <c r="L9">
-        <v>1.037710913512063</v>
+        <v>1.007745636980244</v>
       </c>
       <c r="M9">
-        <v>1.052803576818345</v>
+        <v>1.013021560591409</v>
       </c>
       <c r="N9">
-        <v>1.017612445066407</v>
+        <v>1.007331045420753</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.033648193795389</v>
+        <v>0.9759359289274989</v>
       </c>
       <c r="D10">
-        <v>1.040922512613412</v>
+        <v>0.9910139194327884</v>
       </c>
       <c r="E10">
-        <v>1.032978448120655</v>
+        <v>0.9866693639122182</v>
       </c>
       <c r="F10">
-        <v>1.047743232950656</v>
+        <v>0.9902585892198158</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032572272491704</v>
+        <v>1.037526673175638</v>
       </c>
       <c r="J10">
-        <v>1.039996352997747</v>
+        <v>1.005137938682875</v>
       </c>
       <c r="K10">
-        <v>1.044350615334529</v>
+        <v>1.005547338186856</v>
       </c>
       <c r="L10">
-        <v>1.03643487719462</v>
+        <v>1.001283551955647</v>
       </c>
       <c r="M10">
-        <v>1.051147392428334</v>
+        <v>1.004805983895527</v>
       </c>
       <c r="N10">
-        <v>1.01717535830186</v>
+        <v>1.00504125737701</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032854288646367</v>
+        <v>0.9715496241803216</v>
       </c>
       <c r="D11">
-        <v>1.040189783576391</v>
+        <v>0.9871914811611552</v>
       </c>
       <c r="E11">
-        <v>1.032300778999502</v>
+        <v>0.9831384533014056</v>
       </c>
       <c r="F11">
-        <v>1.04690277760435</v>
+        <v>0.9859323317728449</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032451416412094</v>
+        <v>1.036546668998929</v>
       </c>
       <c r="J11">
-        <v>1.039438102759774</v>
+        <v>1.002155811235936</v>
       </c>
       <c r="K11">
-        <v>1.043741424085633</v>
+        <v>1.002359058434655</v>
       </c>
       <c r="L11">
-        <v>1.035881650575288</v>
+        <v>0.9983855165912785</v>
       </c>
       <c r="M11">
-        <v>1.05042992781926</v>
+        <v>1.001124511056722</v>
       </c>
       <c r="N11">
-        <v>1.016985567675315</v>
+        <v>1.004012667780365</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032559326979584</v>
+        <v>0.9698956485721966</v>
       </c>
       <c r="D12">
-        <v>1.039917613353741</v>
+        <v>0.9857517093396136</v>
       </c>
       <c r="E12">
-        <v>1.032049067711786</v>
+        <v>0.9818088106800434</v>
       </c>
       <c r="F12">
-        <v>1.046590644847504</v>
+        <v>0.9843028490778817</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032406216658153</v>
+        <v>1.036175034974997</v>
       </c>
       <c r="J12">
-        <v>1.03923058599604</v>
+        <v>1.001031077112218</v>
       </c>
       <c r="K12">
-        <v>1.043515034041115</v>
+        <v>1.001157071580033</v>
       </c>
       <c r="L12">
-        <v>1.035676052131309</v>
+        <v>0.9972930254741291</v>
       </c>
       <c r="M12">
-        <v>1.050163378884506</v>
+        <v>0.9997370899771428</v>
       </c>
       <c r="N12">
-        <v>1.016914991151489</v>
+        <v>1.003624668469276</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032622600460565</v>
+        <v>0.9702515789723895</v>
       </c>
       <c r="D13">
-        <v>1.039975994906394</v>
+        <v>0.9860614706610507</v>
       </c>
       <c r="E13">
-        <v>1.032103060420629</v>
+        <v>0.982094863159698</v>
       </c>
       <c r="F13">
-        <v>1.046657596162598</v>
+        <v>0.9846534239569819</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032415926118978</v>
+        <v>1.036255102827076</v>
       </c>
       <c r="J13">
-        <v>1.039275106205954</v>
+        <v>1.001273125918151</v>
       </c>
       <c r="K13">
-        <v>1.043563600441703</v>
+        <v>1.001415723119501</v>
       </c>
       <c r="L13">
-        <v>1.035720158484938</v>
+        <v>0.9975281114619688</v>
       </c>
       <c r="M13">
-        <v>1.050220556854165</v>
+        <v>1.000035622189402</v>
       </c>
       <c r="N13">
-        <v>1.016930133673482</v>
+        <v>1.003708170416266</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032829908463172</v>
+        <v>0.9714134204229397</v>
       </c>
       <c r="D14">
-        <v>1.040167285950998</v>
+        <v>0.9870728842269012</v>
       </c>
       <c r="E14">
-        <v>1.032279972366528</v>
+        <v>0.9830289212426393</v>
       </c>
       <c r="F14">
-        <v>1.046876975609269</v>
+        <v>0.985798107005878</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032447686479293</v>
+        <v>1.036516107291356</v>
       </c>
       <c r="J14">
-        <v>1.039420952585094</v>
+        <v>1.002063194562969</v>
       </c>
       <c r="K14">
-        <v>1.043722712851315</v>
+        <v>1.002260070246743</v>
       </c>
       <c r="L14">
-        <v>1.035864657901253</v>
+        <v>0.9982955442278039</v>
       </c>
       <c r="M14">
-        <v>1.050407895843818</v>
+        <v>1.001010241601705</v>
       </c>
       <c r="N14">
-        <v>1.016979735428375</v>
+        <v>1.003980718931066</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032957628428225</v>
+        <v>0.9721259419910666</v>
       </c>
       <c r="D15">
-        <v>1.04028514636289</v>
+        <v>0.9876933643783489</v>
       </c>
       <c r="E15">
-        <v>1.032388974309726</v>
+        <v>0.9836019886739485</v>
       </c>
       <c r="F15">
-        <v>1.047012149063842</v>
+        <v>0.9865003516406649</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032467214210091</v>
+        <v>1.036675899628334</v>
       </c>
       <c r="J15">
-        <v>1.039510792409122</v>
+        <v>1.002547690049305</v>
       </c>
       <c r="K15">
-        <v>1.043820732735397</v>
+        <v>1.002777916636703</v>
       </c>
       <c r="L15">
-        <v>1.03595367475497</v>
+        <v>0.9987662283309527</v>
       </c>
       <c r="M15">
-        <v>1.050523314818477</v>
+        <v>1.001608050609252</v>
       </c>
       <c r="N15">
-        <v>1.017010286117769</v>
+        <v>1.004147847165229</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.033700872982883</v>
+        <v>0.9762236653278055</v>
       </c>
       <c r="D16">
-        <v>1.040971141223062</v>
+        <v>0.9912648802720764</v>
       </c>
       <c r="E16">
-        <v>1.033023423579829</v>
+        <v>0.9869012275918828</v>
       </c>
       <c r="F16">
-        <v>1.047799018293702</v>
+        <v>0.9905426385691224</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032580250070684</v>
+        <v>1.037590666054459</v>
       </c>
       <c r="J16">
-        <v>1.040033380171775</v>
+        <v>1.005333524678558</v>
       </c>
       <c r="K16">
-        <v>1.044391030099782</v>
+        <v>1.005756514183285</v>
       </c>
       <c r="L16">
-        <v>1.036471578297108</v>
+        <v>1.001473695013516</v>
       </c>
       <c r="M16">
-        <v>1.051195001183192</v>
+        <v>1.005047587383636</v>
       </c>
       <c r="N16">
-        <v>1.017187942903301</v>
+        <v>1.005108709772395</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034166968486347</v>
+        <v>0.9787519024360958</v>
       </c>
       <c r="D17">
-        <v>1.041401445654125</v>
+        <v>0.9934711161408748</v>
       </c>
       <c r="E17">
-        <v>1.033421407332932</v>
+        <v>0.9889398029971794</v>
       </c>
       <c r="F17">
-        <v>1.048292691412365</v>
+        <v>0.993039831225055</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032650605079952</v>
+        <v>1.038151316003879</v>
       </c>
       <c r="J17">
-        <v>1.04036090587608</v>
+        <v>1.007051833544431</v>
       </c>
       <c r="K17">
-        <v>1.044748569277395</v>
+        <v>1.00759459700932</v>
       </c>
       <c r="L17">
-        <v>1.036796258794864</v>
+        <v>1.003144577047681</v>
       </c>
       <c r="M17">
-        <v>1.051616243872769</v>
+        <v>1.007171008001799</v>
       </c>
       <c r="N17">
-        <v>1.017299240402533</v>
+        <v>1.005701256675603</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034438790821059</v>
+        <v>0.9802119229008255</v>
       </c>
       <c r="D18">
-        <v>1.041652434700495</v>
+        <v>0.9947461133956109</v>
       </c>
       <c r="E18">
-        <v>1.033653548670026</v>
+        <v>0.9901180918711656</v>
       </c>
       <c r="F18">
-        <v>1.048580675965756</v>
+        <v>0.9944830395424742</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032691444036654</v>
+        <v>1.038473710023134</v>
       </c>
       <c r="J18">
-        <v>1.040551845650865</v>
+        <v>1.008043922366282</v>
       </c>
       <c r="K18">
-        <v>1.044957046610052</v>
+        <v>1.008656156241802</v>
       </c>
       <c r="L18">
-        <v>1.036985572505644</v>
+        <v>1.004109608294745</v>
       </c>
       <c r="M18">
-        <v>1.051861916282988</v>
+        <v>1.008397687313643</v>
       </c>
       <c r="N18">
-        <v>1.017364107316294</v>
+        <v>1.006043326200692</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03453146793947</v>
+        <v>0.9807073147574806</v>
       </c>
       <c r="D19">
-        <v>1.041738015481522</v>
+        <v>0.9951788806644192</v>
       </c>
       <c r="E19">
-        <v>1.033732703604221</v>
+        <v>0.9905180641798496</v>
       </c>
       <c r="F19">
-        <v>1.048678876976599</v>
+        <v>0.9949729142557159</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032705335499113</v>
+        <v>1.038582864629414</v>
       </c>
       <c r="J19">
-        <v>1.040616934183108</v>
+        <v>1.008380504857842</v>
       </c>
       <c r="K19">
-        <v>1.045028120292598</v>
+        <v>1.009016361690323</v>
       </c>
       <c r="L19">
-        <v>1.037050112269196</v>
+        <v>1.00443706593003</v>
       </c>
       <c r="M19">
-        <v>1.051945678963343</v>
+        <v>1.008813976888405</v>
       </c>
       <c r="N19">
-        <v>1.017386216611091</v>
+        <v>1.006159370854212</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034116965345062</v>
+        <v>0.978482174323293</v>
       </c>
       <c r="D20">
-        <v>1.041355278098465</v>
+        <v>0.9932356441301036</v>
       </c>
       <c r="E20">
-        <v>1.033378707022878</v>
+        <v>0.9887222061764048</v>
       </c>
       <c r="F20">
-        <v>1.048239721522081</v>
+        <v>0.9927732988280776</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032643077127878</v>
+        <v>1.038091644410594</v>
       </c>
       <c r="J20">
-        <v>1.040325775865292</v>
+        <v>1.006868534843476</v>
       </c>
       <c r="K20">
-        <v>1.044710215877902</v>
+        <v>1.00739848864087</v>
       </c>
       <c r="L20">
-        <v>1.036761430581951</v>
+        <v>1.002966303748611</v>
       </c>
       <c r="M20">
-        <v>1.051571051771921</v>
+        <v>1.00694442258214</v>
       </c>
       <c r="N20">
-        <v>1.01728730451561</v>
+        <v>1.005638052018258</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032768863372763</v>
+        <v>0.9710719835216597</v>
       </c>
       <c r="D21">
-        <v>1.040110955574286</v>
+        <v>0.9867756100930375</v>
       </c>
       <c r="E21">
-        <v>1.032227876073586</v>
+        <v>0.9827543743240051</v>
       </c>
       <c r="F21">
-        <v>1.046812372471862</v>
+        <v>0.9854616610829441</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032438342360469</v>
+        <v>1.036439461435655</v>
       </c>
       <c r="J21">
-        <v>1.0393780088269</v>
+        <v>1.001831018588841</v>
       </c>
       <c r="K21">
-        <v>1.043675861240366</v>
+        <v>1.002011929868751</v>
       </c>
       <c r="L21">
-        <v>1.035822109344433</v>
+        <v>0.998070005650613</v>
       </c>
       <c r="M21">
-        <v>1.050352730591931</v>
+        <v>1.000723802630696</v>
       </c>
       <c r="N21">
-        <v>1.016965131154362</v>
+        <v>1.003900627111465</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031920852329009</v>
+        <v>0.9662689940949958</v>
       </c>
       <c r="D22">
-        <v>1.03932858810936</v>
+        <v>0.9825977649021055</v>
       </c>
       <c r="E22">
-        <v>1.031504332479761</v>
+        <v>0.9788967369689726</v>
       </c>
       <c r="F22">
-        <v>1.045915228500459</v>
+        <v>0.9807333886719463</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032307832932651</v>
+        <v>1.035356387082041</v>
       </c>
       <c r="J22">
-        <v>1.038781196641598</v>
+        <v>0.9985645363976449</v>
       </c>
       <c r="K22">
-        <v>1.043024888427553</v>
+        <v>0.9985220298669717</v>
       </c>
       <c r="L22">
-        <v>1.035230910174847</v>
+        <v>0.9948981749691719</v>
       </c>
       <c r="M22">
-        <v>1.049586429923147</v>
+        <v>0.9966964329878573</v>
       </c>
       <c r="N22">
-        <v>1.016762105909664</v>
+        <v>1.002773693802693</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.032370438265658</v>
+        <v>0.9688294000238565</v>
       </c>
       <c r="D23">
-        <v>1.039743337589767</v>
+        <v>0.9848240076999728</v>
       </c>
       <c r="E23">
-        <v>1.031887894214524</v>
+        <v>0.9809521637478966</v>
       </c>
       <c r="F23">
-        <v>1.046390794949938</v>
+        <v>0.9832529206794823</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032377187673392</v>
+        <v>1.035934877477738</v>
       </c>
       <c r="J23">
-        <v>1.03909766507774</v>
+        <v>1.000305951041911</v>
       </c>
       <c r="K23">
-        <v>1.043370041889576</v>
+        <v>1.000382280098035</v>
       </c>
       <c r="L23">
-        <v>1.035544374292578</v>
+        <v>0.9965888364853583</v>
       </c>
       <c r="M23">
-        <v>1.049992688817081</v>
+        <v>0.9988429077206951</v>
       </c>
       <c r="N23">
-        <v>1.016869777343463</v>
+        <v>1.00337450710919</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034139559746031</v>
+        <v>0.9786040980180108</v>
       </c>
       <c r="D24">
-        <v>1.041376139230476</v>
+        <v>0.9933420803577786</v>
       </c>
       <c r="E24">
-        <v>1.033398001442285</v>
+        <v>0.9888205620319865</v>
       </c>
       <c r="F24">
-        <v>1.048263656232391</v>
+        <v>0.9928937745243215</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032646479297007</v>
+        <v>1.038118621695634</v>
       </c>
       <c r="J24">
-        <v>1.040341649915391</v>
+        <v>1.006951390990262</v>
       </c>
       <c r="K24">
-        <v>1.044727546342188</v>
+        <v>1.007487134131001</v>
       </c>
       <c r="L24">
-        <v>1.036777168159093</v>
+        <v>1.003046887265149</v>
       </c>
       <c r="M24">
-        <v>1.051591472233883</v>
+        <v>1.007046843383238</v>
       </c>
       <c r="N24">
-        <v>1.017292697986865</v>
+        <v>1.005666622435603</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03619083664287</v>
+        <v>0.9893768161469439</v>
       </c>
       <c r="D25">
-        <v>1.043270909988038</v>
+        <v>1.002765194005413</v>
       </c>
       <c r="E25">
-        <v>1.035150563348635</v>
+        <v>0.9975319528352924</v>
       </c>
       <c r="F25">
-        <v>1.050438323565232</v>
+        <v>1.003561591170562</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032951213473557</v>
+        <v>1.04047240974609</v>
       </c>
       <c r="J25">
-        <v>1.041781289794736</v>
+        <v>1.01426705911866</v>
       </c>
       <c r="K25">
-        <v>1.046300143952108</v>
+        <v>1.015320735025091</v>
       </c>
       <c r="L25">
-        <v>1.03820513502674</v>
+        <v>1.010168703259581</v>
       </c>
       <c r="M25">
-        <v>1.053445548387657</v>
+        <v>1.016104868481901</v>
       </c>
       <c r="N25">
-        <v>1.017781472973839</v>
+        <v>1.008188128835646</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_51/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9975636255780491</v>
+        <v>1.001853093542305</v>
       </c>
       <c r="D2">
-        <v>1.00995156598005</v>
+        <v>1.014200651249052</v>
       </c>
       <c r="E2">
-        <v>1.004180272716923</v>
+        <v>1.00791244080868</v>
       </c>
       <c r="F2">
-        <v>1.011700569562427</v>
+        <v>1.025810940408395</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042216449164942</v>
+        <v>1.044690074595088</v>
       </c>
       <c r="J2">
-        <v>1.01981745318571</v>
+        <v>1.023978519817422</v>
       </c>
       <c r="K2">
-        <v>1.021273979040137</v>
+        <v>1.025465630930479</v>
       </c>
       <c r="L2">
-        <v>1.015581675299051</v>
+        <v>1.019262632490085</v>
       </c>
       <c r="M2">
-        <v>1.022999268485485</v>
+        <v>1.036922028228451</v>
       </c>
       <c r="N2">
-        <v>1.010099363736855</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011534368610625</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.03779369401751</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.029076491136345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003296433551135</v>
+        <v>1.006146947828176</v>
       </c>
       <c r="D3">
-        <v>1.014997077232425</v>
+        <v>1.017384909080225</v>
       </c>
       <c r="E3">
-        <v>1.008850382518433</v>
+        <v>1.011341578249835</v>
       </c>
       <c r="F3">
-        <v>1.017417400926736</v>
+        <v>1.028748871016075</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04341070123286</v>
+        <v>1.045504446524904</v>
       </c>
       <c r="J3">
-        <v>1.023697636076405</v>
+        <v>1.02647143204407</v>
       </c>
       <c r="K3">
-        <v>1.025441597417897</v>
+        <v>1.027800076027939</v>
       </c>
       <c r="L3">
-        <v>1.019371259770583</v>
+        <v>1.021831369377719</v>
       </c>
       <c r="M3">
-        <v>1.027832169639065</v>
+        <v>1.039026658500002</v>
       </c>
       <c r="N3">
-        <v>1.011434226112742</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012409743678038</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.039459372111216</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.030724494026469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006915039856231</v>
+        <v>1.008871757124827</v>
       </c>
       <c r="D4">
-        <v>1.018187601368898</v>
+        <v>1.019412446660395</v>
       </c>
       <c r="E4">
-        <v>1.011804502834448</v>
+        <v>1.013523438451767</v>
       </c>
       <c r="F4">
-        <v>1.021033761053195</v>
+        <v>1.030620590944371</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044151664677883</v>
+        <v>1.046009901294976</v>
       </c>
       <c r="J4">
-        <v>1.026143497140637</v>
+        <v>1.028051213167321</v>
       </c>
       <c r="K4">
-        <v>1.02807136396926</v>
+        <v>1.029282092846759</v>
       </c>
       <c r="L4">
-        <v>1.021762515378362</v>
+        <v>1.023461342062317</v>
       </c>
       <c r="M4">
-        <v>1.030884785791496</v>
+        <v>1.040362981728697</v>
       </c>
       <c r="N4">
-        <v>1.012275014815891</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012964044148797</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.040516983100787</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.031773340441053</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008415499240477</v>
+        <v>1.010010693047642</v>
       </c>
       <c r="D5">
-        <v>1.019511881475726</v>
+        <v>1.020264654882784</v>
       </c>
       <c r="E5">
-        <v>1.013030879380669</v>
+        <v>1.014437449931173</v>
       </c>
       <c r="F5">
-        <v>1.022535134061084</v>
+        <v>1.031403271209919</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044455766635605</v>
+        <v>1.046219623537719</v>
       </c>
       <c r="J5">
-        <v>1.027156822460975</v>
+        <v>1.028713293528216</v>
       </c>
       <c r="K5">
-        <v>1.02916154025382</v>
+        <v>1.029905876809716</v>
       </c>
       <c r="L5">
-        <v>1.022753814887371</v>
+        <v>1.024144384121148</v>
       </c>
       <c r="M5">
-        <v>1.032151001733031</v>
+        <v>1.040921422183289</v>
       </c>
       <c r="N5">
-        <v>1.012623193569848</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013196823624244</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.040958951132419</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.03222166559098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008666239857863</v>
+        <v>1.010208317927427</v>
       </c>
       <c r="D6">
-        <v>1.019733257351574</v>
+        <v>1.02041638832098</v>
       </c>
       <c r="E6">
-        <v>1.013235901498487</v>
+        <v>1.014596937537904</v>
       </c>
       <c r="F6">
-        <v>1.022786134841545</v>
+        <v>1.03153749773332</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044506398752598</v>
+        <v>1.046257338543826</v>
       </c>
       <c r="J6">
-        <v>1.027326106851998</v>
+        <v>1.028830949063984</v>
       </c>
       <c r="K6">
-        <v>1.029343702126284</v>
+        <v>1.030019213045195</v>
       </c>
       <c r="L6">
-        <v>1.022919454726716</v>
+        <v>1.024265080807257</v>
       </c>
       <c r="M6">
-        <v>1.03236262302637</v>
+        <v>1.04101801304808</v>
       </c>
       <c r="N6">
-        <v>1.012681349951868</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01323889287089</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.04103539627299</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.032310641719062</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00693516958365</v>
+        <v>1.008906269280827</v>
       </c>
       <c r="D7">
-        <v>1.018205362353773</v>
+        <v>1.019448366408376</v>
       </c>
       <c r="E7">
-        <v>1.011820949907387</v>
+        <v>1.013553338085817</v>
       </c>
       <c r="F7">
-        <v>1.021053895788256</v>
+        <v>1.0306397660235</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044155756903834</v>
+        <v>1.046020303943008</v>
       </c>
       <c r="J7">
-        <v>1.026157095059613</v>
+        <v>1.028078854981578</v>
       </c>
       <c r="K7">
-        <v>1.028085990547263</v>
+        <v>1.029314674629815</v>
       </c>
       <c r="L7">
-        <v>1.021775815371941</v>
+        <v>1.023487945178484</v>
       </c>
       <c r="M7">
-        <v>1.030901771274312</v>
+        <v>1.040379059819332</v>
       </c>
       <c r="N7">
-        <v>1.012279687714403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01297570302769</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.040529707831108</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.031816708397013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9995204750382642</v>
+        <v>1.003340201373314</v>
       </c>
       <c r="D8">
-        <v>1.011672569909655</v>
+        <v>1.01531468479826</v>
       </c>
       <c r="E8">
-        <v>1.005773012867734</v>
+        <v>1.009101778745418</v>
       </c>
       <c r="F8">
-        <v>1.01365029442379</v>
+        <v>1.026821186533167</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042626769046658</v>
+        <v>1.044979530195546</v>
       </c>
       <c r="J8">
-        <v>1.021142596444848</v>
+        <v>1.024851953193601</v>
       </c>
       <c r="K8">
-        <v>1.02269671651769</v>
+        <v>1.026291129161258</v>
       </c>
       <c r="L8">
-        <v>1.016875348773374</v>
+        <v>1.020159856109704</v>
       </c>
       <c r="M8">
-        <v>1.024648484683573</v>
+        <v>1.037649702119046</v>
       </c>
       <c r="N8">
-        <v>1.010555368926491</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011843732105755</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.038369601053599</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.029683394647641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9857120386972936</v>
+        <v>0.9930696076790786</v>
       </c>
       <c r="D9">
-        <v>0.999555347051867</v>
+        <v>1.00772719186286</v>
       </c>
       <c r="E9">
-        <v>0.9945637401660222</v>
+        <v>1.000931929986071</v>
       </c>
       <c r="F9">
-        <v>0.9999273038326676</v>
+        <v>1.01984407216886</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039678609441456</v>
+        <v>1.042964430528875</v>
       </c>
       <c r="J9">
-        <v>1.011779630474904</v>
+        <v>1.01886949219884</v>
       </c>
       <c r="K9">
-        <v>1.012655642561658</v>
+        <v>1.020696132578841</v>
       </c>
       <c r="L9">
-        <v>1.007745636980244</v>
+        <v>1.01400990535002</v>
       </c>
       <c r="M9">
-        <v>1.013021560591409</v>
+        <v>1.032623193321248</v>
       </c>
       <c r="N9">
-        <v>1.007331045420753</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009738587498841</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.034391433436649</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.025724023051171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9759359289274989</v>
+        <v>0.9859910944437287</v>
       </c>
       <c r="D10">
-        <v>0.9910139194327884</v>
+        <v>1.002551506644402</v>
       </c>
       <c r="E10">
-        <v>0.9866693639122182</v>
+        <v>0.9953478709630067</v>
       </c>
       <c r="F10">
-        <v>0.9902585892198158</v>
+        <v>1.015253526281157</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037526673175638</v>
+        <v>1.041552999212368</v>
       </c>
       <c r="J10">
-        <v>1.005137938682875</v>
+        <v>1.014771762978603</v>
       </c>
       <c r="K10">
-        <v>1.005547338186856</v>
+        <v>1.016874845161147</v>
       </c>
       <c r="L10">
-        <v>1.001283551955647</v>
+        <v>1.009801632141099</v>
       </c>
       <c r="M10">
-        <v>1.004805983895527</v>
+        <v>1.029352728943397</v>
       </c>
       <c r="N10">
-        <v>1.00504125737701</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.00830461334576</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.031854908350422</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.023039120637092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9715496241803216</v>
+        <v>0.9835171699005529</v>
       </c>
       <c r="D11">
-        <v>0.9871914811611552</v>
+        <v>1.000842064738343</v>
       </c>
       <c r="E11">
-        <v>0.9831384533014056</v>
+        <v>0.9934947092555617</v>
       </c>
       <c r="F11">
-        <v>0.9859323317728449</v>
+        <v>1.015033319555079</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036546668998929</v>
+        <v>1.041308130229603</v>
       </c>
       <c r="J11">
-        <v>1.002155811235936</v>
+        <v>1.01359210206368</v>
       </c>
       <c r="K11">
-        <v>1.002359058434655</v>
+        <v>1.015748118404369</v>
       </c>
       <c r="L11">
-        <v>0.9983855165912785</v>
+        <v>1.008540357488823</v>
       </c>
       <c r="M11">
-        <v>1.001124511056722</v>
+        <v>1.029677191058861</v>
       </c>
       <c r="N11">
-        <v>1.004012667780365</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007971643372056</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.032550898161477</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.022275855262866</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9698956485721966</v>
+        <v>0.9828007565466774</v>
       </c>
       <c r="D12">
-        <v>0.9857517093396136</v>
+        <v>1.000378544363046</v>
       </c>
       <c r="E12">
-        <v>0.9818088106800434</v>
+        <v>0.9929998505346398</v>
       </c>
       <c r="F12">
-        <v>0.9843028490778817</v>
+        <v>1.01556058130599</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036175034974997</v>
+        <v>1.041344800168769</v>
       </c>
       <c r="J12">
-        <v>1.001031077112218</v>
+        <v>1.013351287193289</v>
       </c>
       <c r="K12">
-        <v>1.001157071580033</v>
+        <v>1.015498495652083</v>
       </c>
       <c r="L12">
-        <v>0.9972930254741291</v>
+        <v>1.008262402522349</v>
       </c>
       <c r="M12">
-        <v>0.9997370899771428</v>
+        <v>1.030395616148234</v>
       </c>
       <c r="N12">
-        <v>1.003624668469276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007951882227335</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.03344736874731</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.022099358101263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9702515789723895</v>
+        <v>0.9834161017725606</v>
       </c>
       <c r="D13">
-        <v>0.9860614706610507</v>
+        <v>1.000872689187306</v>
       </c>
       <c r="E13">
-        <v>0.982094863159698</v>
+        <v>0.9935389987030884</v>
       </c>
       <c r="F13">
-        <v>0.9846534239569819</v>
+        <v>1.016729564677966</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036255102827076</v>
+        <v>1.041615783815414</v>
       </c>
       <c r="J13">
-        <v>1.001273125918151</v>
+        <v>1.013844034899447</v>
       </c>
       <c r="K13">
-        <v>1.001415723119501</v>
+        <v>1.015939211140636</v>
       </c>
       <c r="L13">
-        <v>0.9975281114619688</v>
+        <v>1.008746583108779</v>
       </c>
       <c r="M13">
-        <v>1.000035622189402</v>
+        <v>1.031500138799021</v>
       </c>
       <c r="N13">
-        <v>1.003708170416266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008183775429371</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.034598587709421</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.022408432803435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9714134204229397</v>
+        <v>0.9844473454826275</v>
       </c>
       <c r="D14">
-        <v>0.9870728842269012</v>
+        <v>1.001652070087817</v>
       </c>
       <c r="E14">
-        <v>0.9830289212426393</v>
+        <v>0.9943824752232606</v>
       </c>
       <c r="F14">
-        <v>0.985798107005878</v>
+        <v>1.01782542090532</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036516107291356</v>
+        <v>1.041908670579789</v>
       </c>
       <c r="J14">
-        <v>1.002063194562969</v>
+        <v>1.014518359856347</v>
       </c>
       <c r="K14">
-        <v>1.002260070246743</v>
+        <v>1.016559825951399</v>
       </c>
       <c r="L14">
-        <v>0.9982955442278039</v>
+        <v>1.009428222210233</v>
       </c>
       <c r="M14">
-        <v>1.001010241601705</v>
+        <v>1.03243536596912</v>
       </c>
       <c r="N14">
-        <v>1.003980718931066</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008459301304444</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.035511786300879</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.022848691179241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9721259419910666</v>
+        <v>0.9850005803093187</v>
       </c>
       <c r="D15">
-        <v>0.9876933643783489</v>
+        <v>1.002063821350409</v>
       </c>
       <c r="E15">
-        <v>0.9836019886739485</v>
+        <v>0.9948244856160561</v>
       </c>
       <c r="F15">
-        <v>0.9865003516406649</v>
+        <v>1.018266708465763</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036675899628334</v>
+        <v>1.042038437661553</v>
       </c>
       <c r="J15">
-        <v>1.002547690049305</v>
+        <v>1.014855989043851</v>
       </c>
       <c r="K15">
-        <v>1.002777916636703</v>
+        <v>1.016875209892944</v>
       </c>
       <c r="L15">
-        <v>0.9987662283309527</v>
+        <v>1.009772194516718</v>
       </c>
       <c r="M15">
-        <v>1.001608050609252</v>
+        <v>1.032782110308515</v>
       </c>
       <c r="N15">
-        <v>1.004147847165229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008586533324237</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.035823499369389</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.023077654529001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9762236653278055</v>
+        <v>0.9878801060388831</v>
       </c>
       <c r="D16">
-        <v>0.9912648802720764</v>
+        <v>1.004158270614695</v>
       </c>
       <c r="E16">
-        <v>0.9869012275918828</v>
+        <v>0.9970784954390119</v>
       </c>
       <c r="F16">
-        <v>0.9905426385691224</v>
+        <v>1.020033681761313</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037590666054459</v>
+        <v>1.042599376150567</v>
       </c>
       <c r="J16">
-        <v>1.005333524678558</v>
+        <v>1.016504623551761</v>
       </c>
       <c r="K16">
-        <v>1.005756514183285</v>
+        <v>1.01841639160062</v>
       </c>
       <c r="L16">
-        <v>1.001473695013516</v>
+        <v>1.01146386615511</v>
       </c>
       <c r="M16">
-        <v>1.005047587383636</v>
+        <v>1.034014759557667</v>
       </c>
       <c r="N16">
-        <v>1.005108709772395</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.009151901983999</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.036758950376176</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.024170571628147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9787519024360958</v>
+        <v>0.9895544929204833</v>
       </c>
       <c r="D17">
-        <v>0.9934711161408748</v>
+        <v>1.005363289002507</v>
       </c>
       <c r="E17">
-        <v>0.9889398029971794</v>
+        <v>0.9983723544749274</v>
       </c>
       <c r="F17">
-        <v>0.993039831225055</v>
+        <v>1.020814051269478</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038151316003879</v>
+        <v>1.042875724333727</v>
       </c>
       <c r="J17">
-        <v>1.007051833544431</v>
+        <v>1.017420080218574</v>
       </c>
       <c r="K17">
-        <v>1.00759459700932</v>
+        <v>1.019277929317675</v>
       </c>
       <c r="L17">
-        <v>1.003144577047681</v>
+        <v>1.012408982526474</v>
       </c>
       <c r="M17">
-        <v>1.007171008001799</v>
+        <v>1.034466718299636</v>
       </c>
       <c r="N17">
-        <v>1.005701256675603</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009442544960094</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.036986755342918</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.024782353187243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9802119229008255</v>
+        <v>0.9903177122840916</v>
       </c>
       <c r="D18">
-        <v>0.9947461133956109</v>
+        <v>1.005879063522954</v>
       </c>
       <c r="E18">
-        <v>0.9901180918711656</v>
+        <v>0.9989286199224727</v>
       </c>
       <c r="F18">
-        <v>0.9944830395424742</v>
+        <v>1.020703617455285</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038473710023134</v>
+        <v>1.042911923688694</v>
       </c>
       <c r="J18">
-        <v>1.008043922366282</v>
+        <v>1.017751561960555</v>
       </c>
       <c r="K18">
-        <v>1.008656156241802</v>
+        <v>1.019597082488008</v>
       </c>
       <c r="L18">
-        <v>1.004109608294745</v>
+        <v>1.012765872443881</v>
       </c>
       <c r="M18">
-        <v>1.008397687313643</v>
+        <v>1.034174299183817</v>
       </c>
       <c r="N18">
-        <v>1.006043326200692</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009508205606597</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.036517020236893</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.024996193712052</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9807073147574806</v>
+        <v>0.9902658115748461</v>
       </c>
       <c r="D19">
-        <v>0.9951788806644192</v>
+        <v>1.005792582169797</v>
       </c>
       <c r="E19">
-        <v>0.9905180641798496</v>
+        <v>0.9988279589929167</v>
       </c>
       <c r="F19">
-        <v>0.9949729142557159</v>
+        <v>1.019740969806836</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038582864629414</v>
+        <v>1.042733361954316</v>
       </c>
       <c r="J19">
-        <v>1.008380504857842</v>
+        <v>1.017564865937994</v>
       </c>
       <c r="K19">
-        <v>1.009016361690323</v>
+        <v>1.01944806062991</v>
       </c>
       <c r="L19">
-        <v>1.00443706593003</v>
+        <v>1.012602301864481</v>
       </c>
       <c r="M19">
-        <v>1.008813976888405</v>
+        <v>1.033164667419958</v>
       </c>
       <c r="N19">
-        <v>1.006159370854212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009382157025854</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.035391651053328</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.024897321418654</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.978482174323293</v>
+        <v>0.9878837027179865</v>
       </c>
       <c r="D20">
-        <v>0.9932356441301036</v>
+        <v>1.003958886205269</v>
       </c>
       <c r="E20">
-        <v>0.9887222061764048</v>
+        <v>0.9968456499352943</v>
       </c>
       <c r="F20">
-        <v>0.9927732988280776</v>
+        <v>1.016475257732881</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038091644410594</v>
+        <v>1.041946407709177</v>
       </c>
       <c r="J20">
-        <v>1.006868534843476</v>
+        <v>1.015889811676928</v>
       </c>
       <c r="K20">
-        <v>1.00739848864087</v>
+        <v>1.017932478745694</v>
       </c>
       <c r="L20">
-        <v>1.002966303748611</v>
+        <v>1.010944192485354</v>
       </c>
       <c r="M20">
-        <v>1.00694442258214</v>
+        <v>1.030234466412823</v>
       </c>
       <c r="N20">
-        <v>1.005638052018258</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008702397817905</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.032542082440668</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.023829705098533</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9710719835216597</v>
+        <v>0.9824230044250781</v>
       </c>
       <c r="D21">
-        <v>0.9867756100930375</v>
+        <v>0.9999597341992206</v>
       </c>
       <c r="E21">
-        <v>0.9827543743240051</v>
+        <v>0.9925334468723286</v>
       </c>
       <c r="F21">
-        <v>0.9854616610829441</v>
+        <v>1.012682730377365</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036439461435655</v>
+        <v>1.040787266859476</v>
       </c>
       <c r="J21">
-        <v>1.001831018588841</v>
+        <v>1.012674448701172</v>
       </c>
       <c r="K21">
-        <v>1.002011929868751</v>
+        <v>1.014941869468904</v>
       </c>
       <c r="L21">
-        <v>0.998070005650613</v>
+        <v>1.007657669683558</v>
       </c>
       <c r="M21">
-        <v>1.000723802630696</v>
+        <v>1.027427743414628</v>
       </c>
       <c r="N21">
-        <v>1.003900627111465</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007561802253461</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.030279535887564</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.021718463988857</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9662689940949958</v>
+        <v>0.9789306480660745</v>
       </c>
       <c r="D22">
-        <v>0.9825977649021055</v>
+        <v>0.9974061722281521</v>
       </c>
       <c r="E22">
-        <v>0.9788967369689726</v>
+        <v>0.9897864464363925</v>
       </c>
       <c r="F22">
-        <v>0.9807333886719463</v>
+        <v>1.010360904047241</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035356387082041</v>
+        <v>1.040046679905913</v>
       </c>
       <c r="J22">
-        <v>0.9985645363976449</v>
+        <v>1.010624282037116</v>
       </c>
       <c r="K22">
-        <v>0.9985220298669717</v>
+        <v>1.013029189074408</v>
       </c>
       <c r="L22">
-        <v>0.9948981749691719</v>
+        <v>1.005562987914454</v>
       </c>
       <c r="M22">
-        <v>0.9966964329878573</v>
+        <v>1.02572986622278</v>
       </c>
       <c r="N22">
-        <v>1.002773693802693</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.006836148391166</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.028935759212418</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.020352327047593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9688294000238565</v>
+        <v>0.9807694594196178</v>
       </c>
       <c r="D23">
-        <v>0.9848240076999728</v>
+        <v>0.9987403465405605</v>
       </c>
       <c r="E23">
-        <v>0.9809521637478966</v>
+        <v>0.99122931214784</v>
       </c>
       <c r="F23">
-        <v>0.9832529206794823</v>
+        <v>1.011586437455317</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035934877477738</v>
+        <v>1.040433880414298</v>
       </c>
       <c r="J23">
-        <v>1.000305951041911</v>
+        <v>1.011696400722293</v>
       </c>
       <c r="K23">
-        <v>1.000382280098035</v>
+        <v>1.01402340763014</v>
       </c>
       <c r="L23">
-        <v>0.9965888364853583</v>
+        <v>1.00665965126722</v>
       </c>
       <c r="M23">
-        <v>0.9988429077206951</v>
+        <v>1.026624228593555</v>
       </c>
       <c r="N23">
-        <v>1.00337450710919</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007213415777529</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.029643598301431</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.021045491609818</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9786040980180108</v>
+        <v>0.9878784012947298</v>
       </c>
       <c r="D24">
-        <v>0.9933420803577786</v>
+        <v>1.003932512445096</v>
       </c>
       <c r="E24">
-        <v>0.9888205620319865</v>
+        <v>0.9968292482277752</v>
       </c>
       <c r="F24">
-        <v>0.9928937745243215</v>
+        <v>1.01634115008736</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038118621695634</v>
+        <v>1.041914570827874</v>
       </c>
       <c r="J24">
-        <v>1.006951390990262</v>
+        <v>1.015851181211367</v>
       </c>
       <c r="K24">
-        <v>1.007487134131001</v>
+        <v>1.017890918920613</v>
       </c>
       <c r="L24">
-        <v>1.003046887265149</v>
+        <v>1.010912275567898</v>
       </c>
       <c r="M24">
-        <v>1.007046843383238</v>
+        <v>1.030087247893943</v>
       </c>
       <c r="N24">
-        <v>1.005666622435603</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008678546201289</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.032384382596358</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.023772464261899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9893768161469439</v>
+        <v>0.9958113619311977</v>
       </c>
       <c r="D25">
-        <v>1.002765194005413</v>
+        <v>1.009761887255718</v>
       </c>
       <c r="E25">
-        <v>0.9975319528352924</v>
+        <v>1.003110988297787</v>
       </c>
       <c r="F25">
-        <v>1.003561591170562</v>
+        <v>1.021691752000302</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04047240974609</v>
+        <v>1.043518849316575</v>
       </c>
       <c r="J25">
-        <v>1.01426705911866</v>
+        <v>1.020480517411448</v>
       </c>
       <c r="K25">
-        <v>1.015320735025091</v>
+        <v>1.022210529259268</v>
       </c>
       <c r="L25">
-        <v>1.010168703259581</v>
+        <v>1.015661201382762</v>
       </c>
       <c r="M25">
-        <v>1.016104868481901</v>
+        <v>1.033962411574591</v>
       </c>
       <c r="N25">
-        <v>1.008188128835646</v>
+        <v>1.01030930674128</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.035451343179715</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.026823829843826</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_51/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001853093542305</v>
+        <v>1.002743931879795</v>
       </c>
       <c r="D2">
-        <v>1.014200651249052</v>
+        <v>1.014949716008457</v>
       </c>
       <c r="E2">
-        <v>1.00791244080868</v>
+        <v>1.008722206341992</v>
       </c>
       <c r="F2">
-        <v>1.025810940408395</v>
+        <v>1.026209973493468</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.044690074595088</v>
+        <v>1.045031231445415</v>
       </c>
       <c r="J2">
-        <v>1.023978519817422</v>
+        <v>1.024842881016121</v>
       </c>
       <c r="K2">
-        <v>1.025465630930479</v>
+        <v>1.02620463350332</v>
       </c>
       <c r="L2">
-        <v>1.019262632490085</v>
+        <v>1.020061349815555</v>
       </c>
       <c r="M2">
-        <v>1.036922028228451</v>
+        <v>1.03731584975831</v>
       </c>
       <c r="N2">
-        <v>1.011534368610625</v>
+        <v>1.013559127852841</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.03779369401751</v>
+        <v>1.038105378461437</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.029076491136345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.029607926449274</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.018900265218947</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006146947828176</v>
+        <v>1.006728472587443</v>
       </c>
       <c r="D3">
-        <v>1.017384909080225</v>
+        <v>1.017743582673502</v>
       </c>
       <c r="E3">
-        <v>1.011341578249835</v>
+        <v>1.011878562247696</v>
       </c>
       <c r="F3">
-        <v>1.028748871016075</v>
+        <v>1.02901497723457</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.045504446524904</v>
+        <v>1.045738735397044</v>
       </c>
       <c r="J3">
-        <v>1.02647143204407</v>
+        <v>1.02703737824009</v>
       </c>
       <c r="K3">
-        <v>1.027800076027939</v>
+        <v>1.028154355300686</v>
       </c>
       <c r="L3">
-        <v>1.021831369377719</v>
+        <v>1.022361677655487</v>
       </c>
       <c r="M3">
-        <v>1.039026658500002</v>
+        <v>1.039289592829165</v>
       </c>
       <c r="N3">
-        <v>1.012409743678038</v>
+        <v>1.014167392865993</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.039459372111216</v>
+        <v>1.039667467274368</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.030724494026469</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.030983604820281</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019340876975089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008871757124827</v>
+        <v>1.009259810325662</v>
       </c>
       <c r="D4">
-        <v>1.019412446660395</v>
+        <v>1.019525148698995</v>
       </c>
       <c r="E4">
-        <v>1.013523438451767</v>
+        <v>1.013889590292271</v>
       </c>
       <c r="F4">
-        <v>1.030620590944371</v>
+        <v>1.030803697237535</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046009901294976</v>
+        <v>1.0461772018161</v>
       </c>
       <c r="J4">
-        <v>1.028051213167321</v>
+        <v>1.028429578960854</v>
       </c>
       <c r="K4">
-        <v>1.029282092846759</v>
+        <v>1.029393498091991</v>
       </c>
       <c r="L4">
-        <v>1.023461342062317</v>
+        <v>1.023823221377557</v>
       </c>
       <c r="M4">
-        <v>1.040362981728697</v>
+        <v>1.040544037351027</v>
       </c>
       <c r="N4">
-        <v>1.012964044148797</v>
+        <v>1.014553126461009</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.040516983100787</v>
+        <v>1.040660276468818</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.031773340441053</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.031860790864102</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.019618412374653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010010693047642</v>
+        <v>1.010318211035566</v>
       </c>
       <c r="D5">
-        <v>1.020264654882784</v>
+        <v>1.020274694711385</v>
       </c>
       <c r="E5">
-        <v>1.014437449931173</v>
+        <v>1.014732420165312</v>
       </c>
       <c r="F5">
-        <v>1.031403271209919</v>
+        <v>1.031551854137115</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046219623537719</v>
+        <v>1.046358977371702</v>
       </c>
       <c r="J5">
-        <v>1.028713293528216</v>
+        <v>1.029013365524424</v>
       </c>
       <c r="K5">
-        <v>1.029905876809716</v>
+        <v>1.029915804218597</v>
       </c>
       <c r="L5">
-        <v>1.024144384121148</v>
+        <v>1.024436005675859</v>
       </c>
       <c r="M5">
-        <v>1.040921422183289</v>
+        <v>1.04106838546389</v>
       </c>
       <c r="N5">
-        <v>1.013196823624244</v>
+        <v>1.014715256022127</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.040958951132419</v>
+        <v>1.041075262632049</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.03222166559098</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.032238068984013</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.019735532240693</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010208317927427</v>
+        <v>1.010501521140082</v>
       </c>
       <c r="D6">
-        <v>1.02041638832098</v>
+        <v>1.020408326800749</v>
       </c>
       <c r="E6">
-        <v>1.014596937537904</v>
+        <v>1.014879218989236</v>
       </c>
       <c r="F6">
-        <v>1.03153749773332</v>
+        <v>1.031679934684122</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046257338543826</v>
+        <v>1.04639168318553</v>
       </c>
       <c r="J6">
-        <v>1.028830949063984</v>
+        <v>1.029117089703145</v>
       </c>
       <c r="K6">
-        <v>1.030019213045195</v>
+        <v>1.030011241374773</v>
       </c>
       <c r="L6">
-        <v>1.024265080807257</v>
+        <v>1.024544172581322</v>
       </c>
       <c r="M6">
-        <v>1.04101801304808</v>
+        <v>1.041158904468336</v>
       </c>
       <c r="N6">
-        <v>1.01323889287089</v>
+        <v>1.014744571164998</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.04103539627299</v>
+        <v>1.041146902294276</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.032310641719062</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.032315256227733</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.019757798676042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008906269280827</v>
+        <v>1.009300540058373</v>
       </c>
       <c r="D7">
-        <v>1.019448366408376</v>
+        <v>1.019564960902409</v>
       </c>
       <c r="E7">
-        <v>1.013553338085817</v>
+        <v>1.01392523345064</v>
       </c>
       <c r="F7">
-        <v>1.0306397660235</v>
+        <v>1.03082576048832</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046020303943008</v>
+        <v>1.046190145311092</v>
       </c>
       <c r="J7">
-        <v>1.028078854981578</v>
+        <v>1.028463287719162</v>
       </c>
       <c r="K7">
-        <v>1.029314674629815</v>
+        <v>1.029429928113989</v>
       </c>
       <c r="L7">
-        <v>1.023487945178484</v>
+        <v>1.023855502798652</v>
       </c>
       <c r="M7">
-        <v>1.040379059819332</v>
+        <v>1.040562972064654</v>
       </c>
       <c r="N7">
-        <v>1.01297570302769</v>
+        <v>1.01459018225116</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.040529707831108</v>
+        <v>1.040675262021632</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.031816708397013</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.031908875467049</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019629963060607</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003340201373314</v>
+        <v>1.004151933966742</v>
       </c>
       <c r="D8">
-        <v>1.01531468479826</v>
+        <v>1.015951400933748</v>
       </c>
       <c r="E8">
-        <v>1.009101778745418</v>
+        <v>1.009842903906643</v>
       </c>
       <c r="F8">
-        <v>1.026821186533167</v>
+        <v>1.02718701954597</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.044979530195546</v>
+        <v>1.045294927258655</v>
       </c>
       <c r="J8">
-        <v>1.024851953193601</v>
+        <v>1.025640379178319</v>
       </c>
       <c r="K8">
-        <v>1.026291129161258</v>
+        <v>1.026919549952125</v>
       </c>
       <c r="L8">
-        <v>1.020159856109704</v>
+        <v>1.020891177250816</v>
       </c>
       <c r="M8">
-        <v>1.037649702119046</v>
+        <v>1.038010899811766</v>
       </c>
       <c r="N8">
-        <v>1.011843732105755</v>
+        <v>1.013862168717647</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.038369601053599</v>
+        <v>1.038655465600867</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.029683394647641</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.030138891788656</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019068432620168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9930696076790786</v>
+        <v>0.9946450131330593</v>
       </c>
       <c r="D9">
-        <v>1.00772719186286</v>
+        <v>1.009313754117671</v>
       </c>
       <c r="E9">
-        <v>1.000931929986071</v>
+        <v>1.002345305596458</v>
       </c>
       <c r="F9">
-        <v>1.01984407216886</v>
+        <v>1.020539239167507</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042964430528875</v>
+        <v>1.043543136717879</v>
       </c>
       <c r="J9">
-        <v>1.01886949219884</v>
+        <v>1.02038829734191</v>
       </c>
       <c r="K9">
-        <v>1.020696132578841</v>
+        <v>1.022257508118032</v>
       </c>
       <c r="L9">
-        <v>1.01400990535002</v>
+        <v>1.015400446112404</v>
       </c>
       <c r="M9">
-        <v>1.032623193321248</v>
+        <v>1.033307644573743</v>
       </c>
       <c r="N9">
-        <v>1.009738587498841</v>
+        <v>1.012414077851874</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.034391433436649</v>
+        <v>1.034933135146218</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.025724023051171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.026838952235192</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.017998805221337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9859910944437287</v>
+        <v>0.9881502662158053</v>
       </c>
       <c r="D10">
-        <v>1.002551506644402</v>
+        <v>1.004835095355242</v>
       </c>
       <c r="E10">
-        <v>0.9953478709630067</v>
+        <v>0.9972743537169158</v>
       </c>
       <c r="F10">
-        <v>1.015253526281157</v>
+        <v>1.016201928850477</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041552999212368</v>
+        <v>1.042333320653068</v>
       </c>
       <c r="J10">
-        <v>1.014771762978603</v>
+        <v>1.016842046569895</v>
       </c>
       <c r="K10">
-        <v>1.016874845161147</v>
+        <v>1.019117595997063</v>
       </c>
       <c r="L10">
-        <v>1.009801632141099</v>
+        <v>1.011692995555222</v>
       </c>
       <c r="M10">
-        <v>1.029352728943397</v>
+        <v>1.030284687164236</v>
       </c>
       <c r="N10">
-        <v>1.00830461334576</v>
+        <v>1.011555771241734</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.031854908350422</v>
+        <v>1.032592452707651</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.023039120637092</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.024637527421356</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.017277514715668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9835171699005529</v>
+        <v>0.9859097036108159</v>
       </c>
       <c r="D11">
-        <v>1.000842064738343</v>
+        <v>1.003386898498913</v>
       </c>
       <c r="E11">
-        <v>0.9934947092555617</v>
+        <v>0.9956223891546616</v>
       </c>
       <c r="F11">
-        <v>1.015033319555079</v>
+        <v>1.016078617680465</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.041308130229603</v>
+        <v>1.042162930714883</v>
       </c>
       <c r="J11">
-        <v>1.01359210206368</v>
+        <v>1.015880634941426</v>
       </c>
       <c r="K11">
-        <v>1.015748118404369</v>
+        <v>1.01824522428105</v>
       </c>
       <c r="L11">
-        <v>1.008540357488823</v>
+        <v>1.010627335703529</v>
       </c>
       <c r="M11">
-        <v>1.029677191058861</v>
+        <v>1.030703553959351</v>
       </c>
       <c r="N11">
-        <v>1.007971643372056</v>
+        <v>1.011577848960994</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.032550898161477</v>
+        <v>1.033362739244192</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.022275855262866</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.02405729153432</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.017136890077751</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9828007565466774</v>
+        <v>0.9852509636294549</v>
       </c>
       <c r="D12">
-        <v>1.000378544363046</v>
+        <v>1.002988691168128</v>
       </c>
       <c r="E12">
-        <v>0.9929998505346398</v>
+        <v>0.9951735914052217</v>
       </c>
       <c r="F12">
-        <v>1.01556058130599</v>
+        <v>1.016626492338418</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041344800168769</v>
+        <v>1.042212403381735</v>
       </c>
       <c r="J12">
-        <v>1.013351287193289</v>
+        <v>1.015692916887798</v>
       </c>
       <c r="K12">
-        <v>1.015498495652083</v>
+        <v>1.018058855697688</v>
       </c>
       <c r="L12">
-        <v>1.008262402522349</v>
+        <v>1.010393845640915</v>
       </c>
       <c r="M12">
-        <v>1.030395616148234</v>
+        <v>1.03144193996679</v>
       </c>
       <c r="N12">
-        <v>1.007951882227335</v>
+        <v>1.01167232461561</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03344736874731</v>
+        <v>1.034274715576239</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.022099358101263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.023925522051124</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.017136654427711</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9834161017725606</v>
+        <v>0.9857736405541606</v>
       </c>
       <c r="D13">
-        <v>1.000872689187306</v>
+        <v>1.003385597047831</v>
       </c>
       <c r="E13">
-        <v>0.9935389987030884</v>
+        <v>0.9956254969559386</v>
       </c>
       <c r="F13">
-        <v>1.016729564677966</v>
+        <v>1.017750482724135</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041615783815414</v>
+        <v>1.042442738002894</v>
       </c>
       <c r="J13">
-        <v>1.013844034899447</v>
+        <v>1.016097658591971</v>
       </c>
       <c r="K13">
-        <v>1.015939211140636</v>
+        <v>1.018404403572066</v>
       </c>
       <c r="L13">
-        <v>1.008746583108779</v>
+        <v>1.010792670759384</v>
       </c>
       <c r="M13">
-        <v>1.031500138799021</v>
+        <v>1.032502414007271</v>
       </c>
       <c r="N13">
-        <v>1.008183775429371</v>
+        <v>1.011798912926926</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.034598587709421</v>
+        <v>1.035390903959859</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.022408432803435</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.024167062230251</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.017250780399075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9844473454826275</v>
+        <v>0.9866730884748786</v>
       </c>
       <c r="D14">
-        <v>1.001652070087817</v>
+        <v>1.004024484285839</v>
       </c>
       <c r="E14">
-        <v>0.9943824752232606</v>
+        <v>0.9963488357298671</v>
       </c>
       <c r="F14">
-        <v>1.01782542090532</v>
+        <v>1.01878599092233</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.041908670579789</v>
+        <v>1.042683859989452</v>
       </c>
       <c r="J14">
-        <v>1.014518359856347</v>
+        <v>1.016647451029046</v>
       </c>
       <c r="K14">
-        <v>1.016559825951399</v>
+        <v>1.018887771532362</v>
       </c>
       <c r="L14">
-        <v>1.009428222210233</v>
+        <v>1.011356997446591</v>
       </c>
       <c r="M14">
-        <v>1.03243536596912</v>
+        <v>1.033378634927737</v>
       </c>
       <c r="N14">
-        <v>1.008459301304444</v>
+        <v>1.01190309750631</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.035511786300879</v>
+        <v>1.036257356040562</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.022848691179241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.024510407365797</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.017383067634092</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9850005803093187</v>
+        <v>0.9871614161050292</v>
       </c>
       <c r="D15">
-        <v>1.002063821350409</v>
+        <v>1.0043660471751</v>
       </c>
       <c r="E15">
-        <v>0.9948244856160561</v>
+        <v>0.996732650356959</v>
       </c>
       <c r="F15">
-        <v>1.018266708465763</v>
+        <v>1.0191983703043</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042038437661553</v>
+        <v>1.042789611263349</v>
       </c>
       <c r="J15">
-        <v>1.014855989043851</v>
+        <v>1.016923835764718</v>
       </c>
       <c r="K15">
-        <v>1.016875209892944</v>
+        <v>1.019134620693765</v>
       </c>
       <c r="L15">
-        <v>1.009772194516718</v>
+        <v>1.011644176356359</v>
       </c>
       <c r="M15">
-        <v>1.032782110308515</v>
+        <v>1.033697124471386</v>
       </c>
       <c r="N15">
-        <v>1.008586533324237</v>
+        <v>1.011942555263503</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.035823499369389</v>
+        <v>1.036546717163486</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.023077654529001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.024691472722643</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.017444476770588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9878801060388831</v>
+        <v>0.9897431816915336</v>
       </c>
       <c r="D16">
-        <v>1.004158270614695</v>
+        <v>1.006129116624813</v>
       </c>
       <c r="E16">
-        <v>0.9970784954390119</v>
+        <v>0.9987245426528946</v>
       </c>
       <c r="F16">
-        <v>1.020033681761313</v>
+        <v>1.020836413763999</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042599376150567</v>
+        <v>1.043247518547515</v>
       </c>
       <c r="J16">
-        <v>1.016504623551761</v>
+        <v>1.018291628851782</v>
       </c>
       <c r="K16">
-        <v>1.01841639160062</v>
+        <v>1.020352227599001</v>
       </c>
       <c r="L16">
-        <v>1.01146386615511</v>
+        <v>1.013080118539814</v>
       </c>
       <c r="M16">
-        <v>1.034014759557667</v>
+        <v>1.034803778646141</v>
       </c>
       <c r="N16">
-        <v>1.009151901983999</v>
+        <v>1.012101440483542</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.036758950376176</v>
+        <v>1.037382600881841</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.024170571628147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.025555890369991</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.017714711122885</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9895544929204833</v>
+        <v>0.9912695425026632</v>
       </c>
       <c r="D17">
-        <v>1.005363289002507</v>
+        <v>1.007162217450317</v>
       </c>
       <c r="E17">
-        <v>0.9983723544749274</v>
+        <v>0.9998902510416658</v>
       </c>
       <c r="F17">
-        <v>1.020814051269478</v>
+        <v>1.021554457155725</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042875724333727</v>
+        <v>1.043475828700728</v>
       </c>
       <c r="J17">
-        <v>1.017420080218574</v>
+        <v>1.0190674033964</v>
       </c>
       <c r="K17">
-        <v>1.019277929317675</v>
+        <v>1.021045821728168</v>
       </c>
       <c r="L17">
-        <v>1.012408982526474</v>
+        <v>1.013900204828399</v>
       </c>
       <c r="M17">
-        <v>1.034466718299636</v>
+        <v>1.035194826529974</v>
       </c>
       <c r="N17">
-        <v>1.009442544960094</v>
+        <v>1.012200059821982</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.036986755342918</v>
+        <v>1.03756231871823</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.024782353187243</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.026049166061784</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.017856042773996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9903177122840916</v>
+        <v>0.9919878659884286</v>
       </c>
       <c r="D18">
-        <v>1.005879063522954</v>
+        <v>1.007619385788316</v>
       </c>
       <c r="E18">
-        <v>0.9989286199224727</v>
+        <v>1.000410870405765</v>
       </c>
       <c r="F18">
-        <v>1.020703617455285</v>
+        <v>1.021427626993692</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042911923688694</v>
+        <v>1.043502176020478</v>
       </c>
       <c r="J18">
-        <v>1.017751561960555</v>
+        <v>1.019357017081102</v>
       </c>
       <c r="K18">
-        <v>1.019597082488008</v>
+        <v>1.021307882153925</v>
       </c>
       <c r="L18">
-        <v>1.012765872443881</v>
+        <v>1.014222515458244</v>
       </c>
       <c r="M18">
-        <v>1.034174299183817</v>
+        <v>1.034886465482684</v>
       </c>
       <c r="N18">
-        <v>1.009508205606597</v>
+        <v>1.012204887301532</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.036517020236893</v>
+        <v>1.037080099654633</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.024996193712052</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.026221511828439</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.017885135094008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9902658115748461</v>
+        <v>0.9919715417132025</v>
       </c>
       <c r="D19">
-        <v>1.005792582169797</v>
+        <v>1.007566608085063</v>
       </c>
       <c r="E19">
-        <v>0.9988279589929167</v>
+        <v>1.000346251083258</v>
       </c>
       <c r="F19">
-        <v>1.019740969806836</v>
+        <v>1.020484336955052</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.042733361954316</v>
+        <v>1.043342973795873</v>
       </c>
       <c r="J19">
-        <v>1.017564865937994</v>
+        <v>1.019204900333911</v>
       </c>
       <c r="K19">
-        <v>1.01944806062991</v>
+        <v>1.021192148125105</v>
       </c>
       <c r="L19">
-        <v>1.012602301864481</v>
+        <v>1.014094499104057</v>
       </c>
       <c r="M19">
-        <v>1.033164667419958</v>
+        <v>1.033895910514943</v>
       </c>
       <c r="N19">
-        <v>1.009382157025854</v>
+        <v>1.012110823176903</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.035391651053328</v>
+        <v>1.035970004182745</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.024897321418654</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.026146795231286</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.017820679613575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9878837027179865</v>
+        <v>0.989853920104416</v>
       </c>
       <c r="D20">
-        <v>1.003958886205269</v>
+        <v>1.006029381100149</v>
       </c>
       <c r="E20">
-        <v>0.9968456499352943</v>
+        <v>0.9986044597188248</v>
       </c>
       <c r="F20">
-        <v>1.016475257732881</v>
+        <v>1.017340582403942</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041946407709177</v>
+        <v>1.042659322092722</v>
       </c>
       <c r="J20">
-        <v>1.015889811676928</v>
+        <v>1.017781637571798</v>
       </c>
       <c r="K20">
-        <v>1.017932478745694</v>
+        <v>1.01996703321272</v>
       </c>
       <c r="L20">
-        <v>1.010944192485354</v>
+        <v>1.012671892486497</v>
       </c>
       <c r="M20">
-        <v>1.030234466412823</v>
+        <v>1.031085220974156</v>
       </c>
       <c r="N20">
-        <v>1.008702397817905</v>
+        <v>1.011718597282994</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.032542082440668</v>
+        <v>1.033215370997821</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.023829705098533</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.025284950570486</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.017477605127177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9824230044250781</v>
+        <v>0.9849956822574649</v>
       </c>
       <c r="D21">
-        <v>0.9999597341992206</v>
+        <v>1.002692161993378</v>
       </c>
       <c r="E21">
-        <v>0.9925334468723286</v>
+        <v>0.9948293666263789</v>
       </c>
       <c r="F21">
-        <v>1.012682730377365</v>
+        <v>1.013816196275644</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.040787266859476</v>
+        <v>1.041719243668256</v>
       </c>
       <c r="J21">
-        <v>1.012674448701172</v>
+        <v>1.015134404118808</v>
       </c>
       <c r="K21">
-        <v>1.014941869468904</v>
+        <v>1.017622709413856</v>
       </c>
       <c r="L21">
-        <v>1.007657669683558</v>
+        <v>1.009909364879263</v>
       </c>
       <c r="M21">
-        <v>1.027427743414628</v>
+        <v>1.028540460460612</v>
       </c>
       <c r="N21">
-        <v>1.007561802253461</v>
+        <v>1.011407399626749</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.030279535887564</v>
+        <v>1.031160188989515</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.021718463988857</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.023631013236952</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.016939057175722</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9789306480660745</v>
+        <v>0.9818920224969666</v>
       </c>
       <c r="D22">
-        <v>0.9974061722281521</v>
+        <v>1.000563960454929</v>
       </c>
       <c r="E22">
-        <v>0.9897864464363925</v>
+        <v>0.9924288084238226</v>
       </c>
       <c r="F22">
-        <v>1.010360904047241</v>
+        <v>1.011668106988061</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040046679905913</v>
+        <v>1.041120350983722</v>
       </c>
       <c r="J22">
-        <v>1.010624282037116</v>
+        <v>1.013448093325388</v>
       </c>
       <c r="K22">
-        <v>1.013029189074408</v>
+        <v>1.01612425345125</v>
       </c>
       <c r="L22">
-        <v>1.005562987914454</v>
+        <v>1.008151759117904</v>
       </c>
       <c r="M22">
-        <v>1.02572986622278</v>
+        <v>1.027011906842578</v>
       </c>
       <c r="N22">
-        <v>1.006836148391166</v>
+        <v>1.01120350762613</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.028935759212418</v>
+        <v>1.029950424288853</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.020352327047593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.022556492380326</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.016593792923319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9807694594196178</v>
+        <v>0.9835101309228327</v>
       </c>
       <c r="D23">
-        <v>0.9987403465405605</v>
+        <v>1.001661074309222</v>
       </c>
       <c r="E23">
-        <v>0.99122931214784</v>
+        <v>0.9936743097123741</v>
       </c>
       <c r="F23">
-        <v>1.011586437455317</v>
+        <v>1.012794379167242</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.040433880414298</v>
+        <v>1.041426152506544</v>
       </c>
       <c r="J23">
-        <v>1.011696400722293</v>
+        <v>1.014313612128959</v>
       </c>
       <c r="K23">
-        <v>1.01402340763014</v>
+        <v>1.016887646283899</v>
       </c>
       <c r="L23">
-        <v>1.00665965126722</v>
+        <v>1.009056385865533</v>
       </c>
       <c r="M23">
-        <v>1.026624228593555</v>
+        <v>1.027809524894261</v>
       </c>
       <c r="N23">
-        <v>1.007213415777529</v>
+        <v>1.011261268633922</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.029643598301431</v>
+        <v>1.030581694630786</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.021045491609818</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.023085512398394</v>
+      </c>
+      <c r="S23">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T23">
+        <v>1.016765384264786</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9878784012947298</v>
+        <v>0.9898541209525318</v>
       </c>
       <c r="D24">
-        <v>1.003932512445096</v>
+        <v>1.00600830286869</v>
       </c>
       <c r="E24">
-        <v>0.9968292482277752</v>
+        <v>0.9985936269308326</v>
       </c>
       <c r="F24">
-        <v>1.01634115008736</v>
+        <v>1.017209460073428</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.041914570827874</v>
+        <v>1.042630410517615</v>
       </c>
       <c r="J24">
-        <v>1.015851181211367</v>
+        <v>1.017748400632399</v>
       </c>
       <c r="K24">
-        <v>1.017890918920613</v>
+        <v>1.019930721189347</v>
       </c>
       <c r="L24">
-        <v>1.010912275567898</v>
+        <v>1.012645485151483</v>
       </c>
       <c r="M24">
-        <v>1.030087247893943</v>
+        <v>1.030940951351069</v>
       </c>
       <c r="N24">
-        <v>1.008678546201289</v>
+        <v>1.01169835859023</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.032384382596358</v>
+        <v>1.033060039038872</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.023772464261899</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.025228776948535</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.017460555906393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9958113619311977</v>
+        <v>0.9971657156653239</v>
       </c>
       <c r="D25">
-        <v>1.009761887255718</v>
+        <v>1.011081430229927</v>
       </c>
       <c r="E25">
-        <v>1.003110988297787</v>
+        <v>1.004329345687223</v>
       </c>
       <c r="F25">
-        <v>1.021691752000302</v>
+        <v>1.022291024609621</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043518849316575</v>
+        <v>1.044020580437454</v>
       </c>
       <c r="J25">
-        <v>1.020480517411448</v>
+        <v>1.021788842722643</v>
       </c>
       <c r="K25">
-        <v>1.022210529259268</v>
+        <v>1.023510122791804</v>
       </c>
       <c r="L25">
-        <v>1.015661201382762</v>
+        <v>1.016860823854542</v>
       </c>
       <c r="M25">
-        <v>1.033962411574591</v>
+        <v>1.034552882714903</v>
       </c>
       <c r="N25">
-        <v>1.01030930674128</v>
+        <v>1.012771752118102</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.035451343179715</v>
+        <v>1.035918664646692</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.026823829843826</v>
+        <v>1.027756431183833</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.018291271145508</v>
       </c>
     </row>
   </sheetData>
